--- a/First_Draft.xlsx
+++ b/First_Draft.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="1006">
   <si>
     <t>Team</t>
   </si>
@@ -3026,6 +3026,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>0.0</t>
@@ -3507,7 +3510,7 @@
         <v>999</v>
       </c>
       <c r="S2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3566,7 +3569,7 @@
         <v>999</v>
       </c>
       <c r="S3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3625,7 +3628,7 @@
         <v>999</v>
       </c>
       <c r="S4" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3654,7 +3657,7 @@
         <v>4.5</v>
       </c>
       <c r="I5">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3684,7 +3687,7 @@
         <v>999</v>
       </c>
       <c r="S5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3743,7 +3746,7 @@
         <v>999</v>
       </c>
       <c r="S6" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3802,7 +3805,7 @@
         <v>999</v>
       </c>
       <c r="S7" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3831,7 +3834,7 @@
         <v>6.5</v>
       </c>
       <c r="I8">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3861,7 +3864,7 @@
         <v>999</v>
       </c>
       <c r="S8" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3890,7 +3893,7 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3920,7 +3923,7 @@
         <v>999</v>
       </c>
       <c r="S9" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3979,7 +3982,7 @@
         <v>999</v>
       </c>
       <c r="S10" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4008,7 +4011,7 @@
         <v>4.5</v>
       </c>
       <c r="I11">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4038,7 +4041,7 @@
         <v>999</v>
       </c>
       <c r="S11" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4097,7 +4100,7 @@
         <v>999</v>
       </c>
       <c r="S12" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4126,7 +4129,7 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -4156,7 +4159,7 @@
         <v>999</v>
       </c>
       <c r="S13" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4185,7 +4188,7 @@
         <v>8</v>
       </c>
       <c r="I14">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -4215,7 +4218,7 @@
         <v>999</v>
       </c>
       <c r="S14" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4244,7 +4247,7 @@
         <v>4.5</v>
       </c>
       <c r="I15">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4274,7 +4277,7 @@
         <v>999</v>
       </c>
       <c r="S15" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4303,7 +4306,7 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4333,7 +4336,7 @@
         <v>999</v>
       </c>
       <c r="S16" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4392,7 +4395,7 @@
         <v>999</v>
       </c>
       <c r="S17" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4451,7 +4454,7 @@
         <v>1000</v>
       </c>
       <c r="S18" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4510,7 +4513,7 @@
         <v>999</v>
       </c>
       <c r="S19" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4539,7 +4542,7 @@
         <v>6</v>
       </c>
       <c r="I20">
-        <v>16.7</v>
+        <v>17.6</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4569,7 +4572,7 @@
         <v>999</v>
       </c>
       <c r="S20" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4628,7 +4631,7 @@
         <v>999</v>
       </c>
       <c r="S21" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4687,7 +4690,7 @@
         <v>999</v>
       </c>
       <c r="S22" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4746,7 +4749,7 @@
         <v>999</v>
       </c>
       <c r="S23" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4805,7 +4808,7 @@
         <v>999</v>
       </c>
       <c r="S24" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4864,7 +4867,7 @@
         <v>999</v>
       </c>
       <c r="S25" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4923,7 +4926,7 @@
         <v>999</v>
       </c>
       <c r="S26" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -4952,7 +4955,7 @@
         <v>4.5</v>
       </c>
       <c r="I27">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4982,7 +4985,7 @@
         <v>999</v>
       </c>
       <c r="S27" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5041,7 +5044,7 @@
         <v>999</v>
       </c>
       <c r="S28" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5070,7 +5073,7 @@
         <v>8</v>
       </c>
       <c r="I29">
-        <v>70.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -5100,7 +5103,7 @@
         <v>999</v>
       </c>
       <c r="S29" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5129,7 +5132,7 @@
         <v>5</v>
       </c>
       <c r="I30">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5159,7 +5162,7 @@
         <v>999</v>
       </c>
       <c r="S30" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5188,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="I31">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5218,7 +5221,7 @@
         <v>999</v>
       </c>
       <c r="S31" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5277,7 +5280,7 @@
         <v>999</v>
       </c>
       <c r="S32" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5336,7 +5339,7 @@
         <v>999</v>
       </c>
       <c r="S33" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5395,7 +5398,7 @@
         <v>999</v>
       </c>
       <c r="S34" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5424,7 +5427,7 @@
         <v>5</v>
       </c>
       <c r="I35">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5454,7 +5457,7 @@
         <v>999</v>
       </c>
       <c r="S35" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5513,7 +5516,7 @@
         <v>999</v>
       </c>
       <c r="S36" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -5542,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="I37">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5572,7 +5575,7 @@
         <v>999</v>
       </c>
       <c r="S37" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -5631,7 +5634,7 @@
         <v>999</v>
       </c>
       <c r="S38" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -5690,7 +5693,7 @@
         <v>999</v>
       </c>
       <c r="S39" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -5749,7 +5752,7 @@
         <v>999</v>
       </c>
       <c r="S40" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -5808,7 +5811,7 @@
         <v>999</v>
       </c>
       <c r="S41" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -5867,7 +5870,7 @@
         <v>999</v>
       </c>
       <c r="S42" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -5926,7 +5929,7 @@
         <v>999</v>
       </c>
       <c r="S43" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -5985,7 +5988,7 @@
         <v>999</v>
       </c>
       <c r="S44" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6044,7 +6047,7 @@
         <v>999</v>
       </c>
       <c r="S45" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6103,7 +6106,7 @@
         <v>999</v>
       </c>
       <c r="S46" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6132,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="I47">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -6162,7 +6165,7 @@
         <v>999</v>
       </c>
       <c r="S47" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6221,7 +6224,7 @@
         <v>999</v>
       </c>
       <c r="S48" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6250,7 +6253,7 @@
         <v>5.5</v>
       </c>
       <c r="I49">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -6280,7 +6283,7 @@
         <v>999</v>
       </c>
       <c r="S49" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6339,7 +6342,7 @@
         <v>999</v>
       </c>
       <c r="S50" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -6398,7 +6401,7 @@
         <v>999</v>
       </c>
       <c r="S51" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -6457,7 +6460,7 @@
         <v>999</v>
       </c>
       <c r="S52" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -6516,7 +6519,7 @@
         <v>999</v>
       </c>
       <c r="S53" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -6575,7 +6578,7 @@
         <v>999</v>
       </c>
       <c r="S54" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -6634,7 +6637,7 @@
         <v>999</v>
       </c>
       <c r="S55" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -6663,7 +6666,7 @@
         <v>4.5</v>
       </c>
       <c r="I56">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -6693,7 +6696,7 @@
         <v>999</v>
       </c>
       <c r="S56" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -6752,7 +6755,7 @@
         <v>1000</v>
       </c>
       <c r="S57" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -6811,7 +6814,7 @@
         <v>999</v>
       </c>
       <c r="S58" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -6870,7 +6873,7 @@
         <v>999</v>
       </c>
       <c r="S59" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -6929,7 +6932,7 @@
         <v>999</v>
       </c>
       <c r="S60" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -6988,7 +6991,7 @@
         <v>999</v>
       </c>
       <c r="S61" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -7017,7 +7020,7 @@
         <v>4.5</v>
       </c>
       <c r="I62">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -7047,7 +7050,7 @@
         <v>1001</v>
       </c>
       <c r="S62" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -7106,7 +7109,7 @@
         <v>1001</v>
       </c>
       <c r="S63" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -7165,7 +7168,7 @@
         <v>999</v>
       </c>
       <c r="S64" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -7224,7 +7227,7 @@
         <v>999</v>
       </c>
       <c r="S65" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -7283,7 +7286,7 @@
         <v>999</v>
       </c>
       <c r="S66" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -7342,7 +7345,7 @@
         <v>999</v>
       </c>
       <c r="S67" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -7401,7 +7404,7 @@
         <v>999</v>
       </c>
       <c r="S68" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -7430,7 +7433,7 @@
         <v>6</v>
       </c>
       <c r="I69">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -7460,7 +7463,7 @@
         <v>999</v>
       </c>
       <c r="S69" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -7519,7 +7522,7 @@
         <v>999</v>
       </c>
       <c r="S70" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -7578,7 +7581,7 @@
         <v>999</v>
       </c>
       <c r="S71" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -7637,7 +7640,7 @@
         <v>999</v>
       </c>
       <c r="S72" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -7696,7 +7699,7 @@
         <v>999</v>
       </c>
       <c r="S73" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -7755,7 +7758,7 @@
         <v>999</v>
       </c>
       <c r="S74" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -7814,7 +7817,7 @@
         <v>999</v>
       </c>
       <c r="S75" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -7873,7 +7876,7 @@
         <v>999</v>
       </c>
       <c r="S76" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -7932,7 +7935,7 @@
         <v>999</v>
       </c>
       <c r="S77" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -7991,7 +7994,7 @@
         <v>999</v>
       </c>
       <c r="S78" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -8050,7 +8053,7 @@
         <v>999</v>
       </c>
       <c r="S79" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -8109,7 +8112,7 @@
         <v>999</v>
       </c>
       <c r="S80" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -8168,7 +8171,7 @@
         <v>1002</v>
       </c>
       <c r="S81" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -8227,7 +8230,7 @@
         <v>999</v>
       </c>
       <c r="S82" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -8286,7 +8289,7 @@
         <v>999</v>
       </c>
       <c r="S83" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -8345,7 +8348,7 @@
         <v>999</v>
       </c>
       <c r="S84" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -8404,7 +8407,7 @@
         <v>999</v>
       </c>
       <c r="S85" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -8433,7 +8436,7 @@
         <v>4.5</v>
       </c>
       <c r="I86">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -8463,7 +8466,7 @@
         <v>999</v>
       </c>
       <c r="S86" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -8522,7 +8525,7 @@
         <v>1003</v>
       </c>
       <c r="S87" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -8581,7 +8584,7 @@
         <v>999</v>
       </c>
       <c r="S88" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -8610,7 +8613,7 @@
         <v>4.5</v>
       </c>
       <c r="I89">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -8640,7 +8643,7 @@
         <v>1002</v>
       </c>
       <c r="S89" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -8699,7 +8702,7 @@
         <v>999</v>
       </c>
       <c r="S90" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -8758,7 +8761,7 @@
         <v>999</v>
       </c>
       <c r="S91" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -8817,7 +8820,7 @@
         <v>999</v>
       </c>
       <c r="S92" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -8876,7 +8879,7 @@
         <v>999</v>
       </c>
       <c r="S93" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -8935,7 +8938,7 @@
         <v>999</v>
       </c>
       <c r="S94" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -8994,7 +8997,7 @@
         <v>999</v>
       </c>
       <c r="S95" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -9053,7 +9056,7 @@
         <v>999</v>
       </c>
       <c r="S96" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -9112,7 +9115,7 @@
         <v>1002</v>
       </c>
       <c r="S97" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -9171,7 +9174,7 @@
         <v>999</v>
       </c>
       <c r="S98" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -9230,7 +9233,7 @@
         <v>999</v>
       </c>
       <c r="S99" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -9289,7 +9292,7 @@
         <v>999</v>
       </c>
       <c r="S100" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -9348,7 +9351,7 @@
         <v>999</v>
       </c>
       <c r="S101" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -9377,7 +9380,7 @@
         <v>4.5</v>
       </c>
       <c r="I102">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -9407,7 +9410,7 @@
         <v>1000</v>
       </c>
       <c r="S102" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -9466,7 +9469,7 @@
         <v>1000</v>
       </c>
       <c r="S103" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -9525,7 +9528,7 @@
         <v>1000</v>
       </c>
       <c r="S104" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -9554,7 +9557,7 @@
         <v>4</v>
       </c>
       <c r="I105">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -9584,7 +9587,7 @@
         <v>1000</v>
       </c>
       <c r="S105" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -9643,7 +9646,7 @@
         <v>999</v>
       </c>
       <c r="S106" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -9702,7 +9705,7 @@
         <v>999</v>
       </c>
       <c r="S107" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -9761,7 +9764,7 @@
         <v>999</v>
       </c>
       <c r="S108" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -9820,7 +9823,7 @@
         <v>999</v>
       </c>
       <c r="S109" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -9879,7 +9882,7 @@
         <v>999</v>
       </c>
       <c r="S110" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -9908,7 +9911,7 @@
         <v>4</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -9938,7 +9941,7 @@
         <v>999</v>
       </c>
       <c r="S111" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -9997,7 +10000,7 @@
         <v>999</v>
       </c>
       <c r="S112" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -10056,7 +10059,7 @@
         <v>999</v>
       </c>
       <c r="S113" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -10115,7 +10118,7 @@
         <v>999</v>
       </c>
       <c r="S114" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -10174,7 +10177,7 @@
         <v>999</v>
       </c>
       <c r="S115" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -10233,7 +10236,7 @@
         <v>999</v>
       </c>
       <c r="S116" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -10292,7 +10295,7 @@
         <v>999</v>
       </c>
       <c r="S117" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -10351,7 +10354,7 @@
         <v>999</v>
       </c>
       <c r="S118" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -10410,7 +10413,7 @@
         <v>999</v>
       </c>
       <c r="S119" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -10469,7 +10472,7 @@
         <v>999</v>
       </c>
       <c r="S120" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -10498,7 +10501,7 @@
         <v>5</v>
       </c>
       <c r="I121">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -10528,7 +10531,7 @@
         <v>999</v>
       </c>
       <c r="S121" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -10557,7 +10560,7 @@
         <v>4.5</v>
       </c>
       <c r="I122">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -10587,7 +10590,7 @@
         <v>999</v>
       </c>
       <c r="S122" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -10616,7 +10619,7 @@
         <v>4.5</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -10646,7 +10649,7 @@
         <v>999</v>
       </c>
       <c r="S123" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -10705,7 +10708,7 @@
         <v>999</v>
       </c>
       <c r="S124" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -10764,7 +10767,7 @@
         <v>999</v>
       </c>
       <c r="S125" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -10823,7 +10826,7 @@
         <v>1002</v>
       </c>
       <c r="S126" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -10882,7 +10885,7 @@
         <v>999</v>
       </c>
       <c r="S127" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -10941,7 +10944,7 @@
         <v>999</v>
       </c>
       <c r="S128" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -11000,7 +11003,7 @@
         <v>999</v>
       </c>
       <c r="S129" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -11059,7 +11062,7 @@
         <v>1000</v>
       </c>
       <c r="S130" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -11118,7 +11121,7 @@
         <v>1000</v>
       </c>
       <c r="S131" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -11147,7 +11150,7 @@
         <v>5.5</v>
       </c>
       <c r="I132">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -11177,7 +11180,7 @@
         <v>999</v>
       </c>
       <c r="S132" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -11236,7 +11239,7 @@
         <v>999</v>
       </c>
       <c r="S133" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -11295,7 +11298,7 @@
         <v>999</v>
       </c>
       <c r="S134" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -11354,7 +11357,7 @@
         <v>999</v>
       </c>
       <c r="S135" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -11413,7 +11416,7 @@
         <v>999</v>
       </c>
       <c r="S136" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -11472,7 +11475,7 @@
         <v>999</v>
       </c>
       <c r="S137" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -11501,7 +11504,7 @@
         <v>5.5</v>
       </c>
       <c r="I138">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -11531,7 +11534,7 @@
         <v>999</v>
       </c>
       <c r="S138" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -11590,7 +11593,7 @@
         <v>999</v>
       </c>
       <c r="S139" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -11649,7 +11652,7 @@
         <v>999</v>
       </c>
       <c r="S140" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -11678,7 +11681,7 @@
         <v>5</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -11708,7 +11711,7 @@
         <v>999</v>
       </c>
       <c r="S141" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -11767,7 +11770,7 @@
         <v>999</v>
       </c>
       <c r="S142" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -11796,7 +11799,7 @@
         <v>5</v>
       </c>
       <c r="I143">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -11826,7 +11829,7 @@
         <v>999</v>
       </c>
       <c r="S143" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -11885,7 +11888,7 @@
         <v>999</v>
       </c>
       <c r="S144" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -11944,7 +11947,7 @@
         <v>999</v>
       </c>
       <c r="S145" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -12003,7 +12006,7 @@
         <v>999</v>
       </c>
       <c r="S146" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -12062,7 +12065,7 @@
         <v>999</v>
       </c>
       <c r="S147" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -12091,7 +12094,7 @@
         <v>6</v>
       </c>
       <c r="I148">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -12121,7 +12124,7 @@
         <v>999</v>
       </c>
       <c r="S148" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -12150,7 +12153,7 @@
         <v>6</v>
       </c>
       <c r="I149">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -12180,7 +12183,7 @@
         <v>999</v>
       </c>
       <c r="S149" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -12239,7 +12242,7 @@
         <v>999</v>
       </c>
       <c r="S150" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -12268,7 +12271,7 @@
         <v>8</v>
       </c>
       <c r="I151">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -12298,7 +12301,7 @@
         <v>999</v>
       </c>
       <c r="S151" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -12357,7 +12360,7 @@
         <v>999</v>
       </c>
       <c r="S152" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -12416,7 +12419,7 @@
         <v>999</v>
       </c>
       <c r="S153" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -12475,7 +12478,7 @@
         <v>999</v>
       </c>
       <c r="S154" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -12504,7 +12507,7 @@
         <v>6</v>
       </c>
       <c r="I155">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -12534,7 +12537,7 @@
         <v>999</v>
       </c>
       <c r="S155" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -12563,7 +12566,7 @@
         <v>5</v>
       </c>
       <c r="I156">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -12593,7 +12596,7 @@
         <v>999</v>
       </c>
       <c r="S156" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -12622,7 +12625,7 @@
         <v>6</v>
       </c>
       <c r="I157">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -12652,7 +12655,7 @@
         <v>999</v>
       </c>
       <c r="S157" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -12711,7 +12714,7 @@
         <v>999</v>
       </c>
       <c r="S158" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -12740,7 +12743,7 @@
         <v>5.5</v>
       </c>
       <c r="I159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -12770,7 +12773,7 @@
         <v>999</v>
       </c>
       <c r="S159" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -12829,7 +12832,7 @@
         <v>999</v>
       </c>
       <c r="S160" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -12888,7 +12891,7 @@
         <v>999</v>
       </c>
       <c r="S161" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -12917,7 +12920,7 @@
         <v>5.5</v>
       </c>
       <c r="I162">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -12947,7 +12950,7 @@
         <v>999</v>
       </c>
       <c r="S162" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -13006,7 +13009,7 @@
         <v>999</v>
       </c>
       <c r="S163" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -13035,7 +13038,7 @@
         <v>4</v>
       </c>
       <c r="I164">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -13065,7 +13068,7 @@
         <v>999</v>
       </c>
       <c r="S164" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -13094,7 +13097,7 @@
         <v>5</v>
       </c>
       <c r="I165">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -13124,7 +13127,7 @@
         <v>1001</v>
       </c>
       <c r="S165" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -13183,7 +13186,7 @@
         <v>999</v>
       </c>
       <c r="S166" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -13242,7 +13245,7 @@
         <v>999</v>
       </c>
       <c r="S167" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -13301,7 +13304,7 @@
         <v>999</v>
       </c>
       <c r="S168" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -13360,7 +13363,7 @@
         <v>999</v>
       </c>
       <c r="S169" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -13419,7 +13422,7 @@
         <v>999</v>
       </c>
       <c r="S170" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -13448,7 +13451,7 @@
         <v>7</v>
       </c>
       <c r="I171">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -13478,7 +13481,7 @@
         <v>999</v>
       </c>
       <c r="S171" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -13537,7 +13540,7 @@
         <v>999</v>
       </c>
       <c r="S172" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -13566,7 +13569,7 @@
         <v>4.5</v>
       </c>
       <c r="I173">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -13596,7 +13599,7 @@
         <v>1001</v>
       </c>
       <c r="S173" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -13655,7 +13658,7 @@
         <v>999</v>
       </c>
       <c r="S174" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -13714,7 +13717,7 @@
         <v>999</v>
       </c>
       <c r="S175" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -13773,7 +13776,7 @@
         <v>999</v>
       </c>
       <c r="S176" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -13802,7 +13805,7 @@
         <v>5.5</v>
       </c>
       <c r="I177">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -13832,7 +13835,7 @@
         <v>999</v>
       </c>
       <c r="S177" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -13891,7 +13894,7 @@
         <v>999</v>
       </c>
       <c r="S178" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -13950,7 +13953,7 @@
         <v>999</v>
       </c>
       <c r="S179" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -14009,7 +14012,7 @@
         <v>999</v>
       </c>
       <c r="S180" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -14068,7 +14071,7 @@
         <v>999</v>
       </c>
       <c r="S181" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -14097,7 +14100,7 @@
         <v>5.5</v>
       </c>
       <c r="I182">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -14127,7 +14130,7 @@
         <v>1001</v>
       </c>
       <c r="S182" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -14186,7 +14189,7 @@
         <v>999</v>
       </c>
       <c r="S183" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -14245,7 +14248,7 @@
         <v>999</v>
       </c>
       <c r="S184" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -14274,7 +14277,7 @@
         <v>4</v>
       </c>
       <c r="I185">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -14304,7 +14307,7 @@
         <v>999</v>
       </c>
       <c r="S185" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="186" spans="1:19">
@@ -14333,7 +14336,7 @@
         <v>4.5</v>
       </c>
       <c r="I186">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -14363,7 +14366,7 @@
         <v>1001</v>
       </c>
       <c r="S186" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="187" spans="1:19">
@@ -14422,7 +14425,7 @@
         <v>1000</v>
       </c>
       <c r="S187" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -14451,7 +14454,7 @@
         <v>4.5</v>
       </c>
       <c r="I188">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -14481,7 +14484,7 @@
         <v>999</v>
       </c>
       <c r="S188" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -14540,7 +14543,7 @@
         <v>999</v>
       </c>
       <c r="S189" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="190" spans="1:19">
@@ -14599,7 +14602,7 @@
         <v>999</v>
       </c>
       <c r="S190" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="191" spans="1:19">
@@ -14628,7 +14631,7 @@
         <v>4</v>
       </c>
       <c r="I191">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -14658,7 +14661,7 @@
         <v>1001</v>
       </c>
       <c r="S191" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -14717,7 +14720,7 @@
         <v>1003</v>
       </c>
       <c r="S192" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="193" spans="1:19">
@@ -14776,7 +14779,7 @@
         <v>1001</v>
       </c>
       <c r="S193" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -14835,7 +14838,7 @@
         <v>1002</v>
       </c>
       <c r="S194" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="195" spans="1:19">
@@ -14894,7 +14897,7 @@
         <v>999</v>
       </c>
       <c r="S195" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -14953,7 +14956,7 @@
         <v>999</v>
       </c>
       <c r="S196" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -15012,7 +15015,7 @@
         <v>999</v>
       </c>
       <c r="S197" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -15071,7 +15074,7 @@
         <v>999</v>
       </c>
       <c r="S198" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="199" spans="1:19">
@@ -15130,7 +15133,7 @@
         <v>999</v>
       </c>
       <c r="S199" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -15189,7 +15192,7 @@
         <v>999</v>
       </c>
       <c r="S200" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="201" spans="1:19">
@@ -15248,7 +15251,7 @@
         <v>999</v>
       </c>
       <c r="S201" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="202" spans="1:19">
@@ -15307,7 +15310,7 @@
         <v>999</v>
       </c>
       <c r="S202" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="203" spans="1:19">
@@ -15366,7 +15369,7 @@
         <v>999</v>
       </c>
       <c r="S203" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="204" spans="1:19">
@@ -15425,7 +15428,7 @@
         <v>999</v>
       </c>
       <c r="S204" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="205" spans="1:19">
@@ -15484,7 +15487,7 @@
         <v>999</v>
       </c>
       <c r="S205" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="206" spans="1:19">
@@ -15543,7 +15546,7 @@
         <v>999</v>
       </c>
       <c r="S206" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="207" spans="1:19">
@@ -15602,7 +15605,7 @@
         <v>999</v>
       </c>
       <c r="S207" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="208" spans="1:19">
@@ -15661,7 +15664,7 @@
         <v>999</v>
       </c>
       <c r="S208" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="209" spans="1:19">
@@ -15690,7 +15693,7 @@
         <v>4.5</v>
       </c>
       <c r="I209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -15720,7 +15723,7 @@
         <v>999</v>
       </c>
       <c r="S209" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="210" spans="1:19">
@@ -15749,7 +15752,7 @@
         <v>5.5</v>
       </c>
       <c r="I210">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -15779,7 +15782,7 @@
         <v>999</v>
       </c>
       <c r="S210" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="211" spans="1:19">
@@ -15838,7 +15841,7 @@
         <v>1000</v>
       </c>
       <c r="S211" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="212" spans="1:19">
@@ -15867,7 +15870,7 @@
         <v>4</v>
       </c>
       <c r="I212">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -15897,7 +15900,7 @@
         <v>999</v>
       </c>
       <c r="S212" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="213" spans="1:19">
@@ -15956,7 +15959,7 @@
         <v>999</v>
       </c>
       <c r="S213" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="214" spans="1:19">
@@ -16015,7 +16018,7 @@
         <v>999</v>
       </c>
       <c r="S214" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="215" spans="1:19">
@@ -16044,7 +16047,7 @@
         <v>4.5</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -16074,7 +16077,7 @@
         <v>999</v>
       </c>
       <c r="S215" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -16133,7 +16136,7 @@
         <v>999</v>
       </c>
       <c r="S216" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -16192,7 +16195,7 @@
         <v>999</v>
       </c>
       <c r="S217" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="218" spans="1:19">
@@ -16251,7 +16254,7 @@
         <v>999</v>
       </c>
       <c r="S218" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="219" spans="1:19">
@@ -16310,7 +16313,7 @@
         <v>999</v>
       </c>
       <c r="S219" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="220" spans="1:19">
@@ -16339,7 +16342,7 @@
         <v>4.5</v>
       </c>
       <c r="I220">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -16369,7 +16372,7 @@
         <v>1001</v>
       </c>
       <c r="S220" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="221" spans="1:19">
@@ -16428,7 +16431,7 @@
         <v>999</v>
       </c>
       <c r="S221" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="222" spans="1:19">
@@ -16487,7 +16490,7 @@
         <v>999</v>
       </c>
       <c r="S222" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="223" spans="1:19">
@@ -16546,7 +16549,7 @@
         <v>1001</v>
       </c>
       <c r="S223" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="224" spans="1:19">
@@ -16575,7 +16578,7 @@
         <v>4</v>
       </c>
       <c r="I224">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="J224">
         <v>0</v>
@@ -16605,7 +16608,7 @@
         <v>999</v>
       </c>
       <c r="S224" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="225" spans="1:19">
@@ -16664,7 +16667,7 @@
         <v>999</v>
       </c>
       <c r="S225" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="226" spans="1:19">
@@ -16723,7 +16726,7 @@
         <v>999</v>
       </c>
       <c r="S226" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="227" spans="1:19">
@@ -16752,7 +16755,7 @@
         <v>6.5</v>
       </c>
       <c r="I227">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -16782,7 +16785,7 @@
         <v>999</v>
       </c>
       <c r="S227" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="228" spans="1:19">
@@ -16841,7 +16844,7 @@
         <v>999</v>
       </c>
       <c r="S228" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="229" spans="1:19">
@@ -16870,7 +16873,7 @@
         <v>6</v>
       </c>
       <c r="I229">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -16900,7 +16903,7 @@
         <v>1001</v>
       </c>
       <c r="S229" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="230" spans="1:19">
@@ -16959,7 +16962,7 @@
         <v>999</v>
       </c>
       <c r="S230" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="231" spans="1:19">
@@ -17018,7 +17021,7 @@
         <v>999</v>
       </c>
       <c r="S231" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="232" spans="1:19">
@@ -17077,7 +17080,7 @@
         <v>999</v>
       </c>
       <c r="S232" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="233" spans="1:19">
@@ -17136,7 +17139,7 @@
         <v>999</v>
       </c>
       <c r="S233" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -17195,7 +17198,7 @@
         <v>999</v>
       </c>
       <c r="S234" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="235" spans="1:19">
@@ -17254,7 +17257,7 @@
         <v>999</v>
       </c>
       <c r="S235" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="236" spans="1:19">
@@ -17313,7 +17316,7 @@
         <v>999</v>
       </c>
       <c r="S236" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="237" spans="1:19">
@@ -17372,7 +17375,7 @@
         <v>999</v>
       </c>
       <c r="S237" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="238" spans="1:19">
@@ -17401,7 +17404,7 @@
         <v>4.5</v>
       </c>
       <c r="I238">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -17431,7 +17434,7 @@
         <v>999</v>
       </c>
       <c r="S238" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="239" spans="1:19">
@@ -17490,7 +17493,7 @@
         <v>999</v>
       </c>
       <c r="S239" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="240" spans="1:19">
@@ -17549,7 +17552,7 @@
         <v>999</v>
       </c>
       <c r="S240" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="241" spans="1:19">
@@ -17608,7 +17611,7 @@
         <v>999</v>
       </c>
       <c r="S241" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="242" spans="1:19">
@@ -17667,7 +17670,7 @@
         <v>999</v>
       </c>
       <c r="S242" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="243" spans="1:19">
@@ -17726,7 +17729,7 @@
         <v>1002</v>
       </c>
       <c r="S243" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="244" spans="1:19">
@@ -17785,7 +17788,7 @@
         <v>999</v>
       </c>
       <c r="S244" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="245" spans="1:19">
@@ -17844,7 +17847,7 @@
         <v>999</v>
       </c>
       <c r="S245" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="246" spans="1:19">
@@ -17873,7 +17876,7 @@
         <v>4</v>
       </c>
       <c r="I246">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -17903,7 +17906,7 @@
         <v>999</v>
       </c>
       <c r="S246" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="247" spans="1:19">
@@ -17932,7 +17935,7 @@
         <v>4</v>
       </c>
       <c r="I247">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -17962,7 +17965,7 @@
         <v>999</v>
       </c>
       <c r="S247" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="248" spans="1:19">
@@ -18021,7 +18024,7 @@
         <v>999</v>
       </c>
       <c r="S248" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="249" spans="1:19">
@@ -18050,7 +18053,7 @@
         <v>4.5</v>
       </c>
       <c r="I249">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -18080,7 +18083,7 @@
         <v>1001</v>
       </c>
       <c r="S249" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="250" spans="1:19">
@@ -18139,7 +18142,7 @@
         <v>999</v>
       </c>
       <c r="S250" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="251" spans="1:19">
@@ -18198,7 +18201,7 @@
         <v>999</v>
       </c>
       <c r="S251" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="252" spans="1:19">
@@ -18257,7 +18260,7 @@
         <v>999</v>
       </c>
       <c r="S252" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="253" spans="1:19">
@@ -18316,7 +18319,7 @@
         <v>999</v>
       </c>
       <c r="S253" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="254" spans="1:19">
@@ -18345,7 +18348,7 @@
         <v>8</v>
       </c>
       <c r="I254">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -18375,7 +18378,7 @@
         <v>999</v>
       </c>
       <c r="S254" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="255" spans="1:19">
@@ -18434,7 +18437,7 @@
         <v>999</v>
       </c>
       <c r="S255" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="256" spans="1:19">
@@ -18493,7 +18496,7 @@
         <v>999</v>
       </c>
       <c r="S256" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="257" spans="1:19">
@@ -18522,7 +18525,7 @@
         <v>7</v>
       </c>
       <c r="I257">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -18552,7 +18555,7 @@
         <v>999</v>
       </c>
       <c r="S257" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="258" spans="1:19">
@@ -18611,7 +18614,7 @@
         <v>999</v>
       </c>
       <c r="S258" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="259" spans="1:19">
@@ -18670,7 +18673,7 @@
         <v>999</v>
       </c>
       <c r="S259" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="260" spans="1:19">
@@ -18729,7 +18732,7 @@
         <v>999</v>
       </c>
       <c r="S260" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="261" spans="1:19">
@@ -18758,7 +18761,7 @@
         <v>4.5</v>
       </c>
       <c r="I261">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -18788,7 +18791,7 @@
         <v>999</v>
       </c>
       <c r="S261" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="262" spans="1:19">
@@ -18847,7 +18850,7 @@
         <v>999</v>
       </c>
       <c r="S262" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="263" spans="1:19">
@@ -18906,7 +18909,7 @@
         <v>999</v>
       </c>
       <c r="S263" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="264" spans="1:19">
@@ -18965,7 +18968,7 @@
         <v>999</v>
       </c>
       <c r="S264" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="265" spans="1:19">
@@ -18994,7 +18997,7 @@
         <v>4.5</v>
       </c>
       <c r="I265">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J265">
         <v>0</v>
@@ -19024,7 +19027,7 @@
         <v>999</v>
       </c>
       <c r="S265" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="266" spans="1:19">
@@ -19083,7 +19086,7 @@
         <v>999</v>
       </c>
       <c r="S266" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="267" spans="1:19">
@@ -19142,7 +19145,7 @@
         <v>999</v>
       </c>
       <c r="S267" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="268" spans="1:19">
@@ -19201,7 +19204,7 @@
         <v>1002</v>
       </c>
       <c r="S268" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="269" spans="1:19">
@@ -19260,7 +19263,7 @@
         <v>999</v>
       </c>
       <c r="S269" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="270" spans="1:19">
@@ -19289,7 +19292,7 @@
         <v>4.5</v>
       </c>
       <c r="I270">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -19319,7 +19322,7 @@
         <v>1001</v>
       </c>
       <c r="S270" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="271" spans="1:19">
@@ -19348,7 +19351,7 @@
         <v>6</v>
       </c>
       <c r="I271">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J271">
         <v>0</v>
@@ -19378,7 +19381,7 @@
         <v>999</v>
       </c>
       <c r="S271" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="272" spans="1:19">
@@ -19437,7 +19440,7 @@
         <v>1002</v>
       </c>
       <c r="S272" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="273" spans="1:19">
@@ -19496,7 +19499,7 @@
         <v>999</v>
       </c>
       <c r="S273" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="274" spans="1:19">
@@ -19555,7 +19558,7 @@
         <v>999</v>
       </c>
       <c r="S274" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="275" spans="1:19">
@@ -19614,7 +19617,7 @@
         <v>1000</v>
       </c>
       <c r="S275" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="276" spans="1:19">
@@ -19673,7 +19676,7 @@
         <v>999</v>
       </c>
       <c r="S276" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="277" spans="1:19">
@@ -19732,7 +19735,7 @@
         <v>1003</v>
       </c>
       <c r="S277" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="278" spans="1:19">
@@ -19761,7 +19764,7 @@
         <v>7</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J278">
         <v>0</v>
@@ -19791,7 +19794,7 @@
         <v>1000</v>
       </c>
       <c r="S278" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="279" spans="1:19">
@@ -19850,7 +19853,7 @@
         <v>999</v>
       </c>
       <c r="S279" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="280" spans="1:19">
@@ -19909,7 +19912,7 @@
         <v>1000</v>
       </c>
       <c r="S280" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="281" spans="1:19">
@@ -19968,7 +19971,7 @@
         <v>999</v>
       </c>
       <c r="S281" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="282" spans="1:19">
@@ -19997,7 +20000,7 @@
         <v>4</v>
       </c>
       <c r="I282">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -20027,7 +20030,7 @@
         <v>999</v>
       </c>
       <c r="S282" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="283" spans="1:19">
@@ -20056,7 +20059,7 @@
         <v>4.5</v>
       </c>
       <c r="I283">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -20086,7 +20089,7 @@
         <v>999</v>
       </c>
       <c r="S283" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="284" spans="1:19">
@@ -20145,7 +20148,7 @@
         <v>999</v>
       </c>
       <c r="S284" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="285" spans="1:19">
@@ -20204,7 +20207,7 @@
         <v>1002</v>
       </c>
       <c r="S285" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="286" spans="1:19">
@@ -20263,7 +20266,7 @@
         <v>999</v>
       </c>
       <c r="S286" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="287" spans="1:19">
@@ -20322,7 +20325,7 @@
         <v>999</v>
       </c>
       <c r="S287" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="288" spans="1:19">
@@ -20381,7 +20384,7 @@
         <v>999</v>
       </c>
       <c r="S288" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="289" spans="1:19">
@@ -20410,7 +20413,7 @@
         <v>4</v>
       </c>
       <c r="I289">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -20440,7 +20443,7 @@
         <v>999</v>
       </c>
       <c r="S289" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="290" spans="1:19">
@@ -20469,7 +20472,7 @@
         <v>5</v>
       </c>
       <c r="I290">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J290">
         <v>0</v>
@@ -20499,7 +20502,7 @@
         <v>999</v>
       </c>
       <c r="S290" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="291" spans="1:19">
@@ -20558,7 +20561,7 @@
         <v>999</v>
       </c>
       <c r="S291" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="292" spans="1:19">
@@ -20587,7 +20590,7 @@
         <v>5.5</v>
       </c>
       <c r="I292">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J292">
         <v>0</v>
@@ -20617,7 +20620,7 @@
         <v>999</v>
       </c>
       <c r="S292" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="293" spans="1:19">
@@ -20676,7 +20679,7 @@
         <v>999</v>
       </c>
       <c r="S293" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="294" spans="1:19">
@@ -20735,7 +20738,7 @@
         <v>999</v>
       </c>
       <c r="S294" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="295" spans="1:19">
@@ -20764,7 +20767,7 @@
         <v>6.5</v>
       </c>
       <c r="I295">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J295">
         <v>0</v>
@@ -20794,7 +20797,7 @@
         <v>1001</v>
       </c>
       <c r="S295" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="296" spans="1:19">
@@ -20853,7 +20856,7 @@
         <v>999</v>
       </c>
       <c r="S296" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="297" spans="1:19">
@@ -20882,7 +20885,7 @@
         <v>5.5</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="J297">
         <v>0</v>
@@ -20912,7 +20915,7 @@
         <v>999</v>
       </c>
       <c r="S297" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="298" spans="1:19">
@@ -20971,7 +20974,7 @@
         <v>999</v>
       </c>
       <c r="S298" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="299" spans="1:19">
@@ -21000,7 +21003,7 @@
         <v>5.5</v>
       </c>
       <c r="I299">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J299">
         <v>0</v>
@@ -21030,7 +21033,7 @@
         <v>999</v>
       </c>
       <c r="S299" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="300" spans="1:19">
@@ -21089,7 +21092,7 @@
         <v>1002</v>
       </c>
       <c r="S300" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="301" spans="1:19">
@@ -21148,7 +21151,7 @@
         <v>999</v>
       </c>
       <c r="S301" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="302" spans="1:19">
@@ -21177,7 +21180,7 @@
         <v>6.5</v>
       </c>
       <c r="I302">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="J302">
         <v>0</v>
@@ -21207,7 +21210,7 @@
         <v>999</v>
       </c>
       <c r="S302" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -21236,7 +21239,7 @@
         <v>5.5</v>
       </c>
       <c r="I303">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="J303">
         <v>0</v>
@@ -21266,7 +21269,7 @@
         <v>999</v>
       </c>
       <c r="S303" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="304" spans="1:19">
@@ -21325,7 +21328,7 @@
         <v>999</v>
       </c>
       <c r="S304" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="305" spans="1:19">
@@ -21354,7 +21357,7 @@
         <v>13</v>
       </c>
       <c r="I305">
-        <v>58.8</v>
+        <v>59.4</v>
       </c>
       <c r="J305">
         <v>0</v>
@@ -21384,7 +21387,7 @@
         <v>999</v>
       </c>
       <c r="S305" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="306" spans="1:19">
@@ -21413,7 +21416,7 @@
         <v>7</v>
       </c>
       <c r="I306">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="J306">
         <v>0</v>
@@ -21443,7 +21446,7 @@
         <v>999</v>
       </c>
       <c r="S306" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="307" spans="1:19">
@@ -21472,7 +21475,7 @@
         <v>7.5</v>
       </c>
       <c r="I307">
-        <v>57</v>
+        <v>57.7</v>
       </c>
       <c r="J307">
         <v>0</v>
@@ -21502,7 +21505,7 @@
         <v>999</v>
       </c>
       <c r="S307" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="308" spans="1:19">
@@ -21561,7 +21564,7 @@
         <v>999</v>
       </c>
       <c r="S308" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="309" spans="1:19">
@@ -21620,7 +21623,7 @@
         <v>999</v>
       </c>
       <c r="S309" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="310" spans="1:19">
@@ -21649,7 +21652,7 @@
         <v>9</v>
       </c>
       <c r="I310">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J310">
         <v>0</v>
@@ -21679,7 +21682,7 @@
         <v>1001</v>
       </c>
       <c r="S310" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="311" spans="1:19">
@@ -21708,7 +21711,7 @@
         <v>4</v>
       </c>
       <c r="I311">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J311">
         <v>0</v>
@@ -21738,7 +21741,7 @@
         <v>1002</v>
       </c>
       <c r="S311" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="312" spans="1:19">
@@ -21767,7 +21770,7 @@
         <v>5</v>
       </c>
       <c r="I312">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J312">
         <v>0</v>
@@ -21797,7 +21800,7 @@
         <v>1001</v>
       </c>
       <c r="S312" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="313" spans="1:19">
@@ -21856,7 +21859,7 @@
         <v>1001</v>
       </c>
       <c r="S313" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="314" spans="1:19">
@@ -21915,7 +21918,7 @@
         <v>999</v>
       </c>
       <c r="S314" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="315" spans="1:19">
@@ -21944,7 +21947,7 @@
         <v>8</v>
       </c>
       <c r="I315">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="J315">
         <v>0</v>
@@ -21974,7 +21977,7 @@
         <v>999</v>
       </c>
       <c r="S315" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="316" spans="1:19">
@@ -22033,7 +22036,7 @@
         <v>999</v>
       </c>
       <c r="S316" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="317" spans="1:19">
@@ -22062,7 +22065,7 @@
         <v>5.5</v>
       </c>
       <c r="I317">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J317">
         <v>0</v>
@@ -22092,7 +22095,7 @@
         <v>999</v>
       </c>
       <c r="S317" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="318" spans="1:19">
@@ -22121,7 +22124,7 @@
         <v>9</v>
       </c>
       <c r="I318">
-        <v>19.4</v>
+        <v>20</v>
       </c>
       <c r="J318">
         <v>0</v>
@@ -22151,7 +22154,7 @@
         <v>999</v>
       </c>
       <c r="S318" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="319" spans="1:19">
@@ -22210,7 +22213,7 @@
         <v>999</v>
       </c>
       <c r="S319" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="320" spans="1:19">
@@ -22239,7 +22242,7 @@
         <v>4</v>
       </c>
       <c r="I320">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J320">
         <v>0</v>
@@ -22269,7 +22272,7 @@
         <v>999</v>
       </c>
       <c r="S320" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="321" spans="1:19">
@@ -22298,7 +22301,7 @@
         <v>4</v>
       </c>
       <c r="I321">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J321">
         <v>0</v>
@@ -22328,7 +22331,7 @@
         <v>1000</v>
       </c>
       <c r="S321" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="322" spans="1:19">
@@ -22387,7 +22390,7 @@
         <v>1000</v>
       </c>
       <c r="S322" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="323" spans="1:19">
@@ -22446,7 +22449,7 @@
         <v>999</v>
       </c>
       <c r="S323" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="324" spans="1:19">
@@ -22505,7 +22508,7 @@
         <v>999</v>
       </c>
       <c r="S324" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="325" spans="1:19">
@@ -22534,7 +22537,7 @@
         <v>5</v>
       </c>
       <c r="I325">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="J325">
         <v>0</v>
@@ -22564,7 +22567,7 @@
         <v>999</v>
       </c>
       <c r="S325" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="326" spans="1:19">
@@ -22623,7 +22626,7 @@
         <v>999</v>
       </c>
       <c r="S326" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="327" spans="1:19">
@@ -22652,7 +22655,7 @@
         <v>12</v>
       </c>
       <c r="I327">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="J327">
         <v>0</v>
@@ -22682,7 +22685,7 @@
         <v>999</v>
       </c>
       <c r="S327" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="328" spans="1:19">
@@ -22711,7 +22714,7 @@
         <v>5.5</v>
       </c>
       <c r="I328">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J328">
         <v>0</v>
@@ -22741,7 +22744,7 @@
         <v>999</v>
       </c>
       <c r="S328" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="329" spans="1:19">
@@ -22800,7 +22803,7 @@
         <v>999</v>
       </c>
       <c r="S329" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="330" spans="1:19">
@@ -22829,7 +22832,7 @@
         <v>7</v>
       </c>
       <c r="I330">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J330">
         <v>0</v>
@@ -22859,7 +22862,7 @@
         <v>999</v>
       </c>
       <c r="S330" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="331" spans="1:19">
@@ -22888,7 +22891,7 @@
         <v>7</v>
       </c>
       <c r="I331">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="J331">
         <v>0</v>
@@ -22918,7 +22921,7 @@
         <v>999</v>
       </c>
       <c r="S331" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="332" spans="1:19">
@@ -22977,7 +22980,7 @@
         <v>999</v>
       </c>
       <c r="S332" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="333" spans="1:19">
@@ -23036,7 +23039,7 @@
         <v>999</v>
       </c>
       <c r="S333" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="334" spans="1:19">
@@ -23065,7 +23068,7 @@
         <v>6</v>
       </c>
       <c r="I334">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="J334">
         <v>0</v>
@@ -23095,7 +23098,7 @@
         <v>1002</v>
       </c>
       <c r="S334" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="335" spans="1:19">
@@ -23154,7 +23157,7 @@
         <v>1000</v>
       </c>
       <c r="S335" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="336" spans="1:19">
@@ -23213,7 +23216,7 @@
         <v>999</v>
       </c>
       <c r="S336" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="337" spans="1:19">
@@ -23242,7 +23245,7 @@
         <v>6</v>
       </c>
       <c r="I337">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="J337">
         <v>0</v>
@@ -23272,7 +23275,7 @@
         <v>999</v>
       </c>
       <c r="S337" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="338" spans="1:19">
@@ -23331,7 +23334,7 @@
         <v>999</v>
       </c>
       <c r="S338" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="339" spans="1:19">
@@ -23390,7 +23393,7 @@
         <v>999</v>
       </c>
       <c r="S339" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="340" spans="1:19">
@@ -23449,7 +23452,7 @@
         <v>999</v>
       </c>
       <c r="S340" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="341" spans="1:19">
@@ -23508,7 +23511,7 @@
         <v>999</v>
       </c>
       <c r="S341" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="342" spans="1:19">
@@ -23537,7 +23540,7 @@
         <v>11.5</v>
       </c>
       <c r="I342">
-        <v>49.4</v>
+        <v>47.9</v>
       </c>
       <c r="J342">
         <v>0</v>
@@ -23567,7 +23570,7 @@
         <v>999</v>
       </c>
       <c r="S342" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="343" spans="1:19">
@@ -23596,7 +23599,7 @@
         <v>6.5</v>
       </c>
       <c r="I343">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="J343">
         <v>0</v>
@@ -23626,7 +23629,7 @@
         <v>999</v>
       </c>
       <c r="S343" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="344" spans="1:19">
@@ -23685,7 +23688,7 @@
         <v>999</v>
       </c>
       <c r="S344" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="345" spans="1:19">
@@ -23744,7 +23747,7 @@
         <v>999</v>
       </c>
       <c r="S345" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="346" spans="1:19">
@@ -23803,7 +23806,7 @@
         <v>999</v>
       </c>
       <c r="S346" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="347" spans="1:19">
@@ -23862,7 +23865,7 @@
         <v>999</v>
       </c>
       <c r="S347" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="348" spans="1:19">
@@ -23921,7 +23924,7 @@
         <v>999</v>
       </c>
       <c r="S348" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="349" spans="1:19">
@@ -23980,7 +23983,7 @@
         <v>999</v>
       </c>
       <c r="S349" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="350" spans="1:19">
@@ -24009,7 +24012,7 @@
         <v>10.5</v>
       </c>
       <c r="I350">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J350">
         <v>0</v>
@@ -24039,7 +24042,7 @@
         <v>999</v>
       </c>
       <c r="S350" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="351" spans="1:19">
@@ -24068,7 +24071,7 @@
         <v>5</v>
       </c>
       <c r="I351">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J351">
         <v>0</v>
@@ -24098,7 +24101,7 @@
         <v>999</v>
       </c>
       <c r="S351" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="352" spans="1:19">
@@ -24157,7 +24160,7 @@
         <v>999</v>
       </c>
       <c r="S352" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="353" spans="1:19">
@@ -24216,7 +24219,7 @@
         <v>999</v>
       </c>
       <c r="S353" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="354" spans="1:19">
@@ -24275,7 +24278,7 @@
         <v>999</v>
       </c>
       <c r="S354" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="355" spans="1:19">
@@ -24334,7 +24337,7 @@
         <v>999</v>
       </c>
       <c r="S355" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="356" spans="1:19">
@@ -24393,7 +24396,7 @@
         <v>999</v>
       </c>
       <c r="S356" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="357" spans="1:19">
@@ -24452,7 +24455,7 @@
         <v>999</v>
       </c>
       <c r="S357" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="358" spans="1:19">
@@ -24511,7 +24514,7 @@
         <v>999</v>
       </c>
       <c r="S358" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="359" spans="1:19">
@@ -24540,7 +24543,7 @@
         <v>6.5</v>
       </c>
       <c r="I359">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="J359">
         <v>0</v>
@@ -24570,7 +24573,7 @@
         <v>999</v>
       </c>
       <c r="S359" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="360" spans="1:19">
@@ -24629,7 +24632,7 @@
         <v>999</v>
       </c>
       <c r="S360" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="361" spans="1:19">
@@ -24688,7 +24691,7 @@
         <v>999</v>
       </c>
       <c r="S361" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="362" spans="1:19">
@@ -24747,7 +24750,7 @@
         <v>999</v>
       </c>
       <c r="S362" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="363" spans="1:19">
@@ -24806,7 +24809,7 @@
         <v>999</v>
       </c>
       <c r="S363" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="364" spans="1:19">
@@ -24835,7 +24838,7 @@
         <v>7.5</v>
       </c>
       <c r="I364">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="J364">
         <v>0</v>
@@ -24865,7 +24868,7 @@
         <v>999</v>
       </c>
       <c r="S364" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="365" spans="1:19">
@@ -24924,7 +24927,7 @@
         <v>999</v>
       </c>
       <c r="S365" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="366" spans="1:19">
@@ -24983,7 +24986,7 @@
         <v>999</v>
       </c>
       <c r="S366" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="367" spans="1:19">
@@ -25042,7 +25045,7 @@
         <v>999</v>
       </c>
       <c r="S367" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="368" spans="1:19">
@@ -25071,7 +25074,7 @@
         <v>5</v>
       </c>
       <c r="I368">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J368">
         <v>0</v>
@@ -25101,7 +25104,7 @@
         <v>999</v>
       </c>
       <c r="S368" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="369" spans="1:19">
@@ -25130,7 +25133,7 @@
         <v>7</v>
       </c>
       <c r="I369">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="J369">
         <v>0</v>
@@ -25160,7 +25163,7 @@
         <v>999</v>
       </c>
       <c r="S369" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="370" spans="1:19">
@@ -25189,7 +25192,7 @@
         <v>4.5</v>
       </c>
       <c r="I370">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J370">
         <v>0</v>
@@ -25219,7 +25222,7 @@
         <v>1001</v>
       </c>
       <c r="S370" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="371" spans="1:19">
@@ -25278,7 +25281,7 @@
         <v>999</v>
       </c>
       <c r="S371" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="372" spans="1:19">
@@ -25337,7 +25340,7 @@
         <v>999</v>
       </c>
       <c r="S372" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="373" spans="1:19">
@@ -25366,7 +25369,7 @@
         <v>6.5</v>
       </c>
       <c r="I373">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J373">
         <v>0</v>
@@ -25396,7 +25399,7 @@
         <v>999</v>
       </c>
       <c r="S373" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="374" spans="1:19">
@@ -25425,7 +25428,7 @@
         <v>4.5</v>
       </c>
       <c r="I374">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J374">
         <v>0</v>
@@ -25455,7 +25458,7 @@
         <v>999</v>
       </c>
       <c r="S374" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="375" spans="1:19">
@@ -25514,7 +25517,7 @@
         <v>1001</v>
       </c>
       <c r="S375" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="376" spans="1:19">
@@ -25573,7 +25576,7 @@
         <v>999</v>
       </c>
       <c r="S376" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="377" spans="1:19">
@@ -25632,7 +25635,7 @@
         <v>999</v>
       </c>
       <c r="S377" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="378" spans="1:19">
@@ -25691,7 +25694,7 @@
         <v>1000</v>
       </c>
       <c r="S378" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="379" spans="1:19">
@@ -25720,7 +25723,7 @@
         <v>4</v>
       </c>
       <c r="I379">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J379">
         <v>0</v>
@@ -25750,7 +25753,7 @@
         <v>999</v>
       </c>
       <c r="S379" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="380" spans="1:19">
@@ -25809,7 +25812,7 @@
         <v>999</v>
       </c>
       <c r="S380" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="381" spans="1:19">
@@ -25868,7 +25871,7 @@
         <v>999</v>
       </c>
       <c r="S381" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="382" spans="1:19">
@@ -25927,7 +25930,7 @@
         <v>999</v>
       </c>
       <c r="S382" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="383" spans="1:19">
@@ -25956,7 +25959,7 @@
         <v>5</v>
       </c>
       <c r="I383">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="J383">
         <v>0</v>
@@ -25986,7 +25989,7 @@
         <v>999</v>
       </c>
       <c r="S383" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="384" spans="1:19">
@@ -26045,7 +26048,7 @@
         <v>999</v>
       </c>
       <c r="S384" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="385" spans="1:19">
@@ -26104,7 +26107,7 @@
         <v>999</v>
       </c>
       <c r="S385" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="386" spans="1:19">
@@ -26163,7 +26166,7 @@
         <v>999</v>
       </c>
       <c r="S386" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="387" spans="1:19">
@@ -26192,7 +26195,7 @@
         <v>4.5</v>
       </c>
       <c r="I387">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J387">
         <v>0</v>
@@ -26222,7 +26225,7 @@
         <v>1000</v>
       </c>
       <c r="S387" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="388" spans="1:19">
@@ -26281,7 +26284,7 @@
         <v>999</v>
       </c>
       <c r="S388" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="389" spans="1:19">
@@ -26340,7 +26343,7 @@
         <v>999</v>
       </c>
       <c r="S389" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="390" spans="1:19">
@@ -26399,7 +26402,7 @@
         <v>999</v>
       </c>
       <c r="S390" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="391" spans="1:19">
@@ -26428,7 +26431,7 @@
         <v>4.5</v>
       </c>
       <c r="I391">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J391">
         <v>0</v>
@@ -26458,7 +26461,7 @@
         <v>999</v>
       </c>
       <c r="S391" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="392" spans="1:19">
@@ -26517,7 +26520,7 @@
         <v>999</v>
       </c>
       <c r="S392" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="393" spans="1:19">
@@ -26546,7 +26549,7 @@
         <v>5</v>
       </c>
       <c r="I393">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J393">
         <v>0</v>
@@ -26576,7 +26579,7 @@
         <v>999</v>
       </c>
       <c r="S393" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="394" spans="1:19">
@@ -26635,7 +26638,7 @@
         <v>999</v>
       </c>
       <c r="S394" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="395" spans="1:19">
@@ -26664,7 +26667,7 @@
         <v>5</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J395">
         <v>0</v>
@@ -26694,7 +26697,7 @@
         <v>999</v>
       </c>
       <c r="S395" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="396" spans="1:19">
@@ -26753,7 +26756,7 @@
         <v>999</v>
       </c>
       <c r="S396" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="397" spans="1:19">
@@ -26812,7 +26815,7 @@
         <v>999</v>
       </c>
       <c r="S397" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="398" spans="1:19">
@@ -26871,7 +26874,7 @@
         <v>999</v>
       </c>
       <c r="S398" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="399" spans="1:19">
@@ -26900,7 +26903,7 @@
         <v>5</v>
       </c>
       <c r="I399">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J399">
         <v>0</v>
@@ -26930,7 +26933,7 @@
         <v>999</v>
       </c>
       <c r="S399" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="400" spans="1:19">
@@ -26959,7 +26962,7 @@
         <v>6</v>
       </c>
       <c r="I400">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="J400">
         <v>0</v>
@@ -26989,7 +26992,7 @@
         <v>999</v>
       </c>
       <c r="S400" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="401" spans="1:19">
@@ -27048,7 +27051,7 @@
         <v>1000</v>
       </c>
       <c r="S401" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="402" spans="1:19">
@@ -27077,7 +27080,7 @@
         <v>5</v>
       </c>
       <c r="I402">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J402">
         <v>0</v>
@@ -27107,7 +27110,7 @@
         <v>999</v>
       </c>
       <c r="S402" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="403" spans="1:19">
@@ -27136,7 +27139,7 @@
         <v>4.5</v>
       </c>
       <c r="I403">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J403">
         <v>0</v>
@@ -27166,7 +27169,7 @@
         <v>999</v>
       </c>
       <c r="S403" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="404" spans="1:19">
@@ -27195,7 +27198,7 @@
         <v>4</v>
       </c>
       <c r="I404">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="J404">
         <v>0</v>
@@ -27225,7 +27228,7 @@
         <v>999</v>
       </c>
       <c r="S404" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="405" spans="1:19">
@@ -27284,7 +27287,7 @@
         <v>999</v>
       </c>
       <c r="S405" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="406" spans="1:19">
@@ -27343,7 +27346,7 @@
         <v>999</v>
       </c>
       <c r="S406" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="407" spans="1:19">
@@ -27402,7 +27405,7 @@
         <v>999</v>
       </c>
       <c r="S407" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="408" spans="1:19">
@@ -27431,7 +27434,7 @@
         <v>4.5</v>
       </c>
       <c r="I408">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J408">
         <v>0</v>
@@ -27461,7 +27464,7 @@
         <v>999</v>
       </c>
       <c r="S408" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="409" spans="1:19">
@@ -27520,7 +27523,7 @@
         <v>1000</v>
       </c>
       <c r="S409" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="410" spans="1:19">
@@ -27579,7 +27582,7 @@
         <v>999</v>
       </c>
       <c r="S410" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="411" spans="1:19">
@@ -27638,7 +27641,7 @@
         <v>999</v>
       </c>
       <c r="S411" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="412" spans="1:19">
@@ -27697,7 +27700,7 @@
         <v>999</v>
       </c>
       <c r="S412" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="413" spans="1:19">
@@ -27756,7 +27759,7 @@
         <v>999</v>
       </c>
       <c r="S413" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="414" spans="1:19">
@@ -27815,7 +27818,7 @@
         <v>999</v>
       </c>
       <c r="S414" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="415" spans="1:19">
@@ -27874,7 +27877,7 @@
         <v>999</v>
       </c>
       <c r="S415" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="416" spans="1:19">
@@ -27933,7 +27936,7 @@
         <v>1000</v>
       </c>
       <c r="S416" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="417" spans="1:19">
@@ -27992,7 +27995,7 @@
         <v>999</v>
       </c>
       <c r="S417" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="418" spans="1:19">
@@ -28021,7 +28024,7 @@
         <v>5</v>
       </c>
       <c r="I418">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J418">
         <v>0</v>
@@ -28051,7 +28054,7 @@
         <v>999</v>
       </c>
       <c r="S418" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="419" spans="1:19">
@@ -28110,7 +28113,7 @@
         <v>999</v>
       </c>
       <c r="S419" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="420" spans="1:19">
@@ -28169,7 +28172,7 @@
         <v>999</v>
       </c>
       <c r="S420" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="421" spans="1:19">
@@ -28198,7 +28201,7 @@
         <v>6</v>
       </c>
       <c r="I421">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J421">
         <v>0</v>
@@ -28228,7 +28231,7 @@
         <v>999</v>
       </c>
       <c r="S421" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="422" spans="1:19">
@@ -28287,7 +28290,7 @@
         <v>999</v>
       </c>
       <c r="S422" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="423" spans="1:19">
@@ -28346,7 +28349,7 @@
         <v>999</v>
       </c>
       <c r="S423" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="424" spans="1:19">
@@ -28405,7 +28408,7 @@
         <v>999</v>
       </c>
       <c r="S424" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="425" spans="1:19">
@@ -28434,7 +28437,7 @@
         <v>4.5</v>
       </c>
       <c r="I425">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J425">
         <v>0</v>
@@ -28464,7 +28467,7 @@
         <v>999</v>
       </c>
       <c r="S425" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="426" spans="1:19">
@@ -28523,7 +28526,7 @@
         <v>999</v>
       </c>
       <c r="S426" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="427" spans="1:19">
@@ -28582,7 +28585,7 @@
         <v>999</v>
       </c>
       <c r="S427" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="428" spans="1:19">
@@ -28641,7 +28644,7 @@
         <v>1002</v>
       </c>
       <c r="S428" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="429" spans="1:19">
@@ -28670,7 +28673,7 @@
         <v>4</v>
       </c>
       <c r="I429">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J429">
         <v>0</v>
@@ -28700,7 +28703,7 @@
         <v>999</v>
       </c>
       <c r="S429" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="430" spans="1:19">
@@ -28759,7 +28762,7 @@
         <v>999</v>
       </c>
       <c r="S430" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="431" spans="1:19">
@@ -28818,7 +28821,7 @@
         <v>999</v>
       </c>
       <c r="S431" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="432" spans="1:19">
@@ -28877,7 +28880,7 @@
         <v>999</v>
       </c>
       <c r="S432" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="433" spans="1:19">
@@ -28936,7 +28939,7 @@
         <v>999</v>
       </c>
       <c r="S433" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="434" spans="1:19">
@@ -28995,7 +28998,7 @@
         <v>999</v>
       </c>
       <c r="S434" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="435" spans="1:19">
@@ -29054,7 +29057,7 @@
         <v>1001</v>
       </c>
       <c r="S435" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="436" spans="1:19">
@@ -29113,7 +29116,7 @@
         <v>999</v>
       </c>
       <c r="S436" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="437" spans="1:19">
@@ -29172,7 +29175,7 @@
         <v>999</v>
       </c>
       <c r="S437" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="438" spans="1:19">
@@ -29231,7 +29234,7 @@
         <v>999</v>
       </c>
       <c r="S438" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="439" spans="1:19">
@@ -29290,7 +29293,7 @@
         <v>999</v>
       </c>
       <c r="S439" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="440" spans="1:19">
@@ -29349,7 +29352,7 @@
         <v>999</v>
       </c>
       <c r="S440" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="441" spans="1:19">
@@ -29408,7 +29411,7 @@
         <v>999</v>
       </c>
       <c r="S441" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="442" spans="1:19">
@@ -29467,7 +29470,7 @@
         <v>999</v>
       </c>
       <c r="S442" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="443" spans="1:19">
@@ -29526,7 +29529,7 @@
         <v>999</v>
       </c>
       <c r="S443" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="444" spans="1:19">
@@ -29585,7 +29588,7 @@
         <v>999</v>
       </c>
       <c r="S444" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="445" spans="1:19">
@@ -29644,7 +29647,7 @@
         <v>999</v>
       </c>
       <c r="S445" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="446" spans="1:19">
@@ -29703,7 +29706,7 @@
         <v>999</v>
       </c>
       <c r="S446" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="447" spans="1:19">
@@ -29762,7 +29765,7 @@
         <v>1002</v>
       </c>
       <c r="S447" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="448" spans="1:19">
@@ -29821,7 +29824,7 @@
         <v>999</v>
       </c>
       <c r="S448" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="449" spans="1:19">
@@ -29880,7 +29883,7 @@
         <v>999</v>
       </c>
       <c r="S449" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="450" spans="1:19">
@@ -29939,7 +29942,7 @@
         <v>1000</v>
       </c>
       <c r="S450" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="451" spans="1:19">
@@ -29998,7 +30001,7 @@
         <v>999</v>
       </c>
       <c r="S451" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="452" spans="1:19">
@@ -30057,7 +30060,7 @@
         <v>999</v>
       </c>
       <c r="S452" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="453" spans="1:19">
@@ -30116,7 +30119,7 @@
         <v>999</v>
       </c>
       <c r="S453" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="454" spans="1:19">
@@ -30175,7 +30178,7 @@
         <v>1002</v>
       </c>
       <c r="S454" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="455" spans="1:19">
@@ -30234,7 +30237,7 @@
         <v>999</v>
       </c>
       <c r="S455" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="456" spans="1:19">
@@ -30293,7 +30296,7 @@
         <v>999</v>
       </c>
       <c r="S456" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="457" spans="1:19">
@@ -30352,7 +30355,7 @@
         <v>999</v>
       </c>
       <c r="S457" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="458" spans="1:19">
@@ -30411,7 +30414,7 @@
         <v>999</v>
       </c>
       <c r="S458" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="459" spans="1:19">
@@ -30440,7 +30443,7 @@
         <v>4</v>
       </c>
       <c r="I459">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J459">
         <v>0</v>
@@ -30470,7 +30473,7 @@
         <v>999</v>
       </c>
       <c r="S459" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="460" spans="1:19">
@@ -30529,7 +30532,7 @@
         <v>999</v>
       </c>
       <c r="S460" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="461" spans="1:19">
@@ -30588,7 +30591,7 @@
         <v>999</v>
       </c>
       <c r="S461" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="462" spans="1:19">
@@ -30647,7 +30650,7 @@
         <v>999</v>
       </c>
       <c r="S462" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="463" spans="1:19">
@@ -30676,7 +30679,7 @@
         <v>4</v>
       </c>
       <c r="I463">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="J463">
         <v>0</v>
@@ -30706,7 +30709,7 @@
         <v>999</v>
       </c>
       <c r="S463" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="464" spans="1:19">
@@ -30735,7 +30738,7 @@
         <v>11.5</v>
       </c>
       <c r="I464">
-        <v>25.6</v>
+        <v>26.1</v>
       </c>
       <c r="J464">
         <v>0</v>
@@ -30765,7 +30768,7 @@
         <v>999</v>
       </c>
       <c r="S464" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="465" spans="1:19">
@@ -30794,7 +30797,7 @@
         <v>12</v>
       </c>
       <c r="I465">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="J465">
         <v>0</v>
@@ -30824,7 +30827,7 @@
         <v>999</v>
       </c>
       <c r="S465" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="466" spans="1:19">
@@ -30883,7 +30886,7 @@
         <v>999</v>
       </c>
       <c r="S466" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="467" spans="1:19">
@@ -30942,7 +30945,7 @@
         <v>999</v>
       </c>
       <c r="S467" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="468" spans="1:19">
@@ -31001,7 +31004,7 @@
         <v>999</v>
       </c>
       <c r="S468" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="469" spans="1:19">
@@ -31060,7 +31063,7 @@
         <v>999</v>
       </c>
       <c r="S469" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="470" spans="1:19">
@@ -31119,7 +31122,7 @@
         <v>999</v>
       </c>
       <c r="S470" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="471" spans="1:19">
@@ -31178,7 +31181,7 @@
         <v>999</v>
       </c>
       <c r="S471" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="472" spans="1:19">
@@ -31237,7 +31240,7 @@
         <v>999</v>
       </c>
       <c r="S472" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="473" spans="1:19">
@@ -31296,7 +31299,7 @@
         <v>999</v>
       </c>
       <c r="S473" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="474" spans="1:19">
@@ -31355,7 +31358,7 @@
         <v>1000</v>
       </c>
       <c r="S474" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="475" spans="1:19">
@@ -31414,7 +31417,7 @@
         <v>999</v>
       </c>
       <c r="S475" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="476" spans="1:19">
@@ -31473,7 +31476,7 @@
         <v>999</v>
       </c>
       <c r="S476" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="477" spans="1:19">
@@ -31532,7 +31535,7 @@
         <v>999</v>
       </c>
       <c r="S477" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="478" spans="1:19">
@@ -31561,7 +31564,7 @@
         <v>4.5</v>
       </c>
       <c r="I478">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J478">
         <v>0</v>
@@ -31591,7 +31594,7 @@
         <v>1001</v>
       </c>
       <c r="S478" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="479" spans="1:19">
@@ -31620,7 +31623,7 @@
         <v>4</v>
       </c>
       <c r="I479">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J479">
         <v>0</v>
@@ -31647,10 +31650,10 @@
         <v>0</v>
       </c>
       <c r="R479" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="S479" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="480" spans="1:19">
@@ -31709,7 +31712,7 @@
         <v>999</v>
       </c>
       <c r="S480" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="481" spans="1:19">
@@ -31768,7 +31771,7 @@
         <v>999</v>
       </c>
       <c r="S481" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="482" spans="1:19">
@@ -31827,7 +31830,7 @@
         <v>999</v>
       </c>
       <c r="S482" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="483" spans="1:19">
@@ -31856,7 +31859,7 @@
         <v>8</v>
       </c>
       <c r="I483">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J483">
         <v>0</v>
@@ -31886,7 +31889,7 @@
         <v>999</v>
       </c>
       <c r="S483" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="484" spans="1:19">
@@ -31915,7 +31918,7 @@
         <v>4.5</v>
       </c>
       <c r="I484">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J484">
         <v>0</v>
@@ -31945,7 +31948,7 @@
         <v>1000</v>
       </c>
       <c r="S484" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="485" spans="1:19">
@@ -31974,7 +31977,7 @@
         <v>5.5</v>
       </c>
       <c r="I485">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="J485">
         <v>0</v>
@@ -32004,7 +32007,7 @@
         <v>999</v>
       </c>
       <c r="S485" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="486" spans="1:19">
@@ -32063,7 +32066,7 @@
         <v>999</v>
       </c>
       <c r="S486" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="487" spans="1:19">
@@ -32122,7 +32125,7 @@
         <v>999</v>
       </c>
       <c r="S487" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="488" spans="1:19">
@@ -32181,7 +32184,7 @@
         <v>999</v>
       </c>
       <c r="S488" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="489" spans="1:19">
@@ -32240,7 +32243,7 @@
         <v>999</v>
       </c>
       <c r="S489" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="490" spans="1:19">
@@ -32299,7 +32302,7 @@
         <v>1000</v>
       </c>
       <c r="S490" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="491" spans="1:19">
@@ -32358,7 +32361,7 @@
         <v>1003</v>
       </c>
       <c r="S491" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="492" spans="1:19">
@@ -32417,7 +32420,7 @@
         <v>999</v>
       </c>
       <c r="S492" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="493" spans="1:19">
@@ -32446,7 +32449,7 @@
         <v>4.5</v>
       </c>
       <c r="I493">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J493">
         <v>0</v>
@@ -32476,7 +32479,7 @@
         <v>999</v>
       </c>
       <c r="S493" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="494" spans="1:19">
@@ -32535,7 +32538,7 @@
         <v>999</v>
       </c>
       <c r="S494" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="495" spans="1:19">
@@ -32594,7 +32597,7 @@
         <v>999</v>
       </c>
       <c r="S495" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="496" spans="1:19">
@@ -32623,7 +32626,7 @@
         <v>5</v>
       </c>
       <c r="I496">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J496">
         <v>0</v>
@@ -32653,7 +32656,7 @@
         <v>999</v>
       </c>
       <c r="S496" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="497" spans="1:19">
@@ -32682,7 +32685,7 @@
         <v>7.5</v>
       </c>
       <c r="I497">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J497">
         <v>0</v>
@@ -32712,7 +32715,7 @@
         <v>999</v>
       </c>
       <c r="S497" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="498" spans="1:19">
@@ -32771,7 +32774,7 @@
         <v>999</v>
       </c>
       <c r="S498" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="499" spans="1:19">
@@ -32830,7 +32833,7 @@
         <v>999</v>
       </c>
       <c r="S499" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="500" spans="1:19">
@@ -32889,7 +32892,7 @@
         <v>999</v>
       </c>
       <c r="S500" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="501" spans="1:19">
@@ -32948,7 +32951,7 @@
         <v>999</v>
       </c>
       <c r="S501" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="502" spans="1:19">
@@ -33007,7 +33010,7 @@
         <v>999</v>
       </c>
       <c r="S502" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="503" spans="1:19">
@@ -33066,7 +33069,7 @@
         <v>999</v>
       </c>
       <c r="S503" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="504" spans="1:19">
@@ -33095,7 +33098,7 @@
         <v>8.5</v>
       </c>
       <c r="I504">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="J504">
         <v>0</v>
@@ -33125,7 +33128,7 @@
         <v>999</v>
       </c>
       <c r="S504" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="505" spans="1:19">
@@ -33184,7 +33187,7 @@
         <v>999</v>
       </c>
       <c r="S505" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="506" spans="1:19">
@@ -33243,7 +33246,7 @@
         <v>999</v>
       </c>
       <c r="S506" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="507" spans="1:19">
@@ -33302,7 +33305,7 @@
         <v>999</v>
       </c>
       <c r="S507" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="508" spans="1:19">
@@ -33361,7 +33364,7 @@
         <v>999</v>
       </c>
       <c r="S508" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="509" spans="1:19">
@@ -33420,7 +33423,7 @@
         <v>999</v>
       </c>
       <c r="S509" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="510" spans="1:19">
@@ -33479,7 +33482,7 @@
         <v>999</v>
       </c>
       <c r="S510" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="511" spans="1:19">
@@ -33538,7 +33541,7 @@
         <v>1002</v>
       </c>
       <c r="S511" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="512" spans="1:19">
@@ -33597,7 +33600,7 @@
         <v>999</v>
       </c>
       <c r="S512" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="513" spans="1:19">
@@ -33656,7 +33659,7 @@
         <v>999</v>
       </c>
       <c r="S513" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="514" spans="1:19">
@@ -33715,7 +33718,7 @@
         <v>999</v>
       </c>
       <c r="S514" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="515" spans="1:19">
@@ -33774,7 +33777,7 @@
         <v>999</v>
       </c>
       <c r="S515" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="516" spans="1:19">
@@ -33833,7 +33836,7 @@
         <v>999</v>
       </c>
       <c r="S516" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="517" spans="1:19">
@@ -33862,7 +33865,7 @@
         <v>7</v>
       </c>
       <c r="I517">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J517">
         <v>0</v>
@@ -33892,7 +33895,7 @@
         <v>1002</v>
       </c>
       <c r="S517" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="518" spans="1:19">
@@ -33921,7 +33924,7 @@
         <v>4.5</v>
       </c>
       <c r="I518">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J518">
         <v>0</v>
@@ -33951,7 +33954,7 @@
         <v>999</v>
       </c>
       <c r="S518" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="519" spans="1:19">
@@ -33980,7 +33983,7 @@
         <v>5</v>
       </c>
       <c r="I519">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J519">
         <v>0</v>
@@ -34010,7 +34013,7 @@
         <v>999</v>
       </c>
       <c r="S519" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="520" spans="1:19">
@@ -34069,7 +34072,7 @@
         <v>999</v>
       </c>
       <c r="S520" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="521" spans="1:19">
@@ -34128,7 +34131,7 @@
         <v>999</v>
       </c>
       <c r="S521" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="522" spans="1:19">
@@ -34187,7 +34190,7 @@
         <v>999</v>
       </c>
       <c r="S522" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="523" spans="1:19">
@@ -34246,7 +34249,7 @@
         <v>1001</v>
       </c>
       <c r="S523" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="524" spans="1:19">
@@ -34305,7 +34308,7 @@
         <v>999</v>
       </c>
       <c r="S524" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="525" spans="1:19">
@@ -34364,7 +34367,7 @@
         <v>999</v>
       </c>
       <c r="S525" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="526" spans="1:19">
@@ -34423,7 +34426,7 @@
         <v>999</v>
       </c>
       <c r="S526" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="527" spans="1:19">
@@ -34452,7 +34455,7 @@
         <v>5.5</v>
       </c>
       <c r="I527">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="J527">
         <v>0</v>
@@ -34482,7 +34485,7 @@
         <v>999</v>
       </c>
       <c r="S527" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="528" spans="1:19">
@@ -34541,7 +34544,7 @@
         <v>999</v>
       </c>
       <c r="S528" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="529" spans="1:19">
@@ -34570,7 +34573,7 @@
         <v>5.5</v>
       </c>
       <c r="I529">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J529">
         <v>0</v>
@@ -34600,7 +34603,7 @@
         <v>1000</v>
       </c>
       <c r="S529" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="530" spans="1:19">
@@ -34659,7 +34662,7 @@
         <v>999</v>
       </c>
       <c r="S530" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="531" spans="1:19">
@@ -34718,7 +34721,7 @@
         <v>1002</v>
       </c>
       <c r="S531" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="532" spans="1:19">
@@ -34747,7 +34750,7 @@
         <v>5.5</v>
       </c>
       <c r="I532">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J532">
         <v>0</v>
@@ -34777,7 +34780,7 @@
         <v>1001</v>
       </c>
       <c r="S532" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="533" spans="1:19">
@@ -34806,7 +34809,7 @@
         <v>4</v>
       </c>
       <c r="I533">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J533">
         <v>0</v>
@@ -34836,7 +34839,7 @@
         <v>999</v>
       </c>
       <c r="S533" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="534" spans="1:19">
@@ -34895,7 +34898,7 @@
         <v>999</v>
       </c>
       <c r="S534" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="535" spans="1:19">
@@ -34954,7 +34957,7 @@
         <v>999</v>
       </c>
       <c r="S535" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="536" spans="1:19">
@@ -35013,7 +35016,7 @@
         <v>999</v>
       </c>
       <c r="S536" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="537" spans="1:19">
@@ -35072,7 +35075,7 @@
         <v>999</v>
       </c>
       <c r="S537" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>

--- a/First_Draft.xlsx
+++ b/First_Draft.xlsx
@@ -3789,10 +3789,10 @@
         <v>0.2</v>
       </c>
       <c r="J2">
-        <v>2095</v>
+        <v>2172</v>
       </c>
       <c r="K2">
-        <v>10477</v>
+        <v>11145</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3845,13 +3845,13 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
-        <v>112293</v>
+        <v>129950</v>
       </c>
       <c r="K3">
-        <v>27712</v>
+        <v>31762</v>
       </c>
       <c r="L3">
         <v>14</v>
@@ -3904,13 +3904,13 @@
         <v>4.4</v>
       </c>
       <c r="I4">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J4">
-        <v>44873</v>
+        <v>54854</v>
       </c>
       <c r="K4">
-        <v>44144</v>
+        <v>49650</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3963,13 +3963,13 @@
         <v>4.4</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
-        <v>1197</v>
+        <v>1264</v>
       </c>
       <c r="K5">
-        <v>5742</v>
+        <v>6118</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0.7</v>
       </c>
       <c r="J6">
-        <v>19392</v>
+        <v>20515</v>
       </c>
       <c r="K6">
-        <v>19522</v>
+        <v>21486</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -4081,13 +4081,13 @@
         <v>6.5</v>
       </c>
       <c r="I7">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="J7">
-        <v>110000</v>
+        <v>118518</v>
       </c>
       <c r="K7">
-        <v>329115</v>
+        <v>362337</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -4140,13 +4140,13 @@
         <v>4.9</v>
       </c>
       <c r="I8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>6509</v>
+        <v>7332</v>
       </c>
       <c r="K8">
-        <v>31290</v>
+        <v>33667</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -4193,19 +4193,19 @@
         <v>1076</v>
       </c>
       <c r="G9">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="H9">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I9">
         <v>0.3</v>
       </c>
       <c r="J9">
-        <v>3841</v>
+        <v>4090</v>
       </c>
       <c r="K9">
-        <v>16010</v>
+        <v>17022</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4258,13 +4258,13 @@
         <v>4.5</v>
       </c>
       <c r="I10">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J10">
-        <v>55457</v>
+        <v>59155</v>
       </c>
       <c r="K10">
-        <v>94206</v>
+        <v>103962</v>
       </c>
       <c r="L10">
         <v>6</v>
@@ -4320,10 +4320,10 @@
         <v>0.5</v>
       </c>
       <c r="J11">
-        <v>6002</v>
+        <v>6377</v>
       </c>
       <c r="K11">
-        <v>34786</v>
+        <v>37012</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -4379,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6430</v>
+        <v>7382</v>
       </c>
       <c r="K12">
-        <v>64219</v>
+        <v>66573</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -4435,13 +4435,13 @@
         <v>8</v>
       </c>
       <c r="I13">
-        <v>18.7</v>
+        <v>18.3</v>
       </c>
       <c r="J13">
-        <v>142678</v>
+        <v>151849</v>
       </c>
       <c r="K13">
-        <v>416049</v>
+        <v>462970</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -4497,10 +4497,10 @@
         <v>1.2</v>
       </c>
       <c r="J14">
-        <v>5746</v>
+        <v>6364</v>
       </c>
       <c r="K14">
-        <v>67900</v>
+        <v>70879</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4553,13 +4553,13 @@
         <v>5</v>
       </c>
       <c r="I15">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="J15">
-        <v>155982</v>
+        <v>168920</v>
       </c>
       <c r="K15">
-        <v>174326</v>
+        <v>194209</v>
       </c>
       <c r="L15">
         <v>7</v>
@@ -4615,10 +4615,10 @@
         <v>8.1</v>
       </c>
       <c r="J16">
-        <v>90127</v>
+        <v>104340</v>
       </c>
       <c r="K16">
-        <v>128354</v>
+        <v>141613</v>
       </c>
       <c r="L16">
         <v>8</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1241</v>
+        <v>1301</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4733,10 +4733,10 @@
         <v>0.3</v>
       </c>
       <c r="J18">
-        <v>6181</v>
+        <v>6495</v>
       </c>
       <c r="K18">
-        <v>8448</v>
+        <v>9242</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -4789,13 +4789,13 @@
         <v>6.3</v>
       </c>
       <c r="I19">
-        <v>37.3</v>
+        <v>39</v>
       </c>
       <c r="J19">
-        <v>1356442</v>
+        <v>1513476</v>
       </c>
       <c r="K19">
-        <v>93772</v>
+        <v>103982</v>
       </c>
       <c r="L19">
         <v>16</v>
@@ -4854,7 +4854,7 @@
         <v>162</v>
       </c>
       <c r="K20">
-        <v>2356</v>
+        <v>2536</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0.1</v>
       </c>
       <c r="J21">
-        <v>997</v>
+        <v>1067</v>
       </c>
       <c r="K21">
-        <v>2525</v>
+        <v>2722</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>2811</v>
       </c>
       <c r="K22">
-        <v>22119</v>
+        <v>23353</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -5028,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K23">
-        <v>1548</v>
+        <v>1659</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -5087,10 +5087,10 @@
         <v>0.8</v>
       </c>
       <c r="J24">
-        <v>7170</v>
+        <v>7661</v>
       </c>
       <c r="K24">
-        <v>14831</v>
+        <v>16281</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0.1</v>
       </c>
       <c r="J25">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="K25">
-        <v>7349</v>
+        <v>7776</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -5202,13 +5202,13 @@
         <v>4.5</v>
       </c>
       <c r="I26">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J26">
-        <v>281203</v>
+        <v>294640</v>
       </c>
       <c r="K26">
-        <v>95379</v>
+        <v>107138</v>
       </c>
       <c r="L26">
         <v>7</v>
@@ -5264,10 +5264,10 @@
         <v>0.1</v>
       </c>
       <c r="J27">
-        <v>1520</v>
+        <v>1595</v>
       </c>
       <c r="K27">
-        <v>4212</v>
+        <v>4535</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -5320,13 +5320,13 @@
         <v>8.1</v>
       </c>
       <c r="I28">
-        <v>78.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="J28">
-        <v>784518</v>
+        <v>895021</v>
       </c>
       <c r="K28">
-        <v>391878</v>
+        <v>395982</v>
       </c>
       <c r="L28">
         <v>21</v>
@@ -5379,13 +5379,13 @@
         <v>5.2</v>
       </c>
       <c r="I29">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="J29">
-        <v>952082</v>
+        <v>1015991</v>
       </c>
       <c r="K29">
-        <v>176212</v>
+        <v>201902</v>
       </c>
       <c r="L29">
         <v>13</v>
@@ -5438,13 +5438,13 @@
         <v>6.9</v>
       </c>
       <c r="I30">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>62964</v>
+        <v>63278</v>
       </c>
       <c r="K30">
-        <v>714217</v>
+        <v>807854</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -5500,10 +5500,10 @@
         <v>2.2</v>
       </c>
       <c r="J31">
-        <v>45523</v>
+        <v>52035</v>
       </c>
       <c r="K31">
-        <v>61595</v>
+        <v>65714</v>
       </c>
       <c r="L31">
         <v>7</v>
@@ -5556,13 +5556,13 @@
         <v>5</v>
       </c>
       <c r="I32">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J32">
-        <v>35487</v>
+        <v>37783</v>
       </c>
       <c r="K32">
-        <v>94539</v>
+        <v>103262</v>
       </c>
       <c r="L32">
         <v>4</v>
@@ -5618,10 +5618,10 @@
         <v>0.3</v>
       </c>
       <c r="J33">
-        <v>2362</v>
+        <v>2580</v>
       </c>
       <c r="K33">
-        <v>6253</v>
+        <v>6715</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -5668,19 +5668,19 @@
         <v>1075</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I34">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J34">
-        <v>38202</v>
+        <v>40697</v>
       </c>
       <c r="K34">
-        <v>104528</v>
+        <v>117070</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5736,10 +5736,10 @@
         <v>0.2</v>
       </c>
       <c r="J35">
-        <v>2605</v>
+        <v>2787</v>
       </c>
       <c r="K35">
-        <v>6683</v>
+        <v>7198</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5795,10 +5795,10 @@
         <v>2</v>
       </c>
       <c r="J36">
-        <v>11155</v>
+        <v>12028</v>
       </c>
       <c r="K36">
-        <v>14709</v>
+        <v>16092</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5854,10 +5854,10 @@
         <v>0.4</v>
       </c>
       <c r="J37">
-        <v>8441</v>
+        <v>9078</v>
       </c>
       <c r="K37">
-        <v>8690</v>
+        <v>9472</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5913,10 +5913,10 @@
         <v>1.6</v>
       </c>
       <c r="J38">
-        <v>13664</v>
+        <v>14817</v>
       </c>
       <c r="K38">
-        <v>38256</v>
+        <v>42348</v>
       </c>
       <c r="L38">
         <v>4</v>
@@ -5972,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>1687</v>
+        <v>1759</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="S39" t="s">
         <v>1084</v>
@@ -6028,13 +6028,13 @@
         <v>4.4</v>
       </c>
       <c r="I40">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J40">
-        <v>25159</v>
+        <v>28944</v>
       </c>
       <c r="K40">
-        <v>143954</v>
+        <v>151973</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -6087,13 +6087,13 @@
         <v>7.4</v>
       </c>
       <c r="I41">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J41">
-        <v>85773</v>
+        <v>100998</v>
       </c>
       <c r="K41">
-        <v>120588</v>
+        <v>127287</v>
       </c>
       <c r="L41">
         <v>12</v>
@@ -6149,10 +6149,10 @@
         <v>0.2</v>
       </c>
       <c r="J42">
-        <v>3890</v>
+        <v>4145</v>
       </c>
       <c r="K42">
-        <v>5526</v>
+        <v>6030</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6208,10 +6208,10 @@
         <v>0.7</v>
       </c>
       <c r="J43">
-        <v>25631</v>
+        <v>29994</v>
       </c>
       <c r="K43">
-        <v>15682</v>
+        <v>17138</v>
       </c>
       <c r="L43">
         <v>9</v>
@@ -6264,13 +6264,13 @@
         <v>4.9</v>
       </c>
       <c r="I44">
-        <v>12.4</v>
+        <v>11.6</v>
       </c>
       <c r="J44">
-        <v>47040</v>
+        <v>47651</v>
       </c>
       <c r="K44">
-        <v>581607</v>
+        <v>653005</v>
       </c>
       <c r="L44">
         <v>3</v>
@@ -6326,10 +6326,10 @@
         <v>0.3</v>
       </c>
       <c r="J45">
-        <v>4472</v>
+        <v>4790</v>
       </c>
       <c r="K45">
-        <v>6495</v>
+        <v>7184</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -6382,13 +6382,13 @@
         <v>4.9</v>
       </c>
       <c r="I46">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="J46">
-        <v>124968</v>
+        <v>130368</v>
       </c>
       <c r="K46">
-        <v>475576</v>
+        <v>544238</v>
       </c>
       <c r="L46">
         <v>3</v>
@@ -6444,10 +6444,10 @@
         <v>0.5</v>
       </c>
       <c r="J47">
-        <v>3631</v>
+        <v>3873</v>
       </c>
       <c r="K47">
-        <v>22997</v>
+        <v>24789</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -6500,13 +6500,13 @@
         <v>5.4</v>
       </c>
       <c r="I48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J48">
-        <v>10847</v>
+        <v>12042</v>
       </c>
       <c r="K48">
-        <v>52275</v>
+        <v>56466</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>680</v>
+        <v>739</v>
       </c>
       <c r="K49">
-        <v>852</v>
+        <v>948</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -6621,10 +6621,10 @@
         <v>0.6</v>
       </c>
       <c r="J50">
-        <v>5273</v>
+        <v>5299</v>
       </c>
       <c r="K50">
-        <v>54356</v>
+        <v>59777</v>
       </c>
       <c r="L50">
         <v>3</v>
@@ -6680,10 +6680,10 @@
         <v>0.1</v>
       </c>
       <c r="J51">
-        <v>1590</v>
+        <v>1704</v>
       </c>
       <c r="K51">
-        <v>4629</v>
+        <v>4977</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>586</v>
       </c>
       <c r="K52">
-        <v>8619</v>
+        <v>9058</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -6798,10 +6798,10 @@
         <v>0.2</v>
       </c>
       <c r="J53">
-        <v>4789</v>
+        <v>5347</v>
       </c>
       <c r="K53">
-        <v>4356</v>
+        <v>4797</v>
       </c>
       <c r="L53">
         <v>4</v>
@@ -6854,13 +6854,13 @@
         <v>4.5</v>
       </c>
       <c r="I54">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J54">
-        <v>65616</v>
+        <v>72843</v>
       </c>
       <c r="K54">
-        <v>89512</v>
+        <v>98514</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -6975,10 +6975,10 @@
         <v>0.9</v>
       </c>
       <c r="J56">
-        <v>16539</v>
+        <v>17671</v>
       </c>
       <c r="K56">
-        <v>15289</v>
+        <v>16798</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -7034,10 +7034,10 @@
         <v>0.1</v>
       </c>
       <c r="J57">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K57">
-        <v>1737</v>
+        <v>1878</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>1637</v>
       </c>
       <c r="K58">
-        <v>4818</v>
+        <v>5246</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -7152,10 +7152,10 @@
         <v>0.1</v>
       </c>
       <c r="J59">
-        <v>1746</v>
+        <v>1881</v>
       </c>
       <c r="K59">
-        <v>3596</v>
+        <v>3886</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0.2</v>
       </c>
       <c r="J60">
-        <v>2144</v>
+        <v>2226</v>
       </c>
       <c r="K60">
-        <v>3834</v>
+        <v>4168</v>
       </c>
       <c r="L60">
         <v>4</v>
@@ -7270,10 +7270,10 @@
         <v>0.1</v>
       </c>
       <c r="J61">
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="K61">
-        <v>3505</v>
+        <v>3800</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -7329,10 +7329,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K62">
-        <v>1535</v>
+        <v>1627</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -7388,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K63">
-        <v>1976</v>
+        <v>2098</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K64">
-        <v>1668</v>
+        <v>1786</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -7506,10 +7506,10 @@
         <v>1.3</v>
       </c>
       <c r="J65">
-        <v>89733</v>
+        <v>97324</v>
       </c>
       <c r="K65">
-        <v>30191</v>
+        <v>33995</v>
       </c>
       <c r="L65">
         <v>8</v>
@@ -7565,10 +7565,10 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K66">
-        <v>665</v>
+        <v>718</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -7624,10 +7624,10 @@
         <v>1.2</v>
       </c>
       <c r="J67">
-        <v>89804</v>
+        <v>90886</v>
       </c>
       <c r="K67">
-        <v>41262</v>
+        <v>45368</v>
       </c>
       <c r="L67">
         <v>10</v>
@@ -7683,10 +7683,10 @@
         <v>0.1</v>
       </c>
       <c r="J68">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K68">
-        <v>1330</v>
+        <v>1448</v>
       </c>
       <c r="L68">
         <v>-1</v>
@@ -7739,13 +7739,13 @@
         <v>5.9</v>
       </c>
       <c r="I69">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J69">
-        <v>7731</v>
+        <v>7811</v>
       </c>
       <c r="K69">
-        <v>45765</v>
+        <v>51093</v>
       </c>
       <c r="L69">
         <v>2</v>
@@ -7801,10 +7801,10 @@
         <v>0.1</v>
       </c>
       <c r="J70">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="K70">
-        <v>1412</v>
+        <v>1527</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -7860,10 +7860,10 @@
         <v>0.6</v>
       </c>
       <c r="J71">
-        <v>37240</v>
+        <v>41116</v>
       </c>
       <c r="K71">
-        <v>13932</v>
+        <v>15940</v>
       </c>
       <c r="L71">
         <v>4</v>
@@ -7919,10 +7919,10 @@
         <v>0.1</v>
       </c>
       <c r="J72">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="K72">
-        <v>1656</v>
+        <v>1802</v>
       </c>
       <c r="L72">
         <v>3</v>
@@ -7978,10 +7978,10 @@
         <v>0.1</v>
       </c>
       <c r="J73">
-        <v>1050</v>
+        <v>1111</v>
       </c>
       <c r="K73">
-        <v>4242</v>
+        <v>4684</v>
       </c>
       <c r="L73">
         <v>3</v>
@@ -8037,10 +8037,10 @@
         <v>0.1</v>
       </c>
       <c r="J74">
-        <v>3121</v>
+        <v>3175</v>
       </c>
       <c r="K74">
-        <v>2593</v>
+        <v>2915</v>
       </c>
       <c r="L74">
         <v>6</v>
@@ -8096,10 +8096,10 @@
         <v>0.6</v>
       </c>
       <c r="J75">
-        <v>17823</v>
+        <v>18099</v>
       </c>
       <c r="K75">
-        <v>11266</v>
+        <v>12545</v>
       </c>
       <c r="L75">
         <v>7</v>
@@ -8155,10 +8155,10 @@
         <v>1.5</v>
       </c>
       <c r="J76">
-        <v>77884</v>
+        <v>79538</v>
       </c>
       <c r="K76">
-        <v>34562</v>
+        <v>38231</v>
       </c>
       <c r="L76">
         <v>12</v>
@@ -8214,10 +8214,10 @@
         <v>0.1</v>
       </c>
       <c r="J77">
-        <v>807</v>
+        <v>874</v>
       </c>
       <c r="K77">
-        <v>2806</v>
+        <v>3023</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0.1</v>
       </c>
       <c r="J78">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="K78">
-        <v>3163</v>
+        <v>3380</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -8329,13 +8329,13 @@
         <v>4.5</v>
       </c>
       <c r="I79">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J79">
-        <v>4238</v>
+        <v>4251</v>
       </c>
       <c r="K79">
-        <v>5132</v>
+        <v>5771</v>
       </c>
       <c r="L79">
         <v>6</v>
@@ -8391,10 +8391,10 @@
         <v>0.7</v>
       </c>
       <c r="J80">
-        <v>4660</v>
+        <v>4996</v>
       </c>
       <c r="K80">
-        <v>5990</v>
+        <v>6669</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K81">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0.1</v>
       </c>
       <c r="J82">
-        <v>4222</v>
+        <v>4424</v>
       </c>
       <c r="K82">
-        <v>2647</v>
+        <v>2964</v>
       </c>
       <c r="L82">
         <v>5</v>
@@ -8568,10 +8568,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="K83">
-        <v>764</v>
+        <v>838</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -8627,10 +8627,10 @@
         <v>0.1</v>
       </c>
       <c r="J84">
-        <v>1370</v>
+        <v>1466</v>
       </c>
       <c r="K84">
-        <v>699</v>
+        <v>820</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -8686,10 +8686,10 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="K85">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -8745,10 +8745,10 @@
         <v>2</v>
       </c>
       <c r="J86">
-        <v>15376</v>
+        <v>17881</v>
       </c>
       <c r="K86">
-        <v>24618</v>
+        <v>26636</v>
       </c>
       <c r="L86">
         <v>7</v>
@@ -8804,10 +8804,10 @@
         <v>0.3</v>
       </c>
       <c r="J87">
-        <v>4693</v>
+        <v>5341</v>
       </c>
       <c r="K87">
-        <v>5836</v>
+        <v>6402</v>
       </c>
       <c r="L87">
         <v>5</v>
@@ -8860,13 +8860,13 @@
         <v>7.1</v>
       </c>
       <c r="I88">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="J88">
-        <v>572470</v>
+        <v>688984</v>
       </c>
       <c r="K88">
-        <v>107769</v>
+        <v>123065</v>
       </c>
       <c r="L88">
         <v>17</v>
@@ -8919,13 +8919,13 @@
         <v>4.5</v>
       </c>
       <c r="I89">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="J89">
-        <v>84981</v>
+        <v>100985</v>
       </c>
       <c r="K89">
-        <v>58238</v>
+        <v>66427</v>
       </c>
       <c r="L89">
         <v>9</v>
@@ -8981,10 +8981,10 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="K90">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -9037,13 +9037,13 @@
         <v>4.6</v>
       </c>
       <c r="I91">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="J91">
-        <v>730260</v>
+        <v>837617</v>
       </c>
       <c r="K91">
-        <v>74253</v>
+        <v>89374</v>
       </c>
       <c r="L91">
         <v>14</v>
@@ -9099,10 +9099,10 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K92">
-        <v>790</v>
+        <v>841</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -9155,13 +9155,13 @@
         <v>4.5</v>
       </c>
       <c r="I93">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="J93">
-        <v>59513</v>
+        <v>71484</v>
       </c>
       <c r="K93">
-        <v>17479</v>
+        <v>21228</v>
       </c>
       <c r="L93">
         <v>10</v>
@@ -9217,10 +9217,10 @@
         <v>0.1</v>
       </c>
       <c r="J94">
-        <v>910</v>
+        <v>1035</v>
       </c>
       <c r="K94">
-        <v>1404</v>
+        <v>1559</v>
       </c>
       <c r="L94">
         <v>3</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="K95">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -9332,13 +9332,13 @@
         <v>5</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="J96">
-        <v>164155</v>
+        <v>200637</v>
       </c>
       <c r="K96">
-        <v>21322</v>
+        <v>27299</v>
       </c>
       <c r="L96">
         <v>15</v>
@@ -9394,10 +9394,10 @@
         <v>0.2</v>
       </c>
       <c r="J97">
-        <v>2750</v>
+        <v>2937</v>
       </c>
       <c r="K97">
-        <v>5773</v>
+        <v>6462</v>
       </c>
       <c r="L97">
         <v>3</v>
@@ -9453,10 +9453,10 @@
         <v>0.1</v>
       </c>
       <c r="J98">
-        <v>469</v>
+        <v>552</v>
       </c>
       <c r="K98">
-        <v>793</v>
+        <v>853</v>
       </c>
       <c r="L98">
         <v>6</v>
@@ -9512,10 +9512,10 @@
         <v>0.1</v>
       </c>
       <c r="J99">
-        <v>946</v>
+        <v>1041</v>
       </c>
       <c r="K99">
-        <v>1106</v>
+        <v>1233</v>
       </c>
       <c r="L99">
         <v>2</v>
@@ -9571,10 +9571,10 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K100">
-        <v>1021</v>
+        <v>1082</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -9630,10 +9630,10 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>592</v>
+        <v>657</v>
       </c>
       <c r="K101">
-        <v>990</v>
+        <v>1069</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -9689,10 +9689,10 @@
         <v>0.4</v>
       </c>
       <c r="J102">
-        <v>7974</v>
+        <v>9086</v>
       </c>
       <c r="K102">
-        <v>5866</v>
+        <v>6658</v>
       </c>
       <c r="L102">
         <v>2</v>
@@ -9745,13 +9745,13 @@
         <v>6</v>
       </c>
       <c r="I103">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J103">
-        <v>84133</v>
+        <v>100115</v>
       </c>
       <c r="K103">
-        <v>58923</v>
+        <v>65089</v>
       </c>
       <c r="L103">
         <v>8</v>
@@ -9804,13 +9804,13 @@
         <v>4</v>
       </c>
       <c r="I104">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J104">
-        <v>7124</v>
+        <v>7659</v>
       </c>
       <c r="K104">
-        <v>9654</v>
+        <v>10682</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>4976</v>
+        <v>5249</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>1273</v>
+        <v>1326</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>2786</v>
+        <v>2958</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -10102,10 +10102,10 @@
         <v>0.4</v>
       </c>
       <c r="J109">
-        <v>10181</v>
+        <v>11793</v>
       </c>
       <c r="K109">
-        <v>5683</v>
+        <v>6251</v>
       </c>
       <c r="L109">
         <v>7</v>
@@ -10161,10 +10161,10 @@
         <v>0.1</v>
       </c>
       <c r="J110">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="K110">
-        <v>2839</v>
+        <v>3159</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -10220,10 +10220,10 @@
         <v>0.2</v>
       </c>
       <c r="J111">
-        <v>779</v>
+        <v>846</v>
       </c>
       <c r="K111">
-        <v>3807</v>
+        <v>4113</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -10276,13 +10276,13 @@
         <v>4.5</v>
       </c>
       <c r="I112">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="J112">
-        <v>198924</v>
+        <v>245833</v>
       </c>
       <c r="K112">
-        <v>25319</v>
+        <v>32339</v>
       </c>
       <c r="L112">
         <v>14</v>
@@ -10338,10 +10338,10 @@
         <v>0.3</v>
       </c>
       <c r="J113">
-        <v>6368</v>
+        <v>6873</v>
       </c>
       <c r="K113">
-        <v>4344</v>
+        <v>4827</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -10394,13 +10394,13 @@
         <v>4.5</v>
       </c>
       <c r="I114">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J114">
-        <v>188241</v>
+        <v>209063</v>
       </c>
       <c r="K114">
-        <v>51661</v>
+        <v>59388</v>
       </c>
       <c r="L114">
         <v>4</v>
@@ -10456,10 +10456,10 @@
         <v>0.1</v>
       </c>
       <c r="J115">
-        <v>12092</v>
+        <v>13205</v>
       </c>
       <c r="K115">
-        <v>2914</v>
+        <v>3333</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -10515,10 +10515,10 @@
         <v>0.3</v>
       </c>
       <c r="J116">
-        <v>10411</v>
+        <v>11245</v>
       </c>
       <c r="K116">
-        <v>4645</v>
+        <v>5282</v>
       </c>
       <c r="L116">
         <v>5</v>
@@ -10574,10 +10574,10 @@
         <v>0.9</v>
       </c>
       <c r="J117">
-        <v>5894</v>
+        <v>6479</v>
       </c>
       <c r="K117">
-        <v>6453</v>
+        <v>7165</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -10633,10 +10633,10 @@
         <v>1.4</v>
       </c>
       <c r="J118">
-        <v>82618</v>
+        <v>89436</v>
       </c>
       <c r="K118">
-        <v>31513</v>
+        <v>37018</v>
       </c>
       <c r="L118">
         <v>9</v>
@@ -10689,13 +10689,13 @@
         <v>5.6</v>
       </c>
       <c r="I119">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J119">
-        <v>506252</v>
+        <v>568614</v>
       </c>
       <c r="K119">
-        <v>89336</v>
+        <v>105634</v>
       </c>
       <c r="L119">
         <v>18</v>
@@ -10751,10 +10751,10 @@
         <v>2.5</v>
       </c>
       <c r="J120">
-        <v>70031</v>
+        <v>78058</v>
       </c>
       <c r="K120">
-        <v>26142</v>
+        <v>30333</v>
       </c>
       <c r="L120">
         <v>9</v>
@@ -10810,10 +10810,10 @@
         <v>0.4</v>
       </c>
       <c r="J121">
-        <v>30766</v>
+        <v>32908</v>
       </c>
       <c r="K121">
-        <v>9336</v>
+        <v>10786</v>
       </c>
       <c r="L121">
         <v>7</v>
@@ -10869,10 +10869,10 @@
         <v>0.2</v>
       </c>
       <c r="J122">
-        <v>6902</v>
+        <v>7375</v>
       </c>
       <c r="K122">
-        <v>3111</v>
+        <v>3721</v>
       </c>
       <c r="L122">
         <v>8</v>
@@ -10928,10 +10928,10 @@
         <v>0.6</v>
       </c>
       <c r="J123">
-        <v>25430</v>
+        <v>29834</v>
       </c>
       <c r="K123">
-        <v>8398</v>
+        <v>10240</v>
       </c>
       <c r="L123">
         <v>10</v>
@@ -10978,19 +10978,19 @@
         <v>1077</v>
       </c>
       <c r="G124">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="H124">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="I124">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J124">
-        <v>7165</v>
+        <v>7735</v>
       </c>
       <c r="K124">
-        <v>37271</v>
+        <v>40424</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -11046,10 +11046,10 @@
         <v>2.2</v>
       </c>
       <c r="J125">
-        <v>46651</v>
+        <v>50141</v>
       </c>
       <c r="K125">
-        <v>49122</v>
+        <v>55191</v>
       </c>
       <c r="L125">
         <v>4</v>
@@ -11102,13 +11102,13 @@
         <v>4.5</v>
       </c>
       <c r="I126">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="J126">
-        <v>198114</v>
+        <v>217564</v>
       </c>
       <c r="K126">
-        <v>89615</v>
+        <v>102599</v>
       </c>
       <c r="L126">
         <v>10</v>
@@ -11164,10 +11164,10 @@
         <v>2.4</v>
       </c>
       <c r="J127">
-        <v>18417</v>
+        <v>19363</v>
       </c>
       <c r="K127">
-        <v>42502</v>
+        <v>47004</v>
       </c>
       <c r="L127">
         <v>2</v>
@@ -11223,10 +11223,10 @@
         <v>0.2</v>
       </c>
       <c r="J128">
-        <v>4722</v>
+        <v>5062</v>
       </c>
       <c r="K128">
-        <v>4948</v>
+        <v>5485</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -11282,10 +11282,10 @@
         <v>0.2</v>
       </c>
       <c r="J129">
-        <v>3567</v>
+        <v>3826</v>
       </c>
       <c r="K129">
-        <v>4815</v>
+        <v>5311</v>
       </c>
       <c r="L129">
         <v>2</v>
@@ -11341,10 +11341,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K130">
-        <v>982</v>
+        <v>1069</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -11400,10 +11400,10 @@
         <v>0.1</v>
       </c>
       <c r="J131">
-        <v>1341</v>
+        <v>1477</v>
       </c>
       <c r="K131">
-        <v>3842</v>
+        <v>4156</v>
       </c>
       <c r="L131">
         <v>2</v>
@@ -11459,10 +11459,10 @@
         <v>0.1</v>
       </c>
       <c r="J132">
-        <v>1996</v>
+        <v>2128</v>
       </c>
       <c r="K132">
-        <v>2090</v>
+        <v>2310</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -11518,10 +11518,10 @@
         <v>0.2</v>
       </c>
       <c r="J133">
-        <v>11594</v>
+        <v>13023</v>
       </c>
       <c r="K133">
-        <v>3449</v>
+        <v>3990</v>
       </c>
       <c r="L133">
         <v>5</v>
@@ -11580,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -11692,13 +11692,13 @@
         <v>5.4</v>
       </c>
       <c r="I136">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J136">
-        <v>5731</v>
+        <v>6063</v>
       </c>
       <c r="K136">
-        <v>23082</v>
+        <v>25024</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -11754,10 +11754,10 @@
         <v>0.1</v>
       </c>
       <c r="J137">
-        <v>2023</v>
+        <v>2246</v>
       </c>
       <c r="K137">
-        <v>1241</v>
+        <v>1404</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -11813,10 +11813,10 @@
         <v>0.4</v>
       </c>
       <c r="J138">
-        <v>5435</v>
+        <v>5797</v>
       </c>
       <c r="K138">
-        <v>12712</v>
+        <v>13725</v>
       </c>
       <c r="L138">
         <v>0</v>
@@ -11872,10 +11872,10 @@
         <v>0.1</v>
       </c>
       <c r="J139">
-        <v>1214</v>
+        <v>1306</v>
       </c>
       <c r="K139">
-        <v>1741</v>
+        <v>1934</v>
       </c>
       <c r="L139">
         <v>0</v>
@@ -11934,7 +11934,7 @@
         <v>1447</v>
       </c>
       <c r="K140">
-        <v>1371</v>
+        <v>1754</v>
       </c>
       <c r="L140">
         <v>0</v>
@@ -11990,10 +11990,10 @@
         <v>0.3</v>
       </c>
       <c r="J141">
-        <v>7098</v>
+        <v>7595</v>
       </c>
       <c r="K141">
-        <v>4547</v>
+        <v>5019</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -12049,10 +12049,10 @@
         <v>0.3</v>
       </c>
       <c r="J142">
-        <v>8048</v>
+        <v>8555</v>
       </c>
       <c r="K142">
-        <v>4591</v>
+        <v>5033</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -12108,10 +12108,10 @@
         <v>0.1</v>
       </c>
       <c r="J143">
-        <v>1760</v>
+        <v>1842</v>
       </c>
       <c r="K143">
-        <v>1320</v>
+        <v>1454</v>
       </c>
       <c r="L143">
         <v>1</v>
@@ -12167,10 +12167,10 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1093</v>
+        <v>2058</v>
       </c>
       <c r="K144">
-        <v>164</v>
+        <v>416</v>
       </c>
       <c r="L144">
         <v>0</v>
@@ -12226,10 +12226,10 @@
         <v>0.6</v>
       </c>
       <c r="J145">
-        <v>6338</v>
+        <v>6698</v>
       </c>
       <c r="K145">
-        <v>15539</v>
+        <v>16906</v>
       </c>
       <c r="L145">
         <v>0</v>
@@ -12282,13 +12282,13 @@
         <v>5</v>
       </c>
       <c r="I146">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="J146">
-        <v>293105</v>
+        <v>358973</v>
       </c>
       <c r="K146">
-        <v>178992</v>
+        <v>193543</v>
       </c>
       <c r="L146">
         <v>4</v>
@@ -12341,13 +12341,13 @@
         <v>5</v>
       </c>
       <c r="I147">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J147">
-        <v>59126</v>
+        <v>61326</v>
       </c>
       <c r="K147">
-        <v>42163</v>
+        <v>46176</v>
       </c>
       <c r="L147">
         <v>8</v>
@@ -12400,13 +12400,13 @@
         <v>5.5</v>
       </c>
       <c r="I148">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J148">
-        <v>39447</v>
+        <v>42073</v>
       </c>
       <c r="K148">
-        <v>74526</v>
+        <v>81854</v>
       </c>
       <c r="L148">
         <v>7</v>
@@ -12459,13 +12459,13 @@
         <v>5.4</v>
       </c>
       <c r="I149">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J149">
-        <v>3110</v>
+        <v>3137</v>
       </c>
       <c r="K149">
-        <v>152315</v>
+        <v>163098</v>
       </c>
       <c r="L149">
         <v>0</v>
@@ -12518,13 +12518,13 @@
         <v>6</v>
       </c>
       <c r="I150">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J150">
-        <v>226877</v>
+        <v>241529</v>
       </c>
       <c r="K150">
-        <v>79000</v>
+        <v>88366</v>
       </c>
       <c r="L150">
         <v>13</v>
@@ -12580,10 +12580,10 @@
         <v>0.1</v>
       </c>
       <c r="J151">
-        <v>921</v>
+        <v>1014</v>
       </c>
       <c r="K151">
-        <v>1916</v>
+        <v>2061</v>
       </c>
       <c r="L151">
         <v>0</v>
@@ -12639,10 +12639,10 @@
         <v>0.4</v>
       </c>
       <c r="J152">
-        <v>4114</v>
+        <v>4149</v>
       </c>
       <c r="K152">
-        <v>42311</v>
+        <v>45465</v>
       </c>
       <c r="L152">
         <v>0</v>
@@ -12698,10 +12698,10 @@
         <v>0.2</v>
       </c>
       <c r="J153">
-        <v>1545</v>
+        <v>1619</v>
       </c>
       <c r="K153">
-        <v>4653</v>
+        <v>4991</v>
       </c>
       <c r="L153">
         <v>0</v>
@@ -12754,13 +12754,13 @@
         <v>5</v>
       </c>
       <c r="I154">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J154">
-        <v>75188</v>
+        <v>76117</v>
       </c>
       <c r="K154">
-        <v>140637</v>
+        <v>162267</v>
       </c>
       <c r="L154">
         <v>5</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="S154" t="s">
         <v>1086</v>
@@ -12816,10 +12816,10 @@
         <v>0.4</v>
       </c>
       <c r="J155">
-        <v>5613</v>
+        <v>5970</v>
       </c>
       <c r="K155">
-        <v>20876</v>
+        <v>22298</v>
       </c>
       <c r="L155">
         <v>0</v>
@@ -12875,10 +12875,10 @@
         <v>0.2</v>
       </c>
       <c r="J156">
-        <v>7364</v>
+        <v>8945</v>
       </c>
       <c r="K156">
-        <v>2926</v>
+        <v>3383</v>
       </c>
       <c r="L156">
         <v>3</v>
@@ -12937,7 +12937,7 @@
         <v>2202</v>
       </c>
       <c r="K157">
-        <v>40200</v>
+        <v>41806</v>
       </c>
       <c r="L157">
         <v>0</v>
@@ -12993,10 +12993,10 @@
         <v>0.4</v>
       </c>
       <c r="J158">
-        <v>3731</v>
+        <v>3954</v>
       </c>
       <c r="K158">
-        <v>7616</v>
+        <v>8293</v>
       </c>
       <c r="L158">
         <v>0</v>
@@ -13049,13 +13049,13 @@
         <v>6</v>
       </c>
       <c r="I159">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J159">
-        <v>78421</v>
+        <v>79834</v>
       </c>
       <c r="K159">
-        <v>116577</v>
+        <v>130788</v>
       </c>
       <c r="L159">
         <v>9</v>
@@ -13111,10 +13111,10 @@
         <v>0.6</v>
       </c>
       <c r="J160">
-        <v>7696</v>
+        <v>8205</v>
       </c>
       <c r="K160">
-        <v>23966</v>
+        <v>26449</v>
       </c>
       <c r="L160">
         <v>2</v>
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="R160" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="S160" t="s">
         <v>1087</v>
@@ -13170,10 +13170,10 @@
         <v>0.5</v>
       </c>
       <c r="J161">
-        <v>2565</v>
+        <v>2804</v>
       </c>
       <c r="K161">
-        <v>20196</v>
+        <v>21500</v>
       </c>
       <c r="L161">
         <v>0</v>
@@ -13226,13 +13226,13 @@
         <v>8</v>
       </c>
       <c r="I162">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="J162">
-        <v>54587</v>
+        <v>67710</v>
       </c>
       <c r="K162">
-        <v>211034</v>
+        <v>229738</v>
       </c>
       <c r="L162">
         <v>5</v>
@@ -13291,7 +13291,7 @@
         <v>289</v>
       </c>
       <c r="K163">
-        <v>7299</v>
+        <v>7818</v>
       </c>
       <c r="L163">
         <v>0</v>
@@ -13347,10 +13347,10 @@
         <v>0.1</v>
       </c>
       <c r="J164">
-        <v>1030</v>
+        <v>1107</v>
       </c>
       <c r="K164">
-        <v>3558</v>
+        <v>3783</v>
       </c>
       <c r="L164">
         <v>0</v>
@@ -13406,10 +13406,10 @@
         <v>3.9</v>
       </c>
       <c r="J165">
-        <v>75443</v>
+        <v>89636</v>
       </c>
       <c r="K165">
-        <v>141308</v>
+        <v>152121</v>
       </c>
       <c r="L165">
         <v>3</v>
@@ -13462,13 +13462,13 @@
         <v>6.1</v>
       </c>
       <c r="I166">
-        <v>42.8</v>
+        <v>43.7</v>
       </c>
       <c r="J166">
-        <v>492070</v>
+        <v>573498</v>
       </c>
       <c r="K166">
-        <v>218789</v>
+        <v>229616</v>
       </c>
       <c r="L166">
         <v>14</v>
@@ -13521,13 +13521,13 @@
         <v>5</v>
       </c>
       <c r="I167">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="J167">
-        <v>324066</v>
+        <v>351232</v>
       </c>
       <c r="K167">
-        <v>190763</v>
+        <v>211807</v>
       </c>
       <c r="L167">
         <v>8</v>
@@ -13580,13 +13580,13 @@
         <v>5.9</v>
       </c>
       <c r="I168">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J168">
-        <v>5293</v>
+        <v>6009</v>
       </c>
       <c r="K168">
-        <v>59649</v>
+        <v>64120</v>
       </c>
       <c r="L168">
         <v>2</v>
@@ -13642,10 +13642,10 @@
         <v>0.5</v>
       </c>
       <c r="J169">
-        <v>2691</v>
+        <v>2881</v>
       </c>
       <c r="K169">
-        <v>12506</v>
+        <v>13672</v>
       </c>
       <c r="L169">
         <v>0</v>
@@ -13698,13 +13698,13 @@
         <v>5.4</v>
       </c>
       <c r="I170">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J170">
-        <v>11301</v>
+        <v>12382</v>
       </c>
       <c r="K170">
-        <v>37371</v>
+        <v>41655</v>
       </c>
       <c r="L170">
         <v>2</v>
@@ -13725,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="R170" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="S170" t="s">
         <v>1087</v>
@@ -13760,10 +13760,10 @@
         <v>0.1</v>
       </c>
       <c r="J171">
-        <v>839</v>
+        <v>900</v>
       </c>
       <c r="K171">
-        <v>2082</v>
+        <v>2239</v>
       </c>
       <c r="L171">
         <v>0</v>
@@ -13819,10 +13819,10 @@
         <v>5.9</v>
       </c>
       <c r="J172">
-        <v>58998</v>
+        <v>68431</v>
       </c>
       <c r="K172">
-        <v>122146</v>
+        <v>133134</v>
       </c>
       <c r="L172">
         <v>8</v>
@@ -13875,13 +13875,13 @@
         <v>5.5</v>
       </c>
       <c r="I173">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J173">
-        <v>269264</v>
+        <v>307854</v>
       </c>
       <c r="K173">
-        <v>111424</v>
+        <v>122022</v>
       </c>
       <c r="L173">
         <v>13</v>
@@ -13937,10 +13937,10 @@
         <v>0.5</v>
       </c>
       <c r="J174">
-        <v>10034</v>
+        <v>10660</v>
       </c>
       <c r="K174">
-        <v>9754</v>
+        <v>10611</v>
       </c>
       <c r="L174">
         <v>0</v>
@@ -13993,13 +13993,13 @@
         <v>4.5</v>
       </c>
       <c r="I175">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J175">
-        <v>7740</v>
+        <v>12640</v>
       </c>
       <c r="K175">
-        <v>16027</v>
+        <v>17811</v>
       </c>
       <c r="L175">
         <v>3</v>
@@ -14055,10 +14055,10 @@
         <v>0.8</v>
       </c>
       <c r="J176">
-        <v>789</v>
+        <v>841</v>
       </c>
       <c r="K176">
-        <v>24779</v>
+        <v>26527</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -14105,19 +14105,19 @@
         <v>1076</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K177">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="L177">
         <v>0</v>
@@ -14170,13 +14170,13 @@
         <v>5.5</v>
       </c>
       <c r="I178">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J178">
         <v>3358</v>
       </c>
       <c r="K178">
-        <v>50634</v>
+        <v>53603</v>
       </c>
       <c r="L178">
         <v>0</v>
@@ -14232,10 +14232,10 @@
         <v>0.2</v>
       </c>
       <c r="J179">
-        <v>1416</v>
+        <v>1619</v>
       </c>
       <c r="K179">
-        <v>3931</v>
+        <v>4226</v>
       </c>
       <c r="L179">
         <v>1</v>
@@ -14291,10 +14291,10 @@
         <v>0.2</v>
       </c>
       <c r="J180">
-        <v>3235</v>
+        <v>3945</v>
       </c>
       <c r="K180">
-        <v>3035</v>
+        <v>3322</v>
       </c>
       <c r="L180">
         <v>2</v>
@@ -14350,10 +14350,10 @@
         <v>0.7</v>
       </c>
       <c r="J181">
-        <v>11469</v>
+        <v>12665</v>
       </c>
       <c r="K181">
-        <v>11161</v>
+        <v>12463</v>
       </c>
       <c r="L181">
         <v>2</v>
@@ -14409,10 +14409,10 @@
         <v>0.3</v>
       </c>
       <c r="J182">
-        <v>7889</v>
+        <v>8754</v>
       </c>
       <c r="K182">
-        <v>8203</v>
+        <v>8966</v>
       </c>
       <c r="L182">
         <v>4</v>
@@ -14465,13 +14465,13 @@
         <v>7</v>
       </c>
       <c r="I183">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="J183">
-        <v>143138</v>
+        <v>178889</v>
       </c>
       <c r="K183">
-        <v>149067</v>
+        <v>159402</v>
       </c>
       <c r="L183">
         <v>9</v>
@@ -14527,10 +14527,10 @@
         <v>0.2</v>
       </c>
       <c r="J184">
-        <v>2024</v>
+        <v>2330</v>
       </c>
       <c r="K184">
-        <v>3693</v>
+        <v>4049</v>
       </c>
       <c r="L184">
         <v>4</v>
@@ -14586,10 +14586,10 @@
         <v>0.1</v>
       </c>
       <c r="J185">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K185">
-        <v>2290</v>
+        <v>2451</v>
       </c>
       <c r="L185">
         <v>0</v>
@@ -14645,10 +14645,10 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="K186">
-        <v>747</v>
+        <v>800</v>
       </c>
       <c r="L186">
         <v>2</v>
@@ -14704,10 +14704,10 @@
         <v>0.1</v>
       </c>
       <c r="J187">
-        <v>976</v>
+        <v>1067</v>
       </c>
       <c r="K187">
-        <v>1346</v>
+        <v>1482</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -14763,10 +14763,10 @@
         <v>2.4</v>
       </c>
       <c r="J188">
-        <v>21752</v>
+        <v>24935</v>
       </c>
       <c r="K188">
-        <v>38881</v>
+        <v>42097</v>
       </c>
       <c r="L188">
         <v>2</v>
@@ -14819,13 +14819,13 @@
         <v>5.5</v>
       </c>
       <c r="I189">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J189">
-        <v>34517</v>
+        <v>37230</v>
       </c>
       <c r="K189">
-        <v>77387</v>
+        <v>84678</v>
       </c>
       <c r="L189">
         <v>1</v>
@@ -14881,10 +14881,10 @@
         <v>1.7</v>
       </c>
       <c r="J190">
-        <v>3740</v>
+        <v>4625</v>
       </c>
       <c r="K190">
-        <v>32789</v>
+        <v>34734</v>
       </c>
       <c r="L190">
         <v>1</v>
@@ -14940,10 +14940,10 @@
         <v>0.6</v>
       </c>
       <c r="J191">
-        <v>6623</v>
+        <v>7499</v>
       </c>
       <c r="K191">
-        <v>21132</v>
+        <v>23095</v>
       </c>
       <c r="L191">
         <v>1</v>
@@ -14996,13 +14996,13 @@
         <v>5.5</v>
       </c>
       <c r="I192">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J192">
-        <v>47102</v>
+        <v>61743</v>
       </c>
       <c r="K192">
-        <v>21448</v>
+        <v>24524</v>
       </c>
       <c r="L192">
         <v>8</v>
@@ -15058,10 +15058,10 @@
         <v>0.9</v>
       </c>
       <c r="J193">
-        <v>5545</v>
+        <v>6805</v>
       </c>
       <c r="K193">
-        <v>12250</v>
+        <v>13284</v>
       </c>
       <c r="L193">
         <v>3</v>
@@ -15117,10 +15117,10 @@
         <v>0.1</v>
       </c>
       <c r="J194">
-        <v>1438</v>
+        <v>1825</v>
       </c>
       <c r="K194">
-        <v>6146</v>
+        <v>6390</v>
       </c>
       <c r="L194">
         <v>1</v>
@@ -15179,7 +15179,7 @@
         <v>241</v>
       </c>
       <c r="K195">
-        <v>1692</v>
+        <v>1840</v>
       </c>
       <c r="L195">
         <v>0</v>
@@ -15235,10 +15235,10 @@
         <v>0.2</v>
       </c>
       <c r="J196">
-        <v>3270</v>
+        <v>3496</v>
       </c>
       <c r="K196">
-        <v>3953</v>
+        <v>4385</v>
       </c>
       <c r="L196">
         <v>1</v>
@@ -15294,10 +15294,10 @@
         <v>0.2</v>
       </c>
       <c r="J197">
-        <v>1527</v>
+        <v>1537</v>
       </c>
       <c r="K197">
-        <v>8181</v>
+        <v>8939</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -15353,10 +15353,10 @@
         <v>0.1</v>
       </c>
       <c r="J198">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="K198">
-        <v>1554</v>
+        <v>1698</v>
       </c>
       <c r="L198">
         <v>0</v>
@@ -15415,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>712</v>
+        <v>750</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -15471,10 +15471,10 @@
         <v>1.4</v>
       </c>
       <c r="J200">
-        <v>11889</v>
+        <v>13025</v>
       </c>
       <c r="K200">
-        <v>24182</v>
+        <v>26291</v>
       </c>
       <c r="L200">
         <v>0</v>
@@ -15527,13 +15527,13 @@
         <v>5</v>
       </c>
       <c r="I201">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J201">
-        <v>3614</v>
+        <v>4040</v>
       </c>
       <c r="K201">
-        <v>3296</v>
+        <v>3645</v>
       </c>
       <c r="L201">
         <v>4</v>
@@ -15589,10 +15589,10 @@
         <v>0.1</v>
       </c>
       <c r="J202">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="K202">
-        <v>1233</v>
+        <v>1316</v>
       </c>
       <c r="L202">
         <v>1</v>
@@ -15648,10 +15648,10 @@
         <v>0.6</v>
       </c>
       <c r="J203">
-        <v>6025</v>
+        <v>6594</v>
       </c>
       <c r="K203">
-        <v>4356</v>
+        <v>4831</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -15707,10 +15707,10 @@
         <v>0.5</v>
       </c>
       <c r="J204">
-        <v>22115</v>
+        <v>24667</v>
       </c>
       <c r="K204">
-        <v>11411</v>
+        <v>12851</v>
       </c>
       <c r="L204">
         <v>1</v>
@@ -15766,10 +15766,10 @@
         <v>0.1</v>
       </c>
       <c r="J205">
-        <v>917</v>
+        <v>1070</v>
       </c>
       <c r="K205">
-        <v>1085</v>
+        <v>1159</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -15825,10 +15825,10 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K206">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L206">
         <v>0</v>
@@ -15884,10 +15884,10 @@
         <v>0.6</v>
       </c>
       <c r="J207">
-        <v>1971</v>
+        <v>2157</v>
       </c>
       <c r="K207">
-        <v>17041</v>
+        <v>18399</v>
       </c>
       <c r="L207">
         <v>0</v>
@@ -15943,10 +15943,10 @@
         <v>0.5</v>
       </c>
       <c r="J208">
-        <v>5932</v>
+        <v>6219</v>
       </c>
       <c r="K208">
-        <v>18534</v>
+        <v>20599</v>
       </c>
       <c r="L208">
         <v>2</v>
@@ -15999,13 +15999,13 @@
         <v>4.5</v>
       </c>
       <c r="I209">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J209">
-        <v>59028</v>
+        <v>63649</v>
       </c>
       <c r="K209">
-        <v>67016</v>
+        <v>73377</v>
       </c>
       <c r="L209">
         <v>4</v>
@@ -16061,10 +16061,10 @@
         <v>0.1</v>
       </c>
       <c r="J210">
-        <v>1880</v>
+        <v>1929</v>
       </c>
       <c r="K210">
-        <v>6743</v>
+        <v>7227</v>
       </c>
       <c r="L210">
         <v>0</v>
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="R210" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="S210" t="s">
         <v>1084</v>
@@ -16120,10 +16120,10 @@
         <v>0.2</v>
       </c>
       <c r="J211">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="K211">
-        <v>6764</v>
+        <v>7157</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -16170,19 +16170,19 @@
         <v>1076</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H212">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I212">
         <v>0.2</v>
       </c>
       <c r="J212">
-        <v>4010</v>
+        <v>4023</v>
       </c>
       <c r="K212">
-        <v>9983</v>
+        <v>11339</v>
       </c>
       <c r="L212">
         <v>3</v>
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="R212" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="S212" t="s">
         <v>1098</v>
@@ -16238,10 +16238,10 @@
         <v>0.2</v>
       </c>
       <c r="J213">
-        <v>6665</v>
+        <v>7559</v>
       </c>
       <c r="K213">
-        <v>4664</v>
+        <v>5281</v>
       </c>
       <c r="L213">
         <v>4</v>
@@ -16297,10 +16297,10 @@
         <v>0.1</v>
       </c>
       <c r="J214">
-        <v>1047</v>
+        <v>1135</v>
       </c>
       <c r="K214">
-        <v>1234</v>
+        <v>1352</v>
       </c>
       <c r="L214">
         <v>0</v>
@@ -16356,10 +16356,10 @@
         <v>0.1</v>
       </c>
       <c r="J215">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="K215">
-        <v>9399</v>
+        <v>9913</v>
       </c>
       <c r="L215">
         <v>1</v>
@@ -16415,10 +16415,10 @@
         <v>0.9</v>
       </c>
       <c r="J216">
-        <v>24773</v>
+        <v>28883</v>
       </c>
       <c r="K216">
-        <v>21710</v>
+        <v>24457</v>
       </c>
       <c r="L216">
         <v>4</v>
@@ -16474,10 +16474,10 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>603</v>
+        <v>719</v>
       </c>
       <c r="K217">
-        <v>1019</v>
+        <v>1079</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -16533,10 +16533,10 @@
         <v>0.3</v>
       </c>
       <c r="J218">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="K218">
-        <v>24013</v>
+        <v>25159</v>
       </c>
       <c r="L218">
         <v>0</v>
@@ -16592,10 +16592,10 @@
         <v>0.2</v>
       </c>
       <c r="J219">
-        <v>2975</v>
+        <v>3356</v>
       </c>
       <c r="K219">
-        <v>2736</v>
+        <v>3044</v>
       </c>
       <c r="L219">
         <v>2</v>
@@ -16651,10 +16651,10 @@
         <v>0.1</v>
       </c>
       <c r="J220">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="K220">
-        <v>7073</v>
+        <v>7394</v>
       </c>
       <c r="L220">
         <v>1</v>
@@ -16707,13 +16707,13 @@
         <v>4.5</v>
       </c>
       <c r="I221">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J221">
-        <v>7598</v>
+        <v>8798</v>
       </c>
       <c r="K221">
-        <v>5368</v>
+        <v>6091</v>
       </c>
       <c r="L221">
         <v>2</v>
@@ -16769,10 +16769,10 @@
         <v>1.7</v>
       </c>
       <c r="J222">
-        <v>61842</v>
+        <v>72014</v>
       </c>
       <c r="K222">
-        <v>30035</v>
+        <v>34202</v>
       </c>
       <c r="L222">
         <v>4</v>
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="K223">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -16884,13 +16884,13 @@
         <v>4</v>
       </c>
       <c r="I224">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J224">
-        <v>262978</v>
+        <v>283943</v>
       </c>
       <c r="K224">
-        <v>78525</v>
+        <v>89907</v>
       </c>
       <c r="L224">
         <v>3</v>
@@ -16946,10 +16946,10 @@
         <v>0.5</v>
       </c>
       <c r="J225">
-        <v>5801</v>
+        <v>6205</v>
       </c>
       <c r="K225">
-        <v>8792</v>
+        <v>9591</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -17005,10 +17005,10 @@
         <v>0.9</v>
       </c>
       <c r="J226">
-        <v>13638</v>
+        <v>15396</v>
       </c>
       <c r="K226">
-        <v>11293</v>
+        <v>12742</v>
       </c>
       <c r="L226">
         <v>3</v>
@@ -17064,10 +17064,10 @@
         <v>3.4</v>
       </c>
       <c r="J227">
-        <v>15731</v>
+        <v>17850</v>
       </c>
       <c r="K227">
-        <v>106533</v>
+        <v>112374</v>
       </c>
       <c r="L227">
         <v>2</v>
@@ -17123,10 +17123,10 @@
         <v>0.1</v>
       </c>
       <c r="J228">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="K228">
-        <v>1157</v>
+        <v>1270</v>
       </c>
       <c r="L228">
         <v>1</v>
@@ -17182,10 +17182,10 @@
         <v>0.3</v>
       </c>
       <c r="J229">
-        <v>3747</v>
+        <v>4129</v>
       </c>
       <c r="K229">
-        <v>9852</v>
+        <v>10892</v>
       </c>
       <c r="L229">
         <v>4</v>
@@ -17241,10 +17241,10 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <v>851</v>
+        <v>921</v>
       </c>
       <c r="K230">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="L230">
         <v>0</v>
@@ -17300,10 +17300,10 @@
         <v>0.1</v>
       </c>
       <c r="J231">
-        <v>8273</v>
+        <v>8874</v>
       </c>
       <c r="K231">
-        <v>2983</v>
+        <v>3333</v>
       </c>
       <c r="L231">
         <v>0</v>
@@ -17359,10 +17359,10 @@
         <v>0.2</v>
       </c>
       <c r="J232">
-        <v>18387</v>
+        <v>21082</v>
       </c>
       <c r="K232">
-        <v>2836</v>
+        <v>3460</v>
       </c>
       <c r="L232">
         <v>4</v>
@@ -17418,10 +17418,10 @@
         <v>1.3</v>
       </c>
       <c r="J233">
-        <v>8381</v>
+        <v>8824</v>
       </c>
       <c r="K233">
-        <v>25851</v>
+        <v>27819</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -17477,10 +17477,10 @@
         <v>0.3</v>
       </c>
       <c r="J234">
-        <v>1458</v>
+        <v>1538</v>
       </c>
       <c r="K234">
-        <v>5347</v>
+        <v>5831</v>
       </c>
       <c r="L234">
         <v>1</v>
@@ -17527,19 +17527,19 @@
         <v>1076</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H235">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I235">
         <v>0.1</v>
       </c>
       <c r="J235">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="K235">
-        <v>1938</v>
+        <v>2101</v>
       </c>
       <c r="L235">
         <v>2</v>
@@ -17595,10 +17595,10 @@
         <v>0.1</v>
       </c>
       <c r="J236">
-        <v>2319</v>
+        <v>2707</v>
       </c>
       <c r="K236">
-        <v>1812</v>
+        <v>1965</v>
       </c>
       <c r="L236">
         <v>7</v>
@@ -17654,10 +17654,10 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="K237">
-        <v>1474</v>
+        <v>1614</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -17710,13 +17710,13 @@
         <v>4.5</v>
       </c>
       <c r="I238">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J238">
-        <v>2995</v>
+        <v>3361</v>
       </c>
       <c r="K238">
-        <v>3741</v>
+        <v>4001</v>
       </c>
       <c r="L238">
         <v>0</v>
@@ -17772,10 +17772,10 @@
         <v>0.1</v>
       </c>
       <c r="J239">
-        <v>3975</v>
+        <v>4510</v>
       </c>
       <c r="K239">
-        <v>2245</v>
+        <v>2495</v>
       </c>
       <c r="L239">
         <v>5</v>
@@ -17831,10 +17831,10 @@
         <v>0.1</v>
       </c>
       <c r="J240">
-        <v>1257</v>
+        <v>1322</v>
       </c>
       <c r="K240">
-        <v>2258</v>
+        <v>2527</v>
       </c>
       <c r="L240">
         <v>4</v>
@@ -17890,10 +17890,10 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K241">
-        <v>907</v>
+        <v>953</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -17946,13 +17946,13 @@
         <v>4</v>
       </c>
       <c r="I242">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J242">
-        <v>9746</v>
+        <v>10450</v>
       </c>
       <c r="K242">
-        <v>48505</v>
+        <v>52458</v>
       </c>
       <c r="L242">
         <v>0</v>
@@ -18005,13 +18005,13 @@
         <v>4</v>
       </c>
       <c r="I243">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J243">
-        <v>3974</v>
+        <v>4193</v>
       </c>
       <c r="K243">
-        <v>9669</v>
+        <v>10494</v>
       </c>
       <c r="L243">
         <v>0</v>
@@ -18067,10 +18067,10 @@
         <v>0.1</v>
       </c>
       <c r="J244">
-        <v>1050</v>
+        <v>1250</v>
       </c>
       <c r="K244">
-        <v>1110</v>
+        <v>1218</v>
       </c>
       <c r="L244">
         <v>7</v>
@@ -18123,13 +18123,13 @@
         <v>6.6</v>
       </c>
       <c r="I245">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="J245">
-        <v>810688</v>
+        <v>859406</v>
       </c>
       <c r="K245">
-        <v>257176</v>
+        <v>285266</v>
       </c>
       <c r="L245">
         <v>12</v>
@@ -18182,13 +18182,13 @@
         <v>4.5</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="J246">
-        <v>59425</v>
+        <v>67380</v>
       </c>
       <c r="K246">
-        <v>20365</v>
+        <v>23414</v>
       </c>
       <c r="L246">
         <v>4</v>
@@ -18244,10 +18244,10 @@
         <v>0.1</v>
       </c>
       <c r="J247">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="K247">
-        <v>6121</v>
+        <v>6428</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -18300,13 +18300,13 @@
         <v>4.5</v>
       </c>
       <c r="I248">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J248">
-        <v>6090</v>
+        <v>6997</v>
       </c>
       <c r="K248">
-        <v>3100</v>
+        <v>3409</v>
       </c>
       <c r="L248">
         <v>7</v>
@@ -18362,10 +18362,10 @@
         <v>0.1</v>
       </c>
       <c r="J249">
-        <v>1014</v>
+        <v>1106</v>
       </c>
       <c r="K249">
-        <v>2799</v>
+        <v>3019</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -18421,10 +18421,10 @@
         <v>0.4</v>
       </c>
       <c r="J250">
-        <v>19328</v>
+        <v>21375</v>
       </c>
       <c r="K250">
-        <v>5807</v>
+        <v>6568</v>
       </c>
       <c r="L250">
         <v>9</v>
@@ -18480,10 +18480,10 @@
         <v>0.1</v>
       </c>
       <c r="J251">
-        <v>744</v>
+        <v>784</v>
       </c>
       <c r="K251">
-        <v>1760</v>
+        <v>1902</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -18539,10 +18539,10 @@
         <v>0.2</v>
       </c>
       <c r="J252">
-        <v>3297</v>
+        <v>3755</v>
       </c>
       <c r="K252">
-        <v>1864</v>
+        <v>2051</v>
       </c>
       <c r="L252">
         <v>7</v>
@@ -18598,10 +18598,10 @@
         <v>0.1</v>
       </c>
       <c r="J253">
-        <v>2548</v>
+        <v>2743</v>
       </c>
       <c r="K253">
-        <v>5066</v>
+        <v>5474</v>
       </c>
       <c r="L253">
         <v>0</v>
@@ -18657,10 +18657,10 @@
         <v>1.3</v>
       </c>
       <c r="J254">
-        <v>25089</v>
+        <v>28497</v>
       </c>
       <c r="K254">
-        <v>25535</v>
+        <v>27973</v>
       </c>
       <c r="L254">
         <v>1</v>
@@ -18716,10 +18716,10 @@
         <v>0.3</v>
       </c>
       <c r="J255">
-        <v>9069</v>
+        <v>9630</v>
       </c>
       <c r="K255">
-        <v>5049</v>
+        <v>5663</v>
       </c>
       <c r="L255">
         <v>4</v>
@@ -18772,13 +18772,13 @@
         <v>4.5</v>
       </c>
       <c r="I256">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="J256">
-        <v>251254</v>
+        <v>266819</v>
       </c>
       <c r="K256">
-        <v>236470</v>
+        <v>275111</v>
       </c>
       <c r="L256">
         <v>5</v>
@@ -18834,10 +18834,10 @@
         <v>0.2</v>
       </c>
       <c r="J257">
-        <v>1302</v>
+        <v>1386</v>
       </c>
       <c r="K257">
-        <v>3557</v>
+        <v>3811</v>
       </c>
       <c r="L257">
         <v>0</v>
@@ -18893,10 +18893,10 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="K258">
-        <v>687</v>
+        <v>760</v>
       </c>
       <c r="L258">
         <v>1</v>
@@ -18952,10 +18952,10 @@
         <v>0.2</v>
       </c>
       <c r="J259">
-        <v>1660</v>
+        <v>1773</v>
       </c>
       <c r="K259">
-        <v>4314</v>
+        <v>4627</v>
       </c>
       <c r="L259">
         <v>1</v>
@@ -19011,10 +19011,10 @@
         <v>0.1</v>
       </c>
       <c r="J260">
-        <v>1276</v>
+        <v>1384</v>
       </c>
       <c r="K260">
-        <v>1219</v>
+        <v>1352</v>
       </c>
       <c r="L260">
         <v>0</v>
@@ -19070,10 +19070,10 @@
         <v>0</v>
       </c>
       <c r="J261">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="K261">
-        <v>772</v>
+        <v>818</v>
       </c>
       <c r="L261">
         <v>1</v>
@@ -19132,7 +19132,7 @@
         <v>0</v>
       </c>
       <c r="K262">
-        <v>29627</v>
+        <v>30495</v>
       </c>
       <c r="L262">
         <v>0</v>
@@ -19188,10 +19188,10 @@
         <v>0.3</v>
       </c>
       <c r="J263">
-        <v>3276</v>
+        <v>3586</v>
       </c>
       <c r="K263">
-        <v>5608</v>
+        <v>6164</v>
       </c>
       <c r="L263">
         <v>1</v>
@@ -19247,10 +19247,10 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <v>1087</v>
+        <v>1146</v>
       </c>
       <c r="K264">
-        <v>887</v>
+        <v>953</v>
       </c>
       <c r="L264">
         <v>0</v>
@@ -19306,10 +19306,10 @@
         <v>0.1</v>
       </c>
       <c r="J265">
-        <v>1991</v>
+        <v>2162</v>
       </c>
       <c r="K265">
-        <v>3711</v>
+        <v>4063</v>
       </c>
       <c r="L265">
         <v>0</v>
@@ -19365,10 +19365,10 @@
         <v>0.6</v>
       </c>
       <c r="J266">
-        <v>8092</v>
+        <v>8628</v>
       </c>
       <c r="K266">
-        <v>14224</v>
+        <v>15567</v>
       </c>
       <c r="L266">
         <v>0</v>
@@ -19421,13 +19421,13 @@
         <v>4</v>
       </c>
       <c r="I267">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J267">
-        <v>67219</v>
+        <v>71844</v>
       </c>
       <c r="K267">
-        <v>130923</v>
+        <v>144017</v>
       </c>
       <c r="L267">
         <v>0</v>
@@ -19480,13 +19480,13 @@
         <v>4</v>
       </c>
       <c r="I268">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="J268">
-        <v>288609</v>
+        <v>315303</v>
       </c>
       <c r="K268">
-        <v>74885</v>
+        <v>84309</v>
       </c>
       <c r="L268">
         <v>2</v>
@@ -19542,10 +19542,10 @@
         <v>4.3</v>
       </c>
       <c r="J269">
-        <v>49336</v>
+        <v>59344</v>
       </c>
       <c r="K269">
-        <v>127419</v>
+        <v>137862</v>
       </c>
       <c r="L269">
         <v>7</v>
@@ -19601,10 +19601,10 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K270">
-        <v>4066</v>
+        <v>4236</v>
       </c>
       <c r="L270">
         <v>0</v>
@@ -19660,10 +19660,10 @@
         <v>0.3</v>
       </c>
       <c r="J271">
-        <v>4176</v>
+        <v>4502</v>
       </c>
       <c r="K271">
-        <v>5839</v>
+        <v>6369</v>
       </c>
       <c r="L271">
         <v>2</v>
@@ -19719,10 +19719,10 @@
         <v>2</v>
       </c>
       <c r="J272">
-        <v>84493</v>
+        <v>90244</v>
       </c>
       <c r="K272">
-        <v>33994</v>
+        <v>37942</v>
       </c>
       <c r="L272">
         <v>8</v>
@@ -19778,10 +19778,10 @@
         <v>2.1</v>
       </c>
       <c r="J273">
-        <v>22389</v>
+        <v>24788</v>
       </c>
       <c r="K273">
-        <v>48241</v>
+        <v>52555</v>
       </c>
       <c r="L273">
         <v>4</v>
@@ -19837,10 +19837,10 @@
         <v>0.1</v>
       </c>
       <c r="J274">
-        <v>1348</v>
+        <v>1504</v>
       </c>
       <c r="K274">
-        <v>4032</v>
+        <v>4348</v>
       </c>
       <c r="L274">
         <v>0</v>
@@ -19893,13 +19893,13 @@
         <v>8</v>
       </c>
       <c r="I275">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J275">
-        <v>120131</v>
+        <v>148645</v>
       </c>
       <c r="K275">
-        <v>87903</v>
+        <v>98080</v>
       </c>
       <c r="L275">
         <v>12</v>
@@ -19955,10 +19955,10 @@
         <v>0.8</v>
       </c>
       <c r="J276">
-        <v>10932</v>
+        <v>12269</v>
       </c>
       <c r="K276">
-        <v>32611</v>
+        <v>34585</v>
       </c>
       <c r="L276">
         <v>4</v>
@@ -20017,7 +20017,7 @@
         <v>1196</v>
       </c>
       <c r="K277">
-        <v>7298</v>
+        <v>7887</v>
       </c>
       <c r="L277">
         <v>0</v>
@@ -20070,13 +20070,13 @@
         <v>6.9</v>
       </c>
       <c r="I278">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="J278">
-        <v>395</v>
+        <v>1620</v>
       </c>
       <c r="K278">
-        <v>100797</v>
+        <v>103166</v>
       </c>
       <c r="L278">
         <v>0</v>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
       <c r="R278" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="S278" t="s">
         <v>1084</v>
@@ -20132,10 +20132,10 @@
         <v>0.4</v>
       </c>
       <c r="J279">
-        <v>8797</v>
+        <v>9834</v>
       </c>
       <c r="K279">
-        <v>9037</v>
+        <v>9885</v>
       </c>
       <c r="L279">
         <v>4</v>
@@ -20188,13 +20188,13 @@
         <v>5</v>
       </c>
       <c r="I280">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J280">
-        <v>164320</v>
+        <v>179067</v>
       </c>
       <c r="K280">
-        <v>48639</v>
+        <v>55652</v>
       </c>
       <c r="L280">
         <v>12</v>
@@ -20250,10 +20250,10 @@
         <v>0.5</v>
       </c>
       <c r="J281">
-        <v>2839</v>
+        <v>3100</v>
       </c>
       <c r="K281">
-        <v>15425</v>
+        <v>16548</v>
       </c>
       <c r="L281">
         <v>0</v>
@@ -20306,13 +20306,13 @@
         <v>4.5</v>
       </c>
       <c r="I282">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J282">
-        <v>10544</v>
+        <v>11916</v>
       </c>
       <c r="K282">
-        <v>21017</v>
+        <v>22955</v>
       </c>
       <c r="L282">
         <v>4</v>
@@ -20368,10 +20368,10 @@
         <v>0.5</v>
       </c>
       <c r="J283">
-        <v>5606</v>
+        <v>5940</v>
       </c>
       <c r="K283">
-        <v>9928</v>
+        <v>10795</v>
       </c>
       <c r="L283">
         <v>0</v>
@@ -20427,10 +20427,10 @@
         <v>0.1</v>
       </c>
       <c r="J284">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="K284">
-        <v>2096</v>
+        <v>2300</v>
       </c>
       <c r="L284">
         <v>0</v>
@@ -20486,10 +20486,10 @@
         <v>1.1</v>
       </c>
       <c r="J285">
-        <v>13716</v>
+        <v>14694</v>
       </c>
       <c r="K285">
-        <v>45985</v>
+        <v>49305</v>
       </c>
       <c r="L285">
         <v>2</v>
@@ -20545,10 +20545,10 @@
         <v>1.7</v>
       </c>
       <c r="J286">
-        <v>22305</v>
+        <v>24098</v>
       </c>
       <c r="K286">
-        <v>30802</v>
+        <v>34157</v>
       </c>
       <c r="L286">
         <v>0</v>
@@ -20604,10 +20604,10 @@
         <v>0.3</v>
       </c>
       <c r="J287">
-        <v>3327</v>
+        <v>3626</v>
       </c>
       <c r="K287">
-        <v>4794</v>
+        <v>5252</v>
       </c>
       <c r="L287">
         <v>0</v>
@@ -20663,10 +20663,10 @@
         <v>2.5</v>
       </c>
       <c r="J288">
-        <v>17706</v>
+        <v>19009</v>
       </c>
       <c r="K288">
-        <v>47146</v>
+        <v>51122</v>
       </c>
       <c r="L288">
         <v>0</v>
@@ -20722,10 +20722,10 @@
         <v>0</v>
       </c>
       <c r="J289">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K289">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="L289">
         <v>1</v>
@@ -20781,10 +20781,10 @@
         <v>0</v>
       </c>
       <c r="J290">
-        <v>1138</v>
+        <v>1482</v>
       </c>
       <c r="K290">
-        <v>270</v>
+        <v>399</v>
       </c>
       <c r="L290">
         <v>0</v>
@@ -20840,10 +20840,10 @@
         <v>0</v>
       </c>
       <c r="J291">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K291">
-        <v>2370</v>
+        <v>2514</v>
       </c>
       <c r="L291">
         <v>0</v>
@@ -20899,10 +20899,10 @@
         <v>0</v>
       </c>
       <c r="J292">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="K292">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="L292">
         <v>0</v>
@@ -20958,10 +20958,10 @@
         <v>0.1</v>
       </c>
       <c r="J293">
-        <v>765</v>
+        <v>923</v>
       </c>
       <c r="K293">
-        <v>2931</v>
+        <v>3240</v>
       </c>
       <c r="L293">
         <v>2</v>
@@ -21017,10 +21017,10 @@
         <v>0.1</v>
       </c>
       <c r="J294">
-        <v>973</v>
+        <v>1142</v>
       </c>
       <c r="K294">
-        <v>1426</v>
+        <v>1536</v>
       </c>
       <c r="L294">
         <v>1</v>
@@ -21073,13 +21073,13 @@
         <v>6.1</v>
       </c>
       <c r="I295">
-        <v>10.4</v>
+        <v>11.6</v>
       </c>
       <c r="J295">
-        <v>798052</v>
+        <v>911346</v>
       </c>
       <c r="K295">
-        <v>79900</v>
+        <v>98121</v>
       </c>
       <c r="L295">
         <v>22</v>
@@ -21135,10 +21135,10 @@
         <v>0</v>
       </c>
       <c r="J296">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K296">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="L296">
         <v>0</v>
@@ -21191,13 +21191,13 @@
         <v>7.4</v>
       </c>
       <c r="I297">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="J297">
-        <v>23431</v>
+        <v>23541</v>
       </c>
       <c r="K297">
-        <v>61514</v>
+        <v>70820</v>
       </c>
       <c r="L297">
         <v>6</v>
@@ -21253,10 +21253,10 @@
         <v>0.3</v>
       </c>
       <c r="J298">
-        <v>2261</v>
+        <v>2363</v>
       </c>
       <c r="K298">
-        <v>5507</v>
+        <v>5951</v>
       </c>
       <c r="L298">
         <v>3</v>
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="K299">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L299">
         <v>0</v>
@@ -21371,10 +21371,10 @@
         <v>0.1</v>
       </c>
       <c r="J300">
-        <v>1334</v>
+        <v>1394</v>
       </c>
       <c r="K300">
-        <v>2168</v>
+        <v>2340</v>
       </c>
       <c r="L300">
         <v>3</v>
@@ -21430,10 +21430,10 @@
         <v>0.1</v>
       </c>
       <c r="J301">
-        <v>1873</v>
+        <v>2065</v>
       </c>
       <c r="K301">
-        <v>1347</v>
+        <v>1512</v>
       </c>
       <c r="L301">
         <v>1</v>
@@ -21492,7 +21492,7 @@
         <v>0</v>
       </c>
       <c r="K302">
-        <v>8213</v>
+        <v>8515</v>
       </c>
       <c r="L302">
         <v>0</v>
@@ -21548,10 +21548,10 @@
         <v>1.4</v>
       </c>
       <c r="J303">
-        <v>57530</v>
+        <v>60170</v>
       </c>
       <c r="K303">
-        <v>30249</v>
+        <v>34352</v>
       </c>
       <c r="L303">
         <v>10</v>
@@ -21610,7 +21610,7 @@
         <v>0</v>
       </c>
       <c r="K304">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L304">
         <v>0</v>
@@ -21666,10 +21666,10 @@
         <v>0.1</v>
       </c>
       <c r="J305">
-        <v>2947</v>
+        <v>3336</v>
       </c>
       <c r="K305">
-        <v>2243</v>
+        <v>2469</v>
       </c>
       <c r="L305">
         <v>8</v>
@@ -21725,10 +21725,10 @@
         <v>0.5</v>
       </c>
       <c r="J306">
-        <v>1760</v>
+        <v>1869</v>
       </c>
       <c r="K306">
-        <v>4011</v>
+        <v>4367</v>
       </c>
       <c r="L306">
         <v>0</v>
@@ -21781,13 +21781,13 @@
         <v>4.5</v>
       </c>
       <c r="I307">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="J307">
-        <v>162781</v>
+        <v>179491</v>
       </c>
       <c r="K307">
-        <v>282299</v>
+        <v>308320</v>
       </c>
       <c r="L307">
         <v>1</v>
@@ -21843,10 +21843,10 @@
         <v>2.3</v>
       </c>
       <c r="J308">
-        <v>15812</v>
+        <v>16444</v>
       </c>
       <c r="K308">
-        <v>34196</v>
+        <v>37713</v>
       </c>
       <c r="L308">
         <v>4</v>
@@ -21905,7 +21905,7 @@
         <v>55</v>
       </c>
       <c r="K309">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="L309">
         <v>0</v>
@@ -21961,10 +21961,10 @@
         <v>0.3</v>
       </c>
       <c r="J310">
-        <v>5616</v>
+        <v>5929</v>
       </c>
       <c r="K310">
-        <v>5035</v>
+        <v>5503</v>
       </c>
       <c r="L310">
         <v>1</v>
@@ -22023,7 +22023,7 @@
         <v>0</v>
       </c>
       <c r="K311">
-        <v>745</v>
+        <v>785</v>
       </c>
       <c r="L311">
         <v>0</v>
@@ -22079,10 +22079,10 @@
         <v>0.5</v>
       </c>
       <c r="J312">
-        <v>2933</v>
+        <v>3057</v>
       </c>
       <c r="K312">
-        <v>18268</v>
+        <v>20261</v>
       </c>
       <c r="L312">
         <v>1</v>
@@ -22103,7 +22103,7 @@
         <v>0</v>
       </c>
       <c r="R312" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="S312" t="s">
         <v>1089</v>
@@ -22138,10 +22138,10 @@
         <v>0.2</v>
       </c>
       <c r="J313">
-        <v>1510</v>
+        <v>1609</v>
       </c>
       <c r="K313">
-        <v>3321</v>
+        <v>3605</v>
       </c>
       <c r="L313">
         <v>0</v>
@@ -22197,10 +22197,10 @@
         <v>0.5</v>
       </c>
       <c r="J314">
-        <v>3962</v>
+        <v>4161</v>
       </c>
       <c r="K314">
-        <v>13262</v>
+        <v>14691</v>
       </c>
       <c r="L314">
         <v>2</v>
@@ -22256,10 +22256,10 @@
         <v>0.1</v>
       </c>
       <c r="J315">
-        <v>1059</v>
+        <v>1124</v>
       </c>
       <c r="K315">
-        <v>1889</v>
+        <v>2055</v>
       </c>
       <c r="L315">
         <v>4</v>
@@ -22312,13 +22312,13 @@
         <v>5.5</v>
       </c>
       <c r="I316">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J316">
-        <v>31416</v>
+        <v>32314</v>
       </c>
       <c r="K316">
-        <v>22919</v>
+        <v>25571</v>
       </c>
       <c r="L316">
         <v>3</v>
@@ -22371,13 +22371,13 @@
         <v>4.5</v>
       </c>
       <c r="I317">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J317">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="K317">
-        <v>1167</v>
+        <v>1262</v>
       </c>
       <c r="L317">
         <v>0</v>
@@ -22433,10 +22433,10 @@
         <v>0.2</v>
       </c>
       <c r="J318">
-        <v>4383</v>
+        <v>4737</v>
       </c>
       <c r="K318">
-        <v>4342</v>
+        <v>4794</v>
       </c>
       <c r="L318">
         <v>3</v>
@@ -22492,10 +22492,10 @@
         <v>0.2</v>
       </c>
       <c r="J319">
-        <v>1568</v>
+        <v>1695</v>
       </c>
       <c r="K319">
-        <v>5917</v>
+        <v>6236</v>
       </c>
       <c r="L319">
         <v>1</v>
@@ -22551,10 +22551,10 @@
         <v>0.1</v>
       </c>
       <c r="J320">
-        <v>1578</v>
+        <v>1685</v>
       </c>
       <c r="K320">
-        <v>1784</v>
+        <v>1952</v>
       </c>
       <c r="L320">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0.1</v>
       </c>
       <c r="J321">
-        <v>2895</v>
+        <v>3128</v>
       </c>
       <c r="K321">
-        <v>1186</v>
+        <v>1315</v>
       </c>
       <c r="L321">
         <v>0</v>
@@ -22669,10 +22669,10 @@
         <v>0</v>
       </c>
       <c r="J322">
-        <v>921</v>
+        <v>1029</v>
       </c>
       <c r="K322">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="L322">
         <v>0</v>
@@ -22725,13 +22725,13 @@
         <v>4.5</v>
       </c>
       <c r="I323">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J323">
-        <v>49610</v>
+        <v>61731</v>
       </c>
       <c r="K323">
-        <v>21655</v>
+        <v>25711</v>
       </c>
       <c r="L323">
         <v>6</v>
@@ -22787,10 +22787,10 @@
         <v>1.2</v>
       </c>
       <c r="J324">
-        <v>20450</v>
+        <v>21681</v>
       </c>
       <c r="K324">
-        <v>27332</v>
+        <v>30232</v>
       </c>
       <c r="L324">
         <v>3</v>
@@ -22837,19 +22837,19 @@
         <v>1075</v>
       </c>
       <c r="G325">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H325">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I325">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J325">
-        <v>11746</v>
+        <v>11802</v>
       </c>
       <c r="K325">
-        <v>94516</v>
+        <v>108466</v>
       </c>
       <c r="L325">
         <v>1</v>
@@ -22896,19 +22896,19 @@
         <v>1076</v>
       </c>
       <c r="G326">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="H326">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I326">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J326">
-        <v>6916</v>
+        <v>7053</v>
       </c>
       <c r="K326">
-        <v>121934</v>
+        <v>127123</v>
       </c>
       <c r="L326">
         <v>1</v>
@@ -22964,10 +22964,10 @@
         <v>0</v>
       </c>
       <c r="J327">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K327">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="L327">
         <v>0</v>
@@ -23023,10 +23023,10 @@
         <v>1.2</v>
       </c>
       <c r="J328">
-        <v>18251</v>
+        <v>23732</v>
       </c>
       <c r="K328">
-        <v>43686</v>
+        <v>48602</v>
       </c>
       <c r="L328">
         <v>1</v>
@@ -23047,7 +23047,7 @@
         <v>0</v>
       </c>
       <c r="R328" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="S328" t="s">
         <v>1089</v>
@@ -23079,13 +23079,13 @@
         <v>6.5</v>
       </c>
       <c r="I329">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="J329">
-        <v>64661</v>
+        <v>69810</v>
       </c>
       <c r="K329">
-        <v>199673</v>
+        <v>218764</v>
       </c>
       <c r="L329">
         <v>3</v>
@@ -23138,13 +23138,13 @@
         <v>5.5</v>
       </c>
       <c r="I330">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="J330">
-        <v>72277</v>
+        <v>77122</v>
       </c>
       <c r="K330">
-        <v>247953</v>
+        <v>272918</v>
       </c>
       <c r="L330">
         <v>3</v>
@@ -23200,10 +23200,10 @@
         <v>1.1</v>
       </c>
       <c r="J331">
-        <v>22599</v>
+        <v>24543</v>
       </c>
       <c r="K331">
-        <v>28178</v>
+        <v>30685</v>
       </c>
       <c r="L331">
         <v>3</v>
@@ -23256,13 +23256,13 @@
         <v>13</v>
       </c>
       <c r="I332">
-        <v>61.4</v>
+        <v>61.1</v>
       </c>
       <c r="J332">
-        <v>273694</v>
+        <v>293604</v>
       </c>
       <c r="K332">
-        <v>190500</v>
+        <v>226066</v>
       </c>
       <c r="L332">
         <v>14</v>
@@ -23315,13 +23315,13 @@
         <v>7</v>
       </c>
       <c r="I333">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="J333">
-        <v>65165</v>
+        <v>70238</v>
       </c>
       <c r="K333">
-        <v>233438</v>
+        <v>265798</v>
       </c>
       <c r="L333">
         <v>3</v>
@@ -23374,13 +23374,13 @@
         <v>7.5</v>
       </c>
       <c r="I334">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="J334">
-        <v>124190</v>
+        <v>139597</v>
       </c>
       <c r="K334">
-        <v>437828</v>
+        <v>485718</v>
       </c>
       <c r="L334">
         <v>4</v>
@@ -23436,10 +23436,10 @@
         <v>0.3</v>
       </c>
       <c r="J335">
-        <v>7342</v>
+        <v>8832</v>
       </c>
       <c r="K335">
-        <v>7846</v>
+        <v>8749</v>
       </c>
       <c r="L335">
         <v>1</v>
@@ -23495,10 +23495,10 @@
         <v>0.1</v>
       </c>
       <c r="J336">
-        <v>5471</v>
+        <v>6023</v>
       </c>
       <c r="K336">
-        <v>5110</v>
+        <v>5540</v>
       </c>
       <c r="L336">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0.4</v>
       </c>
       <c r="J337">
-        <v>1946</v>
+        <v>2217</v>
       </c>
       <c r="K337">
-        <v>24767</v>
+        <v>26002</v>
       </c>
       <c r="L337">
         <v>0</v>
@@ -23613,10 +23613,10 @@
         <v>0.2</v>
       </c>
       <c r="J338">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="K338">
-        <v>3400</v>
+        <v>3611</v>
       </c>
       <c r="L338">
         <v>0</v>
@@ -23672,10 +23672,10 @@
         <v>0.3</v>
       </c>
       <c r="J339">
-        <v>1184</v>
+        <v>1238</v>
       </c>
       <c r="K339">
-        <v>29812</v>
+        <v>30983</v>
       </c>
       <c r="L339">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         <v>0</v>
       </c>
       <c r="J340">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K340">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="L340">
         <v>0</v>
@@ -23790,10 +23790,10 @@
         <v>0.1</v>
       </c>
       <c r="J341">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="K341">
-        <v>3818</v>
+        <v>3951</v>
       </c>
       <c r="L341">
         <v>0</v>
@@ -23846,13 +23846,13 @@
         <v>8</v>
       </c>
       <c r="I342">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="J342">
-        <v>307888</v>
+        <v>364819</v>
       </c>
       <c r="K342">
-        <v>269621</v>
+        <v>292365</v>
       </c>
       <c r="L342">
         <v>11</v>
@@ -23905,13 +23905,13 @@
         <v>5</v>
       </c>
       <c r="I343">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J343">
-        <v>18413</v>
+        <v>22489</v>
       </c>
       <c r="K343">
-        <v>6556</v>
+        <v>8128</v>
       </c>
       <c r="L343">
         <v>5</v>
@@ -23967,10 +23967,10 @@
         <v>0.3</v>
       </c>
       <c r="J344">
-        <v>4280</v>
+        <v>4686</v>
       </c>
       <c r="K344">
-        <v>8133</v>
+        <v>8831</v>
       </c>
       <c r="L344">
         <v>2</v>
@@ -24023,13 +24023,13 @@
         <v>9</v>
       </c>
       <c r="I345">
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="J345">
-        <v>405322</v>
+        <v>405826</v>
       </c>
       <c r="K345">
-        <v>975954</v>
+        <v>1183936</v>
       </c>
       <c r="L345">
         <v>7</v>
@@ -24082,13 +24082,13 @@
         <v>4</v>
       </c>
       <c r="I346">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J346">
-        <v>2466</v>
+        <v>2497</v>
       </c>
       <c r="K346">
-        <v>5136</v>
+        <v>6051</v>
       </c>
       <c r="L346">
         <v>0</v>
@@ -24109,7 +24109,7 @@
         <v>0</v>
       </c>
       <c r="R346" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="S346" t="s">
         <v>1084</v>
@@ -24144,10 +24144,10 @@
         <v>0.8</v>
       </c>
       <c r="J347">
-        <v>7025</v>
+        <v>7588</v>
       </c>
       <c r="K347">
-        <v>10469</v>
+        <v>11242</v>
       </c>
       <c r="L347">
         <v>0</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="K348">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="L348">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="K349">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="L349">
         <v>0</v>
@@ -24321,10 +24321,10 @@
         <v>0.3</v>
       </c>
       <c r="J350">
-        <v>5134</v>
+        <v>5572</v>
       </c>
       <c r="K350">
-        <v>6057</v>
+        <v>6492</v>
       </c>
       <c r="L350">
         <v>0</v>
@@ -24380,10 +24380,10 @@
         <v>0.4</v>
       </c>
       <c r="J351">
-        <v>13726</v>
+        <v>17377</v>
       </c>
       <c r="K351">
-        <v>6900</v>
+        <v>8362</v>
       </c>
       <c r="L351">
         <v>2</v>
@@ -24439,10 +24439,10 @@
         <v>0</v>
       </c>
       <c r="J352">
-        <v>1277</v>
+        <v>1365</v>
       </c>
       <c r="K352">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="L352">
         <v>0</v>
@@ -24498,10 +24498,10 @@
         <v>0</v>
       </c>
       <c r="J353">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="K353">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L353">
         <v>0</v>
@@ -24557,10 +24557,10 @@
         <v>0</v>
       </c>
       <c r="J354">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="K354">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L354">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>5.1</v>
       </c>
       <c r="I355">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="J355">
-        <v>389824</v>
+        <v>425308</v>
       </c>
       <c r="K355">
-        <v>133457</v>
+        <v>150998</v>
       </c>
       <c r="L355">
         <v>12</v>
@@ -24672,13 +24672,13 @@
         <v>7.5</v>
       </c>
       <c r="I356">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J356">
-        <v>123390</v>
+        <v>148242</v>
       </c>
       <c r="K356">
-        <v>31155</v>
+        <v>36373</v>
       </c>
       <c r="L356">
         <v>13</v>
@@ -24731,13 +24731,13 @@
         <v>12.1</v>
       </c>
       <c r="I357">
-        <v>21.4</v>
+        <v>22.1</v>
       </c>
       <c r="J357">
-        <v>501096</v>
+        <v>561715</v>
       </c>
       <c r="K357">
-        <v>111544</v>
+        <v>126172</v>
       </c>
       <c r="L357">
         <v>20</v>
@@ -24790,13 +24790,13 @@
         <v>5.4</v>
       </c>
       <c r="I358">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J358">
-        <v>7891</v>
+        <v>8333</v>
       </c>
       <c r="K358">
-        <v>65451</v>
+        <v>70503</v>
       </c>
       <c r="L358">
         <v>1</v>
@@ -24849,13 +24849,13 @@
         <v>7.9</v>
       </c>
       <c r="I359">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J359">
-        <v>37764</v>
+        <v>39978</v>
       </c>
       <c r="K359">
-        <v>194569</v>
+        <v>211032</v>
       </c>
       <c r="L359">
         <v>4</v>
@@ -24908,13 +24908,13 @@
         <v>7</v>
       </c>
       <c r="I360">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J360">
-        <v>77306</v>
+        <v>79381</v>
       </c>
       <c r="K360">
-        <v>115570</v>
+        <v>130785</v>
       </c>
       <c r="L360">
         <v>4</v>
@@ -24967,13 +24967,13 @@
         <v>7.1</v>
       </c>
       <c r="I361">
-        <v>47.7</v>
+        <v>48.1</v>
       </c>
       <c r="J361">
-        <v>411298</v>
+        <v>459280</v>
       </c>
       <c r="K361">
-        <v>151561</v>
+        <v>164050</v>
       </c>
       <c r="L361">
         <v>18</v>
@@ -25026,13 +25026,13 @@
         <v>5.5</v>
       </c>
       <c r="I362">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="J362">
-        <v>267173</v>
+        <v>292143</v>
       </c>
       <c r="K362">
-        <v>135426</v>
+        <v>152272</v>
       </c>
       <c r="L362">
         <v>13</v>
@@ -25085,13 +25085,13 @@
         <v>5</v>
       </c>
       <c r="I363">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J363">
-        <v>124525</v>
+        <v>137146</v>
       </c>
       <c r="K363">
-        <v>35156</v>
+        <v>39997</v>
       </c>
       <c r="L363">
         <v>13</v>
@@ -25147,10 +25147,10 @@
         <v>0.4</v>
       </c>
       <c r="J364">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="K364">
-        <v>26470</v>
+        <v>27731</v>
       </c>
       <c r="L364">
         <v>0</v>
@@ -25209,7 +25209,7 @@
         <v>0</v>
       </c>
       <c r="K365">
-        <v>810</v>
+        <v>848</v>
       </c>
       <c r="L365">
         <v>0</v>
@@ -25262,13 +25262,13 @@
         <v>6.8</v>
       </c>
       <c r="I366">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J366">
-        <v>43995</v>
+        <v>47486</v>
       </c>
       <c r="K366">
-        <v>299601</v>
+        <v>323992</v>
       </c>
       <c r="L366">
         <v>2</v>
@@ -25324,10 +25324,10 @@
         <v>12</v>
       </c>
       <c r="J367">
-        <v>127731</v>
+        <v>137430</v>
       </c>
       <c r="K367">
-        <v>128589</v>
+        <v>141741</v>
       </c>
       <c r="L367">
         <v>12</v>
@@ -25380,13 +25380,13 @@
         <v>8</v>
       </c>
       <c r="I368">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="J368">
-        <v>223307</v>
+        <v>243878</v>
       </c>
       <c r="K368">
-        <v>109223</v>
+        <v>121396</v>
       </c>
       <c r="L368">
         <v>12</v>
@@ -25442,10 +25442,10 @@
         <v>2.7</v>
       </c>
       <c r="J369">
-        <v>43884</v>
+        <v>47100</v>
       </c>
       <c r="K369">
-        <v>71253</v>
+        <v>77555</v>
       </c>
       <c r="L369">
         <v>6</v>
@@ -25501,10 +25501,10 @@
         <v>0.1</v>
       </c>
       <c r="J370">
-        <v>2121</v>
+        <v>2163</v>
       </c>
       <c r="K370">
-        <v>5418</v>
+        <v>5907</v>
       </c>
       <c r="L370">
         <v>1</v>
@@ -25525,7 +25525,7 @@
         <v>0</v>
       </c>
       <c r="R370" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="S370" t="s">
         <v>1089</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="K371">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="L371">
         <v>0</v>
@@ -25616,13 +25616,13 @@
         <v>11.7</v>
       </c>
       <c r="I372">
-        <v>60.4</v>
+        <v>60.7</v>
       </c>
       <c r="J372">
-        <v>1414796</v>
+        <v>1465833</v>
       </c>
       <c r="K372">
-        <v>125198</v>
+        <v>148179</v>
       </c>
       <c r="L372">
         <v>18</v>
@@ -25675,13 +25675,13 @@
         <v>6.3</v>
       </c>
       <c r="I373">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J373">
-        <v>22062</v>
+        <v>23206</v>
       </c>
       <c r="K373">
-        <v>113048</v>
+        <v>121166</v>
       </c>
       <c r="L373">
         <v>2</v>
@@ -25737,10 +25737,10 @@
         <v>0.1</v>
       </c>
       <c r="J374">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="K374">
-        <v>2956</v>
+        <v>3190</v>
       </c>
       <c r="L374">
         <v>0</v>
@@ -25796,10 +25796,10 @@
         <v>0.6</v>
       </c>
       <c r="J375">
-        <v>8844</v>
+        <v>9535</v>
       </c>
       <c r="K375">
-        <v>15515</v>
+        <v>16657</v>
       </c>
       <c r="L375">
         <v>0</v>
@@ -25855,10 +25855,10 @@
         <v>0.6</v>
       </c>
       <c r="J376">
-        <v>8882</v>
+        <v>9515</v>
       </c>
       <c r="K376">
-        <v>18621</v>
+        <v>20212</v>
       </c>
       <c r="L376">
         <v>0</v>
@@ -25914,10 +25914,10 @@
         <v>0.4</v>
       </c>
       <c r="J377">
-        <v>2826</v>
+        <v>2978</v>
       </c>
       <c r="K377">
-        <v>8908</v>
+        <v>9550</v>
       </c>
       <c r="L377">
         <v>0</v>
@@ -25973,10 +25973,10 @@
         <v>0.3</v>
       </c>
       <c r="J378">
-        <v>3278</v>
+        <v>3362</v>
       </c>
       <c r="K378">
-        <v>25948</v>
+        <v>27733</v>
       </c>
       <c r="L378">
         <v>1</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="R378" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="S378" t="s">
         <v>1089</v>
@@ -26032,10 +26032,10 @@
         <v>0.1</v>
       </c>
       <c r="J379">
-        <v>751</v>
+        <v>799</v>
       </c>
       <c r="K379">
-        <v>2109</v>
+        <v>2307</v>
       </c>
       <c r="L379">
         <v>0</v>
@@ -26091,10 +26091,10 @@
         <v>0.1</v>
       </c>
       <c r="J380">
-        <v>3203</v>
+        <v>3527</v>
       </c>
       <c r="K380">
-        <v>1274</v>
+        <v>1422</v>
       </c>
       <c r="L380">
         <v>1</v>
@@ -26150,10 +26150,10 @@
         <v>0</v>
       </c>
       <c r="J381">
-        <v>730</v>
+        <v>1168</v>
       </c>
       <c r="K381">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="L381">
         <v>0</v>
@@ -26206,13 +26206,13 @@
         <v>10.4</v>
       </c>
       <c r="I382">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J382">
-        <v>43241</v>
+        <v>46089</v>
       </c>
       <c r="K382">
-        <v>163644</v>
+        <v>176778</v>
       </c>
       <c r="L382">
         <v>3</v>
@@ -26265,13 +26265,13 @@
         <v>4.9</v>
       </c>
       <c r="I383">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J383">
-        <v>26382</v>
+        <v>27121</v>
       </c>
       <c r="K383">
-        <v>222848</v>
+        <v>241277</v>
       </c>
       <c r="L383">
         <v>2</v>
@@ -26327,10 +26327,10 @@
         <v>0.4</v>
       </c>
       <c r="J384">
-        <v>3857</v>
+        <v>4060</v>
       </c>
       <c r="K384">
-        <v>7742</v>
+        <v>8409</v>
       </c>
       <c r="L384">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>1.5</v>
       </c>
       <c r="J385">
-        <v>9600</v>
+        <v>10496</v>
       </c>
       <c r="K385">
-        <v>64850</v>
+        <v>68916</v>
       </c>
       <c r="L385">
         <v>1</v>
@@ -26445,10 +26445,10 @@
         <v>0.7</v>
       </c>
       <c r="J386">
-        <v>6735</v>
+        <v>7017</v>
       </c>
       <c r="K386">
-        <v>36564</v>
+        <v>39704</v>
       </c>
       <c r="L386">
         <v>-1</v>
@@ -26501,13 +26501,13 @@
         <v>5.4</v>
       </c>
       <c r="I387">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J387">
-        <v>8127</v>
+        <v>8441</v>
       </c>
       <c r="K387">
-        <v>39806</v>
+        <v>42854</v>
       </c>
       <c r="L387">
         <v>2</v>
@@ -26563,10 +26563,10 @@
         <v>0.8</v>
       </c>
       <c r="J388">
-        <v>7246</v>
+        <v>7488</v>
       </c>
       <c r="K388">
-        <v>37015</v>
+        <v>40406</v>
       </c>
       <c r="L388">
         <v>-1</v>
@@ -26619,13 +26619,13 @@
         <v>9.9</v>
       </c>
       <c r="I389">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J389">
-        <v>8855</v>
+        <v>9239</v>
       </c>
       <c r="K389">
-        <v>114034</v>
+        <v>125072</v>
       </c>
       <c r="L389">
         <v>3</v>
@@ -26684,7 +26684,7 @@
         <v>0</v>
       </c>
       <c r="K390">
-        <v>4810</v>
+        <v>4959</v>
       </c>
       <c r="L390">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         <v>6.3</v>
       </c>
       <c r="I391">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="J391">
-        <v>54406</v>
+        <v>56147</v>
       </c>
       <c r="K391">
-        <v>519636</v>
+        <v>575446</v>
       </c>
       <c r="L391">
         <v>3</v>
@@ -26799,10 +26799,10 @@
         <v>0.4</v>
       </c>
       <c r="J392">
-        <v>3865</v>
+        <v>4005</v>
       </c>
       <c r="K392">
-        <v>21648</v>
+        <v>23332</v>
       </c>
       <c r="L392">
         <v>2</v>
@@ -26858,10 +26858,10 @@
         <v>0.1</v>
       </c>
       <c r="J393">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="K393">
-        <v>10142</v>
+        <v>10863</v>
       </c>
       <c r="L393">
         <v>0</v>
@@ -26917,10 +26917,10 @@
         <v>0.2</v>
       </c>
       <c r="J394">
-        <v>3841</v>
+        <v>4124</v>
       </c>
       <c r="K394">
-        <v>10769</v>
+        <v>11777</v>
       </c>
       <c r="L394">
         <v>1</v>
@@ -26976,10 +26976,10 @@
         <v>1.6</v>
       </c>
       <c r="J395">
-        <v>16629</v>
+        <v>17395</v>
       </c>
       <c r="K395">
-        <v>32074</v>
+        <v>34890</v>
       </c>
       <c r="L395">
         <v>0</v>
@@ -27032,13 +27032,13 @@
         <v>7.3</v>
       </c>
       <c r="I396">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J396">
-        <v>28087</v>
+        <v>29009</v>
       </c>
       <c r="K396">
-        <v>402715</v>
+        <v>444423</v>
       </c>
       <c r="L396">
         <v>3</v>
@@ -27094,10 +27094,10 @@
         <v>0.3</v>
       </c>
       <c r="J397">
-        <v>2704</v>
+        <v>2839</v>
       </c>
       <c r="K397">
-        <v>13043</v>
+        <v>13933</v>
       </c>
       <c r="L397">
         <v>0</v>
@@ -27150,13 +27150,13 @@
         <v>4.4</v>
       </c>
       <c r="I398">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J398">
-        <v>25305</v>
+        <v>26139</v>
       </c>
       <c r="K398">
-        <v>136425</v>
+        <v>150780</v>
       </c>
       <c r="L398">
         <v>1</v>
@@ -27212,10 +27212,10 @@
         <v>2.1</v>
       </c>
       <c r="J399">
-        <v>7776</v>
+        <v>8285</v>
       </c>
       <c r="K399">
-        <v>38246</v>
+        <v>41914</v>
       </c>
       <c r="L399">
         <v>0</v>
@@ -27271,10 +27271,10 @@
         <v>0.7</v>
       </c>
       <c r="J400">
-        <v>7759</v>
+        <v>8174</v>
       </c>
       <c r="K400">
-        <v>29491</v>
+        <v>31899</v>
       </c>
       <c r="L400">
         <v>2</v>
@@ -27330,10 +27330,10 @@
         <v>0.8</v>
       </c>
       <c r="J401">
-        <v>3340</v>
+        <v>3643</v>
       </c>
       <c r="K401">
-        <v>118676</v>
+        <v>122883</v>
       </c>
       <c r="L401">
         <v>0</v>
@@ -27354,7 +27354,7 @@
         <v>0</v>
       </c>
       <c r="R401" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="S401" t="s">
         <v>1084</v>
@@ -27389,10 +27389,10 @@
         <v>0</v>
       </c>
       <c r="J402">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="K402">
-        <v>1846</v>
+        <v>1981</v>
       </c>
       <c r="L402">
         <v>0</v>
@@ -27448,10 +27448,10 @@
         <v>0.5</v>
       </c>
       <c r="J403">
-        <v>3225</v>
+        <v>3487</v>
       </c>
       <c r="K403">
-        <v>4190</v>
+        <v>4575</v>
       </c>
       <c r="L403">
         <v>0</v>
@@ -27507,10 +27507,10 @@
         <v>1.8</v>
       </c>
       <c r="J404">
-        <v>9870</v>
+        <v>10848</v>
       </c>
       <c r="K404">
-        <v>56540</v>
+        <v>60873</v>
       </c>
       <c r="L404">
         <v>2</v>
@@ -27563,13 +27563,13 @@
         <v>6.4</v>
       </c>
       <c r="I405">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J405">
-        <v>54431</v>
+        <v>56123</v>
       </c>
       <c r="K405">
-        <v>146001</v>
+        <v>163308</v>
       </c>
       <c r="L405">
         <v>4</v>
@@ -27622,13 +27622,13 @@
         <v>4.4</v>
       </c>
       <c r="I406">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J406">
-        <v>27615</v>
+        <v>28379</v>
       </c>
       <c r="K406">
-        <v>103887</v>
+        <v>112744</v>
       </c>
       <c r="L406">
         <v>-1</v>
@@ -27684,10 +27684,10 @@
         <v>0.2</v>
       </c>
       <c r="J407">
-        <v>3040</v>
+        <v>3162</v>
       </c>
       <c r="K407">
-        <v>4223</v>
+        <v>4577</v>
       </c>
       <c r="L407">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0.2</v>
       </c>
       <c r="J408">
-        <v>2790</v>
+        <v>2903</v>
       </c>
       <c r="K408">
-        <v>5663</v>
+        <v>6075</v>
       </c>
       <c r="L408">
         <v>0</v>
@@ -27802,10 +27802,10 @@
         <v>0.1</v>
       </c>
       <c r="J409">
-        <v>10087</v>
+        <v>10631</v>
       </c>
       <c r="K409">
-        <v>3394</v>
+        <v>3781</v>
       </c>
       <c r="L409">
         <v>1</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="J410">
-        <v>1227</v>
+        <v>1337</v>
       </c>
       <c r="K410">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="L410">
         <v>0</v>
@@ -27920,10 +27920,10 @@
         <v>0</v>
       </c>
       <c r="J411">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K411">
-        <v>2073</v>
+        <v>2210</v>
       </c>
       <c r="L411">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0.1</v>
       </c>
       <c r="J412">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="K412">
-        <v>2595</v>
+        <v>2799</v>
       </c>
       <c r="L412">
         <v>0</v>
@@ -28038,10 +28038,10 @@
         <v>0</v>
       </c>
       <c r="J413">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K413">
-        <v>2529</v>
+        <v>2659</v>
       </c>
       <c r="L413">
         <v>0</v>
@@ -28100,7 +28100,7 @@
         <v>0</v>
       </c>
       <c r="K414">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L414">
         <v>0</v>
@@ -28156,10 +28156,10 @@
         <v>2.5</v>
       </c>
       <c r="J415">
-        <v>6154</v>
+        <v>6524</v>
       </c>
       <c r="K415">
-        <v>20376</v>
+        <v>22216</v>
       </c>
       <c r="L415">
         <v>0</v>
@@ -28212,13 +28212,13 @@
         <v>5.9</v>
       </c>
       <c r="I416">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J416">
-        <v>9747</v>
+        <v>10360</v>
       </c>
       <c r="K416">
-        <v>55077</v>
+        <v>59911</v>
       </c>
       <c r="L416">
         <v>2</v>
@@ -28274,10 +28274,10 @@
         <v>0.9</v>
       </c>
       <c r="J417">
-        <v>3744</v>
+        <v>4092</v>
       </c>
       <c r="K417">
-        <v>27732</v>
+        <v>29396</v>
       </c>
       <c r="L417">
         <v>0</v>
@@ -28330,13 +28330,13 @@
         <v>7.5</v>
       </c>
       <c r="I418">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J418">
-        <v>63579</v>
+        <v>66722</v>
       </c>
       <c r="K418">
-        <v>101559</v>
+        <v>116621</v>
       </c>
       <c r="L418">
         <v>8</v>
@@ -28389,13 +28389,13 @@
         <v>5</v>
       </c>
       <c r="I419">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="J419">
-        <v>359448</v>
+        <v>385393</v>
       </c>
       <c r="K419">
-        <v>210042</v>
+        <v>249704</v>
       </c>
       <c r="L419">
         <v>14</v>
@@ -28451,10 +28451,10 @@
         <v>1.5</v>
       </c>
       <c r="J420">
-        <v>40162</v>
+        <v>44003</v>
       </c>
       <c r="K420">
-        <v>16831</v>
+        <v>19386</v>
       </c>
       <c r="L420">
         <v>13</v>
@@ -28510,10 +28510,10 @@
         <v>0.1</v>
       </c>
       <c r="J421">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="K421">
-        <v>6051</v>
+        <v>6938</v>
       </c>
       <c r="L421">
         <v>1</v>
@@ -28569,10 +28569,10 @@
         <v>0.1</v>
       </c>
       <c r="J422">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="K422">
-        <v>4905</v>
+        <v>5110</v>
       </c>
       <c r="L422">
         <v>0</v>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
       <c r="K423">
-        <v>5188</v>
+        <v>5435</v>
       </c>
       <c r="L423">
         <v>0</v>
@@ -28687,10 +28687,10 @@
         <v>0.5</v>
       </c>
       <c r="J424">
-        <v>5943</v>
+        <v>6313</v>
       </c>
       <c r="K424">
-        <v>8912</v>
+        <v>9833</v>
       </c>
       <c r="L424">
         <v>0</v>
@@ -28746,10 +28746,10 @@
         <v>0.1</v>
       </c>
       <c r="J425">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K425">
-        <v>1703</v>
+        <v>1853</v>
       </c>
       <c r="L425">
         <v>0</v>
@@ -28805,10 +28805,10 @@
         <v>0</v>
       </c>
       <c r="J426">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K426">
-        <v>1992</v>
+        <v>2142</v>
       </c>
       <c r="L426">
         <v>0</v>
@@ -28861,13 +28861,13 @@
         <v>4.5</v>
       </c>
       <c r="I427">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J427">
-        <v>36992</v>
+        <v>39777</v>
       </c>
       <c r="K427">
-        <v>104057</v>
+        <v>114741</v>
       </c>
       <c r="L427">
         <v>2</v>
@@ -28920,13 +28920,13 @@
         <v>4.6</v>
       </c>
       <c r="I428">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="J428">
-        <v>446507</v>
+        <v>482608</v>
       </c>
       <c r="K428">
-        <v>68420</v>
+        <v>79787</v>
       </c>
       <c r="L428">
         <v>20</v>
@@ -28979,13 +28979,13 @@
         <v>5</v>
       </c>
       <c r="I429">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="J429">
-        <v>21092</v>
+        <v>21138</v>
       </c>
       <c r="K429">
-        <v>45379</v>
+        <v>53210</v>
       </c>
       <c r="L429">
         <v>8</v>
@@ -29038,13 +29038,13 @@
         <v>6.5</v>
       </c>
       <c r="I430">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J430">
-        <v>74208</v>
+        <v>77776</v>
       </c>
       <c r="K430">
-        <v>177800</v>
+        <v>200968</v>
       </c>
       <c r="L430">
         <v>5</v>
@@ -29100,10 +29100,10 @@
         <v>1.3</v>
       </c>
       <c r="J431">
-        <v>35337</v>
+        <v>37318</v>
       </c>
       <c r="K431">
-        <v>36103</v>
+        <v>40643</v>
       </c>
       <c r="L431">
         <v>6</v>
@@ -29159,10 +29159,10 @@
         <v>1</v>
       </c>
       <c r="J432">
-        <v>13521</v>
+        <v>14456</v>
       </c>
       <c r="K432">
-        <v>18896</v>
+        <v>20837</v>
       </c>
       <c r="L432">
         <v>2</v>
@@ -29218,10 +29218,10 @@
         <v>0.8</v>
       </c>
       <c r="J433">
-        <v>28052</v>
+        <v>28660</v>
       </c>
       <c r="K433">
-        <v>17972</v>
+        <v>20508</v>
       </c>
       <c r="L433">
         <v>8</v>
@@ -29277,10 +29277,10 @@
         <v>0</v>
       </c>
       <c r="J434">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K434">
-        <v>1354</v>
+        <v>1432</v>
       </c>
       <c r="L434">
         <v>0</v>
@@ -29336,10 +29336,10 @@
         <v>0.6</v>
       </c>
       <c r="J435">
-        <v>13721</v>
+        <v>14372</v>
       </c>
       <c r="K435">
-        <v>12312</v>
+        <v>13987</v>
       </c>
       <c r="L435">
         <v>6</v>
@@ -29392,13 +29392,13 @@
         <v>6</v>
       </c>
       <c r="I436">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J436">
-        <v>76076</v>
+        <v>79373</v>
       </c>
       <c r="K436">
-        <v>208713</v>
+        <v>238305</v>
       </c>
       <c r="L436">
         <v>6</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K437">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L437">
         <v>0</v>
@@ -29513,10 +29513,10 @@
         <v>5.1</v>
       </c>
       <c r="J438">
-        <v>88786</v>
+        <v>95686</v>
       </c>
       <c r="K438">
-        <v>46286</v>
+        <v>52934</v>
       </c>
       <c r="L438">
         <v>16</v>
@@ -29572,10 +29572,10 @@
         <v>2.1</v>
       </c>
       <c r="J439">
-        <v>19236</v>
+        <v>20959</v>
       </c>
       <c r="K439">
-        <v>38455</v>
+        <v>41077</v>
       </c>
       <c r="L439">
         <v>8</v>
@@ -29631,10 +29631,10 @@
         <v>0.2</v>
       </c>
       <c r="J440">
-        <v>5336</v>
+        <v>5712</v>
       </c>
       <c r="K440">
-        <v>4486</v>
+        <v>4944</v>
       </c>
       <c r="L440">
         <v>0</v>
@@ -29687,13 +29687,13 @@
         <v>4</v>
       </c>
       <c r="I441">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="J441">
-        <v>312981</v>
+        <v>365870</v>
       </c>
       <c r="K441">
-        <v>158942</v>
+        <v>175881</v>
       </c>
       <c r="L441">
         <v>7</v>
@@ -29749,10 +29749,10 @@
         <v>0.2</v>
       </c>
       <c r="J442">
-        <v>2158</v>
+        <v>2331</v>
       </c>
       <c r="K442">
-        <v>5912</v>
+        <v>6439</v>
       </c>
       <c r="L442">
         <v>0</v>
@@ -29808,10 +29808,10 @@
         <v>0.1</v>
       </c>
       <c r="J443">
-        <v>598</v>
+        <v>694</v>
       </c>
       <c r="K443">
-        <v>5173</v>
+        <v>5405</v>
       </c>
       <c r="L443">
         <v>1</v>
@@ -29864,13 +29864,13 @@
         <v>4.5</v>
       </c>
       <c r="I444">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="J444">
-        <v>92681</v>
+        <v>102097</v>
       </c>
       <c r="K444">
-        <v>188076</v>
+        <v>203524</v>
       </c>
       <c r="L444">
         <v>0</v>
@@ -29923,13 +29923,13 @@
         <v>4.5</v>
       </c>
       <c r="I445">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J445">
-        <v>19928</v>
+        <v>20074</v>
       </c>
       <c r="K445">
-        <v>34875</v>
+        <v>40262</v>
       </c>
       <c r="L445">
         <v>2</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="K446">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L446">
         <v>0</v>
@@ -30044,10 +30044,10 @@
         <v>0.4</v>
       </c>
       <c r="J447">
-        <v>4596</v>
+        <v>5075</v>
       </c>
       <c r="K447">
-        <v>10416</v>
+        <v>11356</v>
       </c>
       <c r="L447">
         <v>1</v>
@@ -30106,7 +30106,7 @@
         <v>313</v>
       </c>
       <c r="K448">
-        <v>2300</v>
+        <v>2616</v>
       </c>
       <c r="L448">
         <v>0</v>
@@ -30162,10 +30162,10 @@
         <v>0.1</v>
       </c>
       <c r="J449">
-        <v>1000</v>
+        <v>1198</v>
       </c>
       <c r="K449">
-        <v>2537</v>
+        <v>2635</v>
       </c>
       <c r="L449">
         <v>6</v>
@@ -30224,7 +30224,7 @@
         <v>0</v>
       </c>
       <c r="K450">
-        <v>7555</v>
+        <v>7959</v>
       </c>
       <c r="L450">
         <v>0</v>
@@ -30280,10 +30280,10 @@
         <v>0</v>
       </c>
       <c r="J451">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K451">
-        <v>1515</v>
+        <v>1627</v>
       </c>
       <c r="L451">
         <v>0</v>
@@ -30304,7 +30304,7 @@
         <v>0</v>
       </c>
       <c r="R451" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="S451" t="s">
         <v>1084</v>
@@ -30339,10 +30339,10 @@
         <v>0.1</v>
       </c>
       <c r="J452">
-        <v>1638</v>
+        <v>1992</v>
       </c>
       <c r="K452">
-        <v>1992</v>
+        <v>2158</v>
       </c>
       <c r="L452">
         <v>7</v>
@@ -30401,7 +30401,7 @@
         <v>0</v>
       </c>
       <c r="K453">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="L453">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="K454">
-        <v>1058</v>
+        <v>1091</v>
       </c>
       <c r="L454">
         <v>0</v>
@@ -30516,10 +30516,10 @@
         <v>1.6</v>
       </c>
       <c r="J455">
-        <v>37060</v>
+        <v>39587</v>
       </c>
       <c r="K455">
-        <v>43540</v>
+        <v>47459</v>
       </c>
       <c r="L455">
         <v>2</v>
@@ -30578,7 +30578,7 @@
         <v>26</v>
       </c>
       <c r="K456">
-        <v>1843</v>
+        <v>1964</v>
       </c>
       <c r="L456">
         <v>0</v>
@@ -30634,10 +30634,10 @@
         <v>0</v>
       </c>
       <c r="J457">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="K457">
-        <v>1103</v>
+        <v>1180</v>
       </c>
       <c r="L457">
         <v>0</v>
@@ -30693,10 +30693,10 @@
         <v>1.6</v>
       </c>
       <c r="J458">
-        <v>13345</v>
+        <v>14665</v>
       </c>
       <c r="K458">
-        <v>48231</v>
+        <v>52666</v>
       </c>
       <c r="L458">
         <v>3</v>
@@ -30743,19 +30743,19 @@
         <v>1076</v>
       </c>
       <c r="G459">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H459">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I459">
         <v>0</v>
       </c>
       <c r="J459">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K459">
-        <v>812</v>
+        <v>903</v>
       </c>
       <c r="L459">
         <v>1</v>
@@ -30814,7 +30814,7 @@
         <v>601</v>
       </c>
       <c r="K460">
-        <v>3345</v>
+        <v>3701</v>
       </c>
       <c r="L460">
         <v>0</v>
@@ -30867,13 +30867,13 @@
         <v>5.9</v>
       </c>
       <c r="I461">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J461">
-        <v>45422</v>
+        <v>56829</v>
       </c>
       <c r="K461">
-        <v>30864</v>
+        <v>33586</v>
       </c>
       <c r="L461">
         <v>9</v>
@@ -30926,13 +30926,13 @@
         <v>4.5</v>
       </c>
       <c r="I462">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J462">
-        <v>168349</v>
+        <v>203291</v>
       </c>
       <c r="K462">
-        <v>43570</v>
+        <v>49638</v>
       </c>
       <c r="L462">
         <v>17</v>
@@ -30988,10 +30988,10 @@
         <v>0.1</v>
       </c>
       <c r="J463">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="K463">
-        <v>1868</v>
+        <v>2001</v>
       </c>
       <c r="L463">
         <v>0</v>
@@ -31047,10 +31047,10 @@
         <v>0.1</v>
       </c>
       <c r="J464">
-        <v>1558</v>
+        <v>1609</v>
       </c>
       <c r="K464">
-        <v>3649</v>
+        <v>4054</v>
       </c>
       <c r="L464">
         <v>7</v>
@@ -31106,10 +31106,10 @@
         <v>0</v>
       </c>
       <c r="J465">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K465">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="L465">
         <v>0</v>
@@ -31162,13 +31162,13 @@
         <v>4</v>
       </c>
       <c r="I466">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J466">
-        <v>8008</v>
+        <v>8718</v>
       </c>
       <c r="K466">
-        <v>18161</v>
+        <v>19993</v>
       </c>
       <c r="L466">
         <v>0</v>
@@ -31224,10 +31224,10 @@
         <v>0.1</v>
       </c>
       <c r="J467">
-        <v>3246</v>
+        <v>4460</v>
       </c>
       <c r="K467">
-        <v>1552</v>
+        <v>1771</v>
       </c>
       <c r="L467">
         <v>8</v>
@@ -31283,10 +31283,10 @@
         <v>0.1</v>
       </c>
       <c r="J468">
-        <v>1374</v>
+        <v>1602</v>
       </c>
       <c r="K468">
-        <v>1040</v>
+        <v>1182</v>
       </c>
       <c r="L468">
         <v>4</v>
@@ -31342,10 +31342,10 @@
         <v>5</v>
       </c>
       <c r="J469">
-        <v>53959</v>
+        <v>63444</v>
       </c>
       <c r="K469">
-        <v>112904</v>
+        <v>121270</v>
       </c>
       <c r="L469">
         <v>8</v>
@@ -31401,10 +31401,10 @@
         <v>0</v>
       </c>
       <c r="J470">
-        <v>847</v>
+        <v>971</v>
       </c>
       <c r="K470">
-        <v>903</v>
+        <v>994</v>
       </c>
       <c r="L470">
         <v>4</v>
@@ -31460,10 +31460,10 @@
         <v>0</v>
       </c>
       <c r="J471">
-        <v>782</v>
+        <v>852</v>
       </c>
       <c r="K471">
-        <v>957</v>
+        <v>1056</v>
       </c>
       <c r="L471">
         <v>0</v>
@@ -31519,10 +31519,10 @@
         <v>0</v>
       </c>
       <c r="J472">
-        <v>494</v>
+        <v>635</v>
       </c>
       <c r="K472">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="L472">
         <v>0</v>
@@ -31578,10 +31578,10 @@
         <v>0</v>
       </c>
       <c r="J473">
-        <v>2238</v>
+        <v>2966</v>
       </c>
       <c r="K473">
-        <v>401</v>
+        <v>583</v>
       </c>
       <c r="L473">
         <v>0</v>
@@ -31637,10 +31637,10 @@
         <v>0.1</v>
       </c>
       <c r="J474">
-        <v>7686</v>
+        <v>11099</v>
       </c>
       <c r="K474">
-        <v>1268</v>
+        <v>2087</v>
       </c>
       <c r="L474">
         <v>0</v>
@@ -31696,10 +31696,10 @@
         <v>0.6</v>
       </c>
       <c r="J475">
-        <v>39368</v>
+        <v>43989</v>
       </c>
       <c r="K475">
-        <v>13572</v>
+        <v>15829</v>
       </c>
       <c r="L475">
         <v>4</v>
@@ -31755,10 +31755,10 @@
         <v>0</v>
       </c>
       <c r="J476">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="K476">
-        <v>1107</v>
+        <v>1156</v>
       </c>
       <c r="L476">
         <v>0</v>
@@ -31814,10 +31814,10 @@
         <v>0.3</v>
       </c>
       <c r="J477">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="K477">
-        <v>4341</v>
+        <v>4743</v>
       </c>
       <c r="L477">
         <v>0</v>
@@ -31873,10 +31873,10 @@
         <v>0.1</v>
       </c>
       <c r="J478">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="K478">
-        <v>2332</v>
+        <v>2587</v>
       </c>
       <c r="L478">
         <v>2</v>
@@ -31923,19 +31923,19 @@
         <v>1076</v>
       </c>
       <c r="G479">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H479">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I479">
         <v>0.1</v>
       </c>
       <c r="J479">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="K479">
-        <v>1624</v>
+        <v>1786</v>
       </c>
       <c r="L479">
         <v>1</v>
@@ -31991,10 +31991,10 @@
         <v>0.1</v>
       </c>
       <c r="J480">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K480">
-        <v>978</v>
+        <v>1044</v>
       </c>
       <c r="L480">
         <v>1</v>
@@ -32050,10 +32050,10 @@
         <v>0.1</v>
       </c>
       <c r="J481">
-        <v>1681</v>
+        <v>1836</v>
       </c>
       <c r="K481">
-        <v>2618</v>
+        <v>2889</v>
       </c>
       <c r="L481">
         <v>3</v>
@@ -32109,10 +32109,10 @@
         <v>0.1</v>
       </c>
       <c r="J482">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="K482">
-        <v>2293</v>
+        <v>2456</v>
       </c>
       <c r="L482">
         <v>2</v>
@@ -32165,13 +32165,13 @@
         <v>6.5</v>
       </c>
       <c r="I483">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="J483">
-        <v>238642</v>
+        <v>249464</v>
       </c>
       <c r="K483">
-        <v>130564</v>
+        <v>147470</v>
       </c>
       <c r="L483">
         <v>11</v>
@@ -32224,13 +32224,13 @@
         <v>5.5</v>
       </c>
       <c r="I484">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J484">
-        <v>26247</v>
+        <v>29267</v>
       </c>
       <c r="K484">
-        <v>20405</v>
+        <v>22577</v>
       </c>
       <c r="L484">
         <v>5</v>
@@ -32286,10 +32286,10 @@
         <v>1.3</v>
       </c>
       <c r="J485">
-        <v>17395</v>
+        <v>19047</v>
       </c>
       <c r="K485">
-        <v>14502</v>
+        <v>15692</v>
       </c>
       <c r="L485">
         <v>7</v>
@@ -32345,10 +32345,10 @@
         <v>0.4</v>
       </c>
       <c r="J486">
-        <v>1831</v>
+        <v>1938</v>
       </c>
       <c r="K486">
-        <v>7675</v>
+        <v>8402</v>
       </c>
       <c r="L486">
         <v>1</v>
@@ -32401,13 +32401,13 @@
         <v>6.4</v>
       </c>
       <c r="I487">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J487">
-        <v>4960</v>
+        <v>5386</v>
       </c>
       <c r="K487">
-        <v>23328</v>
+        <v>24943</v>
       </c>
       <c r="L487">
         <v>2</v>
@@ -32466,7 +32466,7 @@
         <v>13</v>
       </c>
       <c r="K488">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L488">
         <v>0</v>
@@ -32522,10 +32522,10 @@
         <v>0</v>
       </c>
       <c r="J489">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K489">
-        <v>1059</v>
+        <v>1117</v>
       </c>
       <c r="L489">
         <v>0</v>
@@ -32581,10 +32581,10 @@
         <v>0.9</v>
       </c>
       <c r="J490">
-        <v>12869</v>
+        <v>13635</v>
       </c>
       <c r="K490">
-        <v>12510</v>
+        <v>13731</v>
       </c>
       <c r="L490">
         <v>0</v>
@@ -32643,7 +32643,7 @@
         <v>0</v>
       </c>
       <c r="K491">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="L491">
         <v>0</v>
@@ -32696,13 +32696,13 @@
         <v>4.5</v>
       </c>
       <c r="I492">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J492">
-        <v>4498</v>
+        <v>4832</v>
       </c>
       <c r="K492">
-        <v>12441</v>
+        <v>13687</v>
       </c>
       <c r="L492">
         <v>1</v>
@@ -32755,13 +32755,13 @@
         <v>4.5</v>
       </c>
       <c r="I493">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J493">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K493">
-        <v>919</v>
+        <v>1202</v>
       </c>
       <c r="L493">
         <v>1</v>
@@ -32782,7 +32782,7 @@
         <v>0</v>
       </c>
       <c r="R493" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="S493" t="s">
         <v>1089</v>
@@ -32817,10 +32817,10 @@
         <v>0.2</v>
       </c>
       <c r="J494">
-        <v>10068</v>
+        <v>10483</v>
       </c>
       <c r="K494">
-        <v>3962</v>
+        <v>4440</v>
       </c>
       <c r="L494">
         <v>7</v>
@@ -32876,10 +32876,10 @@
         <v>0</v>
       </c>
       <c r="J495">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K495">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="L495">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0.2</v>
       </c>
       <c r="J496">
-        <v>1248</v>
+        <v>1395</v>
       </c>
       <c r="K496">
-        <v>4549</v>
+        <v>4870</v>
       </c>
       <c r="L496">
         <v>-2</v>
@@ -32994,10 +32994,10 @@
         <v>0.3</v>
       </c>
       <c r="J497">
-        <v>1421</v>
+        <v>1534</v>
       </c>
       <c r="K497">
-        <v>2476</v>
+        <v>2675</v>
       </c>
       <c r="L497">
         <v>0</v>
@@ -33053,10 +33053,10 @@
         <v>0.7</v>
       </c>
       <c r="J498">
-        <v>3904</v>
+        <v>4091</v>
       </c>
       <c r="K498">
-        <v>7416</v>
+        <v>8056</v>
       </c>
       <c r="L498">
         <v>3</v>
@@ -33112,10 +33112,10 @@
         <v>0.1</v>
       </c>
       <c r="J499">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="K499">
-        <v>1244</v>
+        <v>1350</v>
       </c>
       <c r="L499">
         <v>1</v>
@@ -33171,10 +33171,10 @@
         <v>1.2</v>
       </c>
       <c r="J500">
-        <v>4500</v>
+        <v>4791</v>
       </c>
       <c r="K500">
-        <v>7563</v>
+        <v>8280</v>
       </c>
       <c r="L500">
         <v>0</v>
@@ -33230,10 +33230,10 @@
         <v>0.8</v>
       </c>
       <c r="J501">
-        <v>20745</v>
+        <v>23186</v>
       </c>
       <c r="K501">
-        <v>10609</v>
+        <v>11624</v>
       </c>
       <c r="L501">
         <v>9</v>
@@ -33289,10 +33289,10 @@
         <v>0.1</v>
       </c>
       <c r="J502">
-        <v>3748</v>
+        <v>4388</v>
       </c>
       <c r="K502">
-        <v>2639</v>
+        <v>2913</v>
       </c>
       <c r="L502">
         <v>4</v>
@@ -33348,10 +33348,10 @@
         <v>4.4</v>
       </c>
       <c r="J503">
-        <v>27951</v>
+        <v>32180</v>
       </c>
       <c r="K503">
-        <v>69313</v>
+        <v>74904</v>
       </c>
       <c r="L503">
         <v>3</v>
@@ -33407,10 +33407,10 @@
         <v>5.7</v>
       </c>
       <c r="J504">
-        <v>13918</v>
+        <v>14932</v>
       </c>
       <c r="K504">
-        <v>44274</v>
+        <v>48275</v>
       </c>
       <c r="L504">
         <v>0</v>
@@ -33466,10 +33466,10 @@
         <v>17.2</v>
       </c>
       <c r="J505">
-        <v>124070</v>
+        <v>149981</v>
       </c>
       <c r="K505">
-        <v>993461</v>
+        <v>1016117</v>
       </c>
       <c r="L505">
         <v>10</v>
@@ -33516,19 +33516,19 @@
         <v>1076</v>
       </c>
       <c r="G506">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H506">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="I506">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="J506">
-        <v>79992</v>
+        <v>92996</v>
       </c>
       <c r="K506">
-        <v>469825</v>
+        <v>507672</v>
       </c>
       <c r="L506">
         <v>7</v>
@@ -33575,19 +33575,19 @@
         <v>1075</v>
       </c>
       <c r="G507">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="H507">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I507">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J507">
-        <v>3214</v>
+        <v>3660</v>
       </c>
       <c r="K507">
-        <v>29770</v>
+        <v>32731</v>
       </c>
       <c r="L507">
         <v>1</v>
@@ -33640,13 +33640,13 @@
         <v>5</v>
       </c>
       <c r="I508">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J508">
-        <v>95678</v>
+        <v>106809</v>
       </c>
       <c r="K508">
-        <v>54684</v>
+        <v>61136</v>
       </c>
       <c r="L508">
         <v>9</v>
@@ -33699,13 +33699,13 @@
         <v>5.9</v>
       </c>
       <c r="I509">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J509">
-        <v>4771</v>
+        <v>5230</v>
       </c>
       <c r="K509">
-        <v>12002</v>
+        <v>12888</v>
       </c>
       <c r="L509">
         <v>2</v>
@@ -33761,10 +33761,10 @@
         <v>0.9</v>
       </c>
       <c r="J510">
-        <v>10989</v>
+        <v>13360</v>
       </c>
       <c r="K510">
-        <v>11532</v>
+        <v>12798</v>
       </c>
       <c r="L510">
         <v>6</v>
@@ -33817,13 +33817,13 @@
         <v>5.5</v>
       </c>
       <c r="I511">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J511">
-        <v>54966</v>
+        <v>68479</v>
       </c>
       <c r="K511">
-        <v>22199</v>
+        <v>25015</v>
       </c>
       <c r="L511">
         <v>12</v>
@@ -33879,10 +33879,10 @@
         <v>2.2</v>
       </c>
       <c r="J512">
-        <v>40341</v>
+        <v>43163</v>
       </c>
       <c r="K512">
-        <v>45953</v>
+        <v>50063</v>
       </c>
       <c r="L512">
         <v>0</v>
@@ -33938,10 +33938,10 @@
         <v>0.6</v>
       </c>
       <c r="J513">
-        <v>3950</v>
+        <v>5132</v>
       </c>
       <c r="K513">
-        <v>21049</v>
+        <v>22750</v>
       </c>
       <c r="L513">
         <v>0</v>
@@ -33994,13 +33994,13 @@
         <v>4.5</v>
       </c>
       <c r="I514">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J514">
-        <v>151489</v>
+        <v>162256</v>
       </c>
       <c r="K514">
-        <v>39276</v>
+        <v>44442</v>
       </c>
       <c r="L514">
         <v>8</v>
@@ -34059,7 +34059,7 @@
         <v>0</v>
       </c>
       <c r="K515">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L515">
         <v>0</v>
@@ -34112,13 +34112,13 @@
         <v>4.4</v>
       </c>
       <c r="I516">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J516">
-        <v>9821</v>
+        <v>10315</v>
       </c>
       <c r="K516">
-        <v>75562</v>
+        <v>81468</v>
       </c>
       <c r="L516">
         <v>0</v>
@@ -34171,13 +34171,13 @@
         <v>4</v>
       </c>
       <c r="I517">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J517">
-        <v>26476</v>
+        <v>28318</v>
       </c>
       <c r="K517">
-        <v>58428</v>
+        <v>63870</v>
       </c>
       <c r="L517">
         <v>0</v>
@@ -34233,10 +34233,10 @@
         <v>0.4</v>
       </c>
       <c r="J518">
-        <v>9586</v>
+        <v>10446</v>
       </c>
       <c r="K518">
-        <v>12123</v>
+        <v>13179</v>
       </c>
       <c r="L518">
         <v>3</v>
@@ -34292,10 +34292,10 @@
         <v>0.1</v>
       </c>
       <c r="J519">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="K519">
-        <v>3918</v>
+        <v>4124</v>
       </c>
       <c r="L519">
         <v>0</v>
@@ -34354,7 +34354,7 @@
         <v>0</v>
       </c>
       <c r="K520">
-        <v>3612</v>
+        <v>3798</v>
       </c>
       <c r="L520">
         <v>0</v>
@@ -34407,13 +34407,13 @@
         <v>5</v>
       </c>
       <c r="I521">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="J521">
-        <v>29112</v>
+        <v>29283</v>
       </c>
       <c r="K521">
-        <v>53058</v>
+        <v>77018</v>
       </c>
       <c r="L521">
         <v>3</v>
@@ -34434,7 +34434,7 @@
         <v>0</v>
       </c>
       <c r="R521" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="S521" t="s">
         <v>1098</v>
@@ -34469,10 +34469,10 @@
         <v>0.6</v>
       </c>
       <c r="J522">
-        <v>11228</v>
+        <v>12252</v>
       </c>
       <c r="K522">
-        <v>18528</v>
+        <v>19994</v>
       </c>
       <c r="L522">
         <v>1</v>
@@ -34525,13 +34525,13 @@
         <v>5</v>
       </c>
       <c r="I523">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J523">
-        <v>151637</v>
+        <v>167912</v>
       </c>
       <c r="K523">
-        <v>48503</v>
+        <v>55378</v>
       </c>
       <c r="L523">
         <v>10</v>
@@ -34578,19 +34578,19 @@
         <v>1076</v>
       </c>
       <c r="G524">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H524">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I524">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="J524">
-        <v>705330</v>
+        <v>779899</v>
       </c>
       <c r="K524">
-        <v>163795</v>
+        <v>185054</v>
       </c>
       <c r="L524">
         <v>15</v>
@@ -34649,7 +34649,7 @@
         <v>0</v>
       </c>
       <c r="K525">
-        <v>2946</v>
+        <v>3075</v>
       </c>
       <c r="L525">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>5.4</v>
       </c>
       <c r="I526">
-        <v>17.3</v>
+        <v>16.9</v>
       </c>
       <c r="J526">
-        <v>84879</v>
+        <v>96454</v>
       </c>
       <c r="K526">
-        <v>587804</v>
+        <v>627740</v>
       </c>
       <c r="L526">
         <v>5</v>
@@ -34764,10 +34764,10 @@
         <v>0.4</v>
       </c>
       <c r="J527">
-        <v>9740</v>
+        <v>10352</v>
       </c>
       <c r="K527">
-        <v>10195</v>
+        <v>11049</v>
       </c>
       <c r="L527">
         <v>0</v>
@@ -34823,10 +34823,10 @@
         <v>0.5</v>
       </c>
       <c r="J528">
-        <v>8244</v>
+        <v>8771</v>
       </c>
       <c r="K528">
-        <v>13347</v>
+        <v>14448</v>
       </c>
       <c r="L528">
         <v>0</v>
@@ -34882,10 +34882,10 @@
         <v>0.4</v>
       </c>
       <c r="J529">
-        <v>2207</v>
+        <v>2353</v>
       </c>
       <c r="K529">
-        <v>3005</v>
+        <v>3265</v>
       </c>
       <c r="L529">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>0.1</v>
       </c>
       <c r="J530">
-        <v>1655</v>
+        <v>1750</v>
       </c>
       <c r="K530">
-        <v>2335</v>
+        <v>2528</v>
       </c>
       <c r="L530">
         <v>0</v>
@@ -35003,7 +35003,7 @@
         <v>0</v>
       </c>
       <c r="K531">
-        <v>3819</v>
+        <v>4007</v>
       </c>
       <c r="L531">
         <v>0</v>
@@ -35059,10 +35059,10 @@
         <v>0.7</v>
       </c>
       <c r="J532">
-        <v>25652</v>
+        <v>30124</v>
       </c>
       <c r="K532">
-        <v>14204</v>
+        <v>15922</v>
       </c>
       <c r="L532">
         <v>1</v>
@@ -35118,10 +35118,10 @@
         <v>0.3</v>
       </c>
       <c r="J533">
-        <v>1245</v>
+        <v>1658</v>
       </c>
       <c r="K533">
-        <v>19759</v>
+        <v>20581</v>
       </c>
       <c r="L533">
         <v>1</v>
@@ -35142,7 +35142,7 @@
         <v>0</v>
       </c>
       <c r="R533" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="S533" t="s">
         <v>1089</v>
@@ -35177,10 +35177,10 @@
         <v>0.5</v>
       </c>
       <c r="J534">
-        <v>2142</v>
+        <v>2272</v>
       </c>
       <c r="K534">
-        <v>18012</v>
+        <v>19277</v>
       </c>
       <c r="L534">
         <v>0</v>
@@ -35236,10 +35236,10 @@
         <v>0</v>
       </c>
       <c r="J535">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="K535">
-        <v>744</v>
+        <v>799</v>
       </c>
       <c r="L535">
         <v>0</v>
@@ -35295,10 +35295,10 @@
         <v>1.1</v>
       </c>
       <c r="J536">
-        <v>9196</v>
+        <v>10306</v>
       </c>
       <c r="K536">
-        <v>27242</v>
+        <v>28288</v>
       </c>
       <c r="L536">
         <v>4</v>
@@ -35354,10 +35354,10 @@
         <v>0.1</v>
       </c>
       <c r="J537">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="K537">
-        <v>3721</v>
+        <v>3882</v>
       </c>
       <c r="L537">
         <v>0</v>
@@ -35378,7 +35378,7 @@
         <v>0</v>
       </c>
       <c r="R537" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="S537" t="s">
         <v>1084</v>
@@ -35410,13 +35410,13 @@
         <v>5</v>
       </c>
       <c r="I538">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J538">
-        <v>59761</v>
+        <v>62699</v>
       </c>
       <c r="K538">
-        <v>52024</v>
+        <v>57880</v>
       </c>
       <c r="L538">
         <v>3</v>
@@ -35469,13 +35469,13 @@
         <v>7.4</v>
       </c>
       <c r="I539">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J539">
-        <v>44209</v>
+        <v>49006</v>
       </c>
       <c r="K539">
-        <v>163330</v>
+        <v>174150</v>
       </c>
       <c r="L539">
         <v>3</v>
@@ -35531,10 +35531,10 @@
         <v>0.3</v>
       </c>
       <c r="J540">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="K540">
-        <v>14273</v>
+        <v>15371</v>
       </c>
       <c r="L540">
         <v>0</v>
@@ -35590,10 +35590,10 @@
         <v>0.3</v>
       </c>
       <c r="J541">
-        <v>6774</v>
+        <v>7093</v>
       </c>
       <c r="K541">
-        <v>8387</v>
+        <v>9305</v>
       </c>
       <c r="L541">
         <v>2</v>
@@ -35649,10 +35649,10 @@
         <v>1.5</v>
       </c>
       <c r="J542">
-        <v>21866</v>
+        <v>23042</v>
       </c>
       <c r="K542">
-        <v>22940</v>
+        <v>25266</v>
       </c>
       <c r="L542">
         <v>3</v>
@@ -35711,7 +35711,7 @@
         <v>0</v>
       </c>
       <c r="K543">
-        <v>1410</v>
+        <v>1472</v>
       </c>
       <c r="L543">
         <v>0</v>
@@ -35767,10 +35767,10 @@
         <v>1.2</v>
       </c>
       <c r="J544">
-        <v>26149</v>
+        <v>27150</v>
       </c>
       <c r="K544">
-        <v>18044</v>
+        <v>20042</v>
       </c>
       <c r="L544">
         <v>3</v>
@@ -35826,10 +35826,10 @@
         <v>2</v>
       </c>
       <c r="J545">
-        <v>39962</v>
+        <v>46785</v>
       </c>
       <c r="K545">
-        <v>60720</v>
+        <v>66387</v>
       </c>
       <c r="L545">
         <v>3</v>
@@ -35882,13 +35882,13 @@
         <v>8.5</v>
       </c>
       <c r="I546">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J546">
-        <v>64396</v>
+        <v>67093</v>
       </c>
       <c r="K546">
-        <v>162078</v>
+        <v>179813</v>
       </c>
       <c r="L546">
         <v>4</v>
@@ -35947,7 +35947,7 @@
         <v>221</v>
       </c>
       <c r="K547">
-        <v>2127</v>
+        <v>2292</v>
       </c>
       <c r="L547">
         <v>0</v>
@@ -36000,13 +36000,13 @@
         <v>5</v>
       </c>
       <c r="I548">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J548">
-        <v>73271</v>
+        <v>78318</v>
       </c>
       <c r="K548">
-        <v>112192</v>
+        <v>124505</v>
       </c>
       <c r="L548">
         <v>1</v>
@@ -36062,10 +36062,10 @@
         <v>1.6</v>
       </c>
       <c r="J549">
-        <v>13474</v>
+        <v>14589</v>
       </c>
       <c r="K549">
-        <v>28553</v>
+        <v>32054</v>
       </c>
       <c r="L549">
         <v>4</v>
@@ -36121,10 +36121,10 @@
         <v>1.3</v>
       </c>
       <c r="J550">
-        <v>18056</v>
+        <v>18939</v>
       </c>
       <c r="K550">
-        <v>31400</v>
+        <v>34910</v>
       </c>
       <c r="L550">
         <v>4</v>
@@ -36180,10 +36180,10 @@
         <v>0.1</v>
       </c>
       <c r="J551">
-        <v>2190</v>
+        <v>2286</v>
       </c>
       <c r="K551">
-        <v>1990</v>
+        <v>2195</v>
       </c>
       <c r="L551">
         <v>3</v>
@@ -36239,10 +36239,10 @@
         <v>0.1</v>
       </c>
       <c r="J552">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="K552">
-        <v>4347</v>
+        <v>4514</v>
       </c>
       <c r="L552">
         <v>0</v>
@@ -36298,10 +36298,10 @@
         <v>1.5</v>
       </c>
       <c r="J553">
-        <v>22973</v>
+        <v>23617</v>
       </c>
       <c r="K553">
-        <v>29302</v>
+        <v>31977</v>
       </c>
       <c r="L553">
         <v>1</v>
@@ -36357,10 +36357,10 @@
         <v>0.4</v>
       </c>
       <c r="J554">
-        <v>5762</v>
+        <v>6065</v>
       </c>
       <c r="K554">
-        <v>7540</v>
+        <v>8262</v>
       </c>
       <c r="L554">
         <v>1</v>
@@ -36416,10 +36416,10 @@
         <v>0.9</v>
       </c>
       <c r="J555">
-        <v>16048</v>
+        <v>18924</v>
       </c>
       <c r="K555">
-        <v>41944</v>
+        <v>44982</v>
       </c>
       <c r="L555">
         <v>2</v>
@@ -36475,10 +36475,10 @@
         <v>0.3</v>
       </c>
       <c r="J556">
-        <v>9027</v>
+        <v>9791</v>
       </c>
       <c r="K556">
-        <v>5319</v>
+        <v>5928</v>
       </c>
       <c r="L556">
         <v>0</v>
@@ -36534,10 +36534,10 @@
         <v>0.1</v>
       </c>
       <c r="J557">
-        <v>2906</v>
+        <v>3046</v>
       </c>
       <c r="K557">
-        <v>3098</v>
+        <v>3379</v>
       </c>
       <c r="L557">
         <v>1</v>
@@ -36593,10 +36593,10 @@
         <v>0.1</v>
       </c>
       <c r="J558">
-        <v>3997</v>
+        <v>4341</v>
       </c>
       <c r="K558">
-        <v>1000</v>
+        <v>1128</v>
       </c>
       <c r="L558">
         <v>0</v>
@@ -36652,10 +36652,10 @@
         <v>0</v>
       </c>
       <c r="J559">
-        <v>2421</v>
+        <v>2623</v>
       </c>
       <c r="K559">
-        <v>1152</v>
+        <v>1291</v>
       </c>
       <c r="L559">
         <v>0</v>
@@ -36711,10 +36711,10 @@
         <v>0.1</v>
       </c>
       <c r="J560">
-        <v>7489</v>
+        <v>8420</v>
       </c>
       <c r="K560">
-        <v>2454</v>
+        <v>2808</v>
       </c>
       <c r="L560">
         <v>1</v>
@@ -36770,10 +36770,10 @@
         <v>0</v>
       </c>
       <c r="J561">
-        <v>134</v>
+        <v>689</v>
       </c>
       <c r="K561">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="L561">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0.3</v>
       </c>
       <c r="J562">
-        <v>1831</v>
+        <v>1963</v>
       </c>
       <c r="K562">
-        <v>7348</v>
+        <v>7975</v>
       </c>
       <c r="L562">
         <v>0</v>
@@ -36888,10 +36888,10 @@
         <v>0.2</v>
       </c>
       <c r="J563">
-        <v>817</v>
+        <v>906</v>
       </c>
       <c r="K563">
-        <v>14116</v>
+        <v>14741</v>
       </c>
       <c r="L563">
         <v>0</v>
@@ -36912,7 +36912,7 @@
         <v>0</v>
       </c>
       <c r="R563" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="S563" t="s">
         <v>1084</v>
@@ -36947,10 +36947,10 @@
         <v>0.6</v>
       </c>
       <c r="J564">
-        <v>4644</v>
+        <v>4986</v>
       </c>
       <c r="K564">
-        <v>10677</v>
+        <v>11949</v>
       </c>
       <c r="L564">
         <v>7</v>
@@ -37006,10 +37006,10 @@
         <v>4.2</v>
       </c>
       <c r="J565">
-        <v>54715</v>
+        <v>61668</v>
       </c>
       <c r="K565">
-        <v>51980</v>
+        <v>56545</v>
       </c>
       <c r="L565">
         <v>17</v>
@@ -37065,10 +37065,10 @@
         <v>0.2</v>
       </c>
       <c r="J566">
-        <v>3259</v>
+        <v>3546</v>
       </c>
       <c r="K566">
-        <v>3471</v>
+        <v>3874</v>
       </c>
       <c r="L566">
         <v>5</v>
@@ -37121,13 +37121,13 @@
         <v>5.5</v>
       </c>
       <c r="I567">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J567">
-        <v>26500</v>
+        <v>27851</v>
       </c>
       <c r="K567">
-        <v>34202</v>
+        <v>38220</v>
       </c>
       <c r="L567">
         <v>6</v>
@@ -37183,10 +37183,10 @@
         <v>0.5</v>
       </c>
       <c r="J568">
-        <v>19123</v>
+        <v>19658</v>
       </c>
       <c r="K568">
-        <v>16646</v>
+        <v>18626</v>
       </c>
       <c r="L568">
         <v>6</v>
@@ -37242,10 +37242,10 @@
         <v>0.1</v>
       </c>
       <c r="J569">
-        <v>1367</v>
+        <v>1696</v>
       </c>
       <c r="K569">
-        <v>968</v>
+        <v>1065</v>
       </c>
       <c r="L569">
         <v>1</v>
@@ -37301,10 +37301,10 @@
         <v>2</v>
       </c>
       <c r="J570">
-        <v>123612</v>
+        <v>127745</v>
       </c>
       <c r="K570">
-        <v>51152</v>
+        <v>57819</v>
       </c>
       <c r="L570">
         <v>12</v>
@@ -37360,10 +37360,10 @@
         <v>0.8</v>
       </c>
       <c r="J571">
-        <v>6220</v>
+        <v>6963</v>
       </c>
       <c r="K571">
-        <v>11259</v>
+        <v>12275</v>
       </c>
       <c r="L571">
         <v>8</v>
@@ -37419,10 +37419,10 @@
         <v>0.4</v>
       </c>
       <c r="J572">
-        <v>3718</v>
+        <v>3901</v>
       </c>
       <c r="K572">
-        <v>8706</v>
+        <v>9356</v>
       </c>
       <c r="L572">
         <v>0</v>
@@ -37475,13 +37475,13 @@
         <v>5.5</v>
       </c>
       <c r="I573">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="J573">
-        <v>90082</v>
+        <v>95472</v>
       </c>
       <c r="K573">
-        <v>298629</v>
+        <v>349078</v>
       </c>
       <c r="L573">
         <v>5</v>
@@ -37537,10 +37537,10 @@
         <v>1.7</v>
       </c>
       <c r="J574">
-        <v>19057</v>
+        <v>20944</v>
       </c>
       <c r="K574">
-        <v>35749</v>
+        <v>39135</v>
       </c>
       <c r="L574">
         <v>5</v>
@@ -37599,7 +37599,7 @@
         <v>0</v>
       </c>
       <c r="K575">
-        <v>1974</v>
+        <v>2054</v>
       </c>
       <c r="L575">
         <v>0</v>
@@ -37655,10 +37655,10 @@
         <v>0.9</v>
       </c>
       <c r="J576">
-        <v>10901</v>
+        <v>11806</v>
       </c>
       <c r="K576">
-        <v>13803</v>
+        <v>15043</v>
       </c>
       <c r="L576">
         <v>0</v>
@@ -37714,10 +37714,10 @@
         <v>0</v>
       </c>
       <c r="J577">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K577">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L577">
         <v>0</v>
@@ -37773,10 +37773,10 @@
         <v>0.1</v>
       </c>
       <c r="J578">
-        <v>2400</v>
+        <v>2776</v>
       </c>
       <c r="K578">
-        <v>6983</v>
+        <v>7238</v>
       </c>
       <c r="L578">
         <v>1</v>
@@ -37832,10 +37832,10 @@
         <v>2.2</v>
       </c>
       <c r="J579">
-        <v>8386</v>
+        <v>9174</v>
       </c>
       <c r="K579">
-        <v>14249</v>
+        <v>15578</v>
       </c>
       <c r="L579">
         <v>0</v>
@@ -37891,10 +37891,10 @@
         <v>0.2</v>
       </c>
       <c r="J580">
-        <v>1544</v>
+        <v>2582</v>
       </c>
       <c r="K580">
-        <v>3389</v>
+        <v>4143</v>
       </c>
       <c r="L580">
         <v>4</v>
@@ -37950,10 +37950,10 @@
         <v>0.9</v>
       </c>
       <c r="J581">
-        <v>4615</v>
+        <v>5036</v>
       </c>
       <c r="K581">
-        <v>11435</v>
+        <v>12510</v>
       </c>
       <c r="L581">
         <v>0</v>
@@ -38006,13 +38006,13 @@
         <v>4.9</v>
       </c>
       <c r="I582">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J582">
-        <v>1356</v>
+        <v>1387</v>
       </c>
       <c r="K582">
-        <v>93307</v>
+        <v>99501</v>
       </c>
       <c r="L582">
         <v>0</v>
@@ -38033,7 +38033,7 @@
         <v>0</v>
       </c>
       <c r="R582" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="S582" t="s">
         <v>1084</v>
@@ -38068,10 +38068,10 @@
         <v>0.4</v>
       </c>
       <c r="J583">
-        <v>9329</v>
+        <v>10946</v>
       </c>
       <c r="K583">
-        <v>4359</v>
+        <v>4994</v>
       </c>
       <c r="L583">
         <v>9</v>
@@ -38127,10 +38127,10 @@
         <v>0.8</v>
       </c>
       <c r="J584">
-        <v>11185</v>
+        <v>12195</v>
       </c>
       <c r="K584">
-        <v>6035</v>
+        <v>6633</v>
       </c>
       <c r="L584">
         <v>0</v>
@@ -38186,10 +38186,10 @@
         <v>0.8</v>
       </c>
       <c r="J585">
-        <v>16471</v>
+        <v>17999</v>
       </c>
       <c r="K585">
-        <v>10301</v>
+        <v>11472</v>
       </c>
       <c r="L585">
         <v>0</v>
@@ -38245,10 +38245,10 @@
         <v>0</v>
       </c>
       <c r="J586">
-        <v>1805</v>
+        <v>1938</v>
       </c>
       <c r="K586">
-        <v>851</v>
+        <v>945</v>
       </c>
       <c r="L586">
         <v>0</v>
@@ -38304,10 +38304,10 @@
         <v>0.1</v>
       </c>
       <c r="J587">
-        <v>4264</v>
+        <v>4619</v>
       </c>
       <c r="K587">
-        <v>1913</v>
+        <v>2138</v>
       </c>
       <c r="L587">
         <v>0</v>
@@ -38363,10 +38363,10 @@
         <v>0.3</v>
       </c>
       <c r="J588">
-        <v>15737</v>
+        <v>16996</v>
       </c>
       <c r="K588">
-        <v>6455</v>
+        <v>7313</v>
       </c>
       <c r="L588">
         <v>1</v>
@@ -38422,10 +38422,10 @@
         <v>0.1</v>
       </c>
       <c r="J589">
-        <v>10123</v>
+        <v>11402</v>
       </c>
       <c r="K589">
-        <v>3130</v>
+        <v>3748</v>
       </c>
       <c r="L589">
         <v>1</v>
@@ -38478,13 +38478,13 @@
         <v>5</v>
       </c>
       <c r="I590">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J590">
-        <v>775</v>
+        <v>4742</v>
       </c>
       <c r="K590">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="L590">
         <v>0</v>
